--- a/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
+++ b/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\新しいフォルダー\フライテック個人事業主\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/flyhawk/フライテック個人事業主/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99D4BC7-93CE-4550-840C-2E719350C36F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6197EC16-F338-6547-81F1-4B942F1BED6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="29364" windowHeight="13848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2369,9 +2369,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2387,6 +2384,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2671,52 +2671,52 @@
   <dimension ref="A1:AA68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="2" topLeftCell="V9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y29" sqref="Y29"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="12.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.69921875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="12" width="13.296875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="13.33203125" style="2" customWidth="1"/>
     <col min="13" max="15" width="9" style="2"/>
     <col min="16" max="17" width="9" style="27"/>
-    <col min="18" max="18" width="10.796875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="2" customWidth="1"/>
     <col min="19" max="21" width="9" style="2"/>
     <col min="22" max="23" width="9" style="27"/>
-    <col min="24" max="24" width="28.69921875" style="28" customWidth="1"/>
+    <col min="24" max="24" width="28.6640625" style="28" customWidth="1"/>
     <col min="25" max="25" width="9" style="27"/>
-    <col min="26" max="26" width="9" style="76"/>
-    <col min="27" max="27" width="34.296875" style="28" customWidth="1"/>
+    <col min="26" max="26" width="9" style="75"/>
+    <col min="27" max="27" width="34.33203125" style="28" customWidth="1"/>
     <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="M1" s="75" t="s">
+      <c r="M1" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="S1" s="75" t="s">
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="S1" s="88" t="s">
         <v>375</v>
       </c>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
       <c r="Y1" s="28"/>
     </row>
     <row r="2" spans="1:27">
@@ -2789,14 +2789,14 @@
       <c r="Y2" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="Z2" s="77" t="s">
+      <c r="Z2" s="76" t="s">
         <v>393</v>
       </c>
       <c r="AA2" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="19.8">
+    <row r="3" spans="1:27" ht="20">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -2850,7 +2850,7 @@
       <c r="W3" s="25"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="25"/>
-      <c r="Z3" s="78"/>
+      <c r="Z3" s="77"/>
       <c r="AA3" s="72" t="s">
         <v>115</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="W4" s="25"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="25"/>
-      <c r="Z4" s="78"/>
+      <c r="Z4" s="77"/>
       <c r="AA4" s="72" t="s">
         <v>114</v>
       </c>
@@ -2956,12 +2956,12 @@
       <c r="W5" s="25"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="25"/>
-      <c r="Z5" s="78"/>
+      <c r="Z5" s="77"/>
       <c r="AA5" s="72" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="19.8">
+    <row r="6" spans="1:27" ht="20">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -3009,7 +3009,7 @@
       <c r="W6" s="25"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="25"/>
-      <c r="Z6" s="78"/>
+      <c r="Z6" s="77"/>
       <c r="AA6" s="72" t="s">
         <v>210</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="W7" s="25"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="25"/>
-      <c r="Z7" s="78"/>
+      <c r="Z7" s="77"/>
       <c r="AA7" s="72" t="s">
         <v>243</v>
       </c>
@@ -3103,12 +3103,12 @@
       <c r="W8" s="25"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="25"/>
-      <c r="Z8" s="78"/>
+      <c r="Z8" s="77"/>
       <c r="AA8" s="72" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="17.399999999999999" customHeight="1">
+    <row r="9" spans="1:27" ht="17.5" customHeight="1">
       <c r="A9" s="42"/>
       <c r="B9" s="42" t="s">
         <v>363</v>
@@ -3174,10 +3174,10 @@
         <v>386</v>
       </c>
       <c r="Y9" s="45"/>
-      <c r="Z9" s="79"/>
+      <c r="Z9" s="78"/>
       <c r="AA9" s="33"/>
     </row>
-    <row r="10" spans="1:27" ht="25.8" customHeight="1">
+    <row r="10" spans="1:27" ht="25.75" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="29" t="s">
         <v>359</v>
@@ -3241,7 +3241,7 @@
         <v>380</v>
       </c>
       <c r="Y10" s="32"/>
-      <c r="Z10" s="80" t="s">
+      <c r="Z10" s="79" t="s">
         <v>394</v>
       </c>
       <c r="AA10" s="33"/>
@@ -3294,7 +3294,7 @@
       <c r="W11" s="25"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="25"/>
-      <c r="Z11" s="78"/>
+      <c r="Z11" s="77"/>
       <c r="AA11" s="72" t="s">
         <v>114</v>
       </c>
@@ -3347,7 +3347,7 @@
       <c r="W12" s="25"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="25"/>
-      <c r="Z12" s="78"/>
+      <c r="Z12" s="77"/>
       <c r="AA12" s="72" t="s">
         <v>116</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="W13" s="25"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="25"/>
-      <c r="Z13" s="78"/>
+      <c r="Z13" s="77"/>
       <c r="AA13" s="72" t="s">
         <v>115</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="W14" s="25"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="25"/>
-      <c r="Z14" s="78"/>
+      <c r="Z14" s="77"/>
       <c r="AA14" s="72" t="s">
         <v>321</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="W15" s="25"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="25"/>
-      <c r="Z15" s="78"/>
+      <c r="Z15" s="77"/>
       <c r="AA15" s="72" t="s">
         <v>115</v>
       </c>
@@ -3559,7 +3559,7 @@
       <c r="W16" s="25"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="25"/>
-      <c r="Z16" s="78"/>
+      <c r="Z16" s="77"/>
       <c r="AA16" s="72" t="s">
         <v>114</v>
       </c>
@@ -3603,10 +3603,10 @@
       <c r="U17" s="35"/>
       <c r="W17" s="35"/>
       <c r="X17" s="1"/>
-      <c r="Z17" s="77"/>
+      <c r="Z17" s="76"/>
       <c r="AA17" s="33"/>
     </row>
-    <row r="18" spans="1:27" ht="19.2" customHeight="1">
+    <row r="18" spans="1:27" ht="19.25" customHeight="1">
       <c r="A18" s="47" t="s">
         <v>390</v>
       </c>
@@ -3670,12 +3670,12 @@
         <v>384</v>
       </c>
       <c r="Y18" s="50"/>
-      <c r="Z18" s="81"/>
+      <c r="Z18" s="80"/>
       <c r="AA18" s="73" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="20.399999999999999" customHeight="1">
+    <row r="19" spans="1:27" ht="20.5" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="42" t="s">
         <v>382</v>
@@ -3739,7 +3739,7 @@
         <v>383</v>
       </c>
       <c r="Y19" s="45"/>
-      <c r="Z19" s="82" t="s">
+      <c r="Z19" s="81" t="s">
         <v>395</v>
       </c>
       <c r="AA19" s="33" t="s">
@@ -3788,7 +3788,7 @@
       <c r="W20" s="25"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="25"/>
-      <c r="Z20" s="78"/>
+      <c r="Z20" s="77"/>
       <c r="AA20" s="72" t="s">
         <v>211</v>
       </c>
@@ -3835,7 +3835,7 @@
       <c r="W21" s="35"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="35"/>
-      <c r="Z21" s="77"/>
+      <c r="Z21" s="76"/>
       <c r="AA21" s="33"/>
     </row>
     <row r="22" spans="1:27">
@@ -3886,7 +3886,7 @@
       <c r="W22" s="25"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="25"/>
-      <c r="Z22" s="78"/>
+      <c r="Z22" s="77"/>
       <c r="AA22" s="72" t="s">
         <v>115</v>
       </c>
@@ -3933,10 +3933,10 @@
       <c r="W23" s="35"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="35"/>
-      <c r="Z23" s="77"/>
+      <c r="Z23" s="76"/>
       <c r="AA23" s="33"/>
     </row>
-    <row r="24" spans="1:27" ht="19.8" customHeight="1">
+    <row r="24" spans="1:27" ht="19.75" customHeight="1">
       <c r="A24" s="29"/>
       <c r="B24" s="29" t="s">
         <v>364</v>
@@ -4000,12 +4000,12 @@
         <v>388</v>
       </c>
       <c r="Y24" s="32"/>
-      <c r="Z24" s="83" t="s">
+      <c r="Z24" s="82" t="s">
         <v>396</v>
       </c>
       <c r="AA24" s="33"/>
     </row>
-    <row r="25" spans="1:27" ht="23.4" customHeight="1">
+    <row r="25" spans="1:27" ht="23.5" customHeight="1">
       <c r="A25" s="42"/>
       <c r="B25" s="42" t="s">
         <v>365</v>
@@ -4069,7 +4069,7 @@
         <v>385</v>
       </c>
       <c r="Y25" s="45"/>
-      <c r="Z25" s="82" t="s">
+      <c r="Z25" s="81" t="s">
         <v>397</v>
       </c>
       <c r="AA25" s="33"/>
@@ -4116,7 +4116,7 @@
       <c r="W26" s="25"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="25"/>
-      <c r="Z26" s="78"/>
+      <c r="Z26" s="77"/>
       <c r="AA26" s="72" t="s">
         <v>116</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="W27" s="35"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="35"/>
-      <c r="Z27" s="77"/>
+      <c r="Z27" s="76"/>
       <c r="AA27" s="33"/>
     </row>
     <row r="28" spans="1:27">
@@ -4208,7 +4208,7 @@
       <c r="W28" s="35"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="35"/>
-      <c r="Z28" s="77"/>
+      <c r="Z28" s="76"/>
       <c r="AA28" s="33"/>
     </row>
     <row r="29" spans="1:27">
@@ -4259,7 +4259,7 @@
       <c r="W29" s="25"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="25"/>
-      <c r="Z29" s="78"/>
+      <c r="Z29" s="77"/>
       <c r="AA29" s="72" t="s">
         <v>114</v>
       </c>
@@ -4304,7 +4304,7 @@
       <c r="W30" s="35"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="35"/>
-      <c r="Z30" s="77"/>
+      <c r="Z30" s="76"/>
       <c r="AA30" s="33"/>
     </row>
     <row r="31" spans="1:27">
@@ -4355,7 +4355,7 @@
       <c r="W31" s="25"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="25"/>
-      <c r="Z31" s="78"/>
+      <c r="Z31" s="77"/>
       <c r="AA31" s="72" t="s">
         <v>114</v>
       </c>
@@ -4408,12 +4408,12 @@
       <c r="W32" s="25"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="25"/>
-      <c r="Z32" s="78"/>
+      <c r="Z32" s="77"/>
       <c r="AA32" s="72" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="19.2" customHeight="1">
+    <row r="33" spans="1:27" ht="19.25" customHeight="1">
       <c r="A33" s="29"/>
       <c r="B33" s="29" t="s">
         <v>362</v>
@@ -4477,7 +4477,7 @@
         <v>387</v>
       </c>
       <c r="Y33" s="31"/>
-      <c r="Z33" s="84" t="s">
+      <c r="Z33" s="83" t="s">
         <v>398</v>
       </c>
       <c r="AA33" s="33"/>
@@ -4524,7 +4524,7 @@
       <c r="W34" s="25"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="25"/>
-      <c r="Z34" s="78"/>
+      <c r="Z34" s="77"/>
       <c r="AA34" s="33"/>
     </row>
     <row r="35" spans="1:27">
@@ -4575,7 +4575,7 @@
       <c r="W35" s="25"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="25"/>
-      <c r="Z35" s="78"/>
+      <c r="Z35" s="77"/>
       <c r="AA35" s="72" t="s">
         <v>114</v>
       </c>
@@ -4628,7 +4628,7 @@
       <c r="W36" s="25"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="25"/>
-      <c r="Z36" s="78"/>
+      <c r="Z36" s="77"/>
       <c r="AA36" s="72" t="s">
         <v>114</v>
       </c>
@@ -4681,7 +4681,7 @@
       <c r="W37" s="25"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="25"/>
-      <c r="Z37" s="78"/>
+      <c r="Z37" s="77"/>
       <c r="AA37" s="72" t="s">
         <v>115</v>
       </c>
@@ -4734,7 +4734,7 @@
       <c r="W38" s="25"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="25"/>
-      <c r="Z38" s="78"/>
+      <c r="Z38" s="77"/>
       <c r="AA38" s="72" t="s">
         <v>114</v>
       </c>
@@ -4787,7 +4787,7 @@
       <c r="W39" s="25"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="25"/>
-      <c r="Z39" s="78"/>
+      <c r="Z39" s="77"/>
       <c r="AA39" s="72" t="s">
         <v>114</v>
       </c>
@@ -4834,7 +4834,7 @@
       <c r="W40" s="25"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="25"/>
-      <c r="Z40" s="78"/>
+      <c r="Z40" s="77"/>
       <c r="AA40" s="72" t="s">
         <v>239</v>
       </c>
@@ -4889,7 +4889,7 @@
       <c r="W41" s="40"/>
       <c r="X41" s="37"/>
       <c r="Y41" s="40"/>
-      <c r="Z41" s="85"/>
+      <c r="Z41" s="84"/>
       <c r="AA41" s="33"/>
     </row>
     <row r="42" spans="1:27">
@@ -4938,7 +4938,7 @@
       <c r="W42" s="40"/>
       <c r="X42" s="37"/>
       <c r="Y42" s="40"/>
-      <c r="Z42" s="85"/>
+      <c r="Z42" s="84"/>
       <c r="AA42" s="33"/>
     </row>
     <row r="43" spans="1:27">
@@ -4993,7 +4993,7 @@
       <c r="W43" s="32"/>
       <c r="X43" s="29"/>
       <c r="Y43" s="31"/>
-      <c r="Z43" s="86"/>
+      <c r="Z43" s="85"/>
       <c r="AA43" s="33"/>
     </row>
     <row r="44" spans="1:27">
@@ -5050,7 +5050,7 @@
       <c r="W44" s="25"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="25"/>
-      <c r="Z44" s="78"/>
+      <c r="Z44" s="77"/>
       <c r="AA44" s="33"/>
     </row>
     <row r="45" spans="1:27">
@@ -5101,7 +5101,7 @@
       <c r="W45" s="25"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="25"/>
-      <c r="Z45" s="78"/>
+      <c r="Z45" s="77"/>
       <c r="AA45" s="72" t="s">
         <v>323</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="W46" s="32"/>
       <c r="X46" s="29"/>
       <c r="Y46" s="31"/>
-      <c r="Z46" s="86"/>
+      <c r="Z46" s="85"/>
       <c r="AA46" s="33"/>
     </row>
     <row r="47" spans="1:27">
@@ -5209,7 +5209,7 @@
       <c r="W47" s="40"/>
       <c r="X47" s="37"/>
       <c r="Y47" s="40"/>
-      <c r="Z47" s="85"/>
+      <c r="Z47" s="84"/>
       <c r="AA47" s="33"/>
     </row>
     <row r="48" spans="1:27">
@@ -5256,7 +5256,7 @@
       <c r="W48" s="40"/>
       <c r="X48" s="37"/>
       <c r="Y48" s="40"/>
-      <c r="Z48" s="85"/>
+      <c r="Z48" s="84"/>
       <c r="AA48" s="33"/>
     </row>
     <row r="49" spans="1:27">
@@ -5303,7 +5303,7 @@
       <c r="W49" s="40"/>
       <c r="X49" s="37"/>
       <c r="Y49" s="40"/>
-      <c r="Z49" s="85"/>
+      <c r="Z49" s="84"/>
       <c r="AA49" s="33"/>
     </row>
     <row r="50" spans="1:27">
@@ -5354,7 +5354,7 @@
       <c r="W50" s="25"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="25"/>
-      <c r="Z50" s="78"/>
+      <c r="Z50" s="77"/>
       <c r="AA50" s="72" t="s">
         <v>321</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="W51" s="32"/>
       <c r="X51" s="29"/>
       <c r="Y51" s="31"/>
-      <c r="Z51" s="86"/>
+      <c r="Z51" s="85"/>
       <c r="AA51" s="33" t="s">
         <v>335</v>
       </c>
@@ -5464,7 +5464,7 @@
       <c r="W52" s="40"/>
       <c r="X52" s="37"/>
       <c r="Y52" s="40"/>
-      <c r="Z52" s="85"/>
+      <c r="Z52" s="84"/>
       <c r="AA52" s="33"/>
     </row>
     <row r="53" spans="1:27">
@@ -5515,7 +5515,7 @@
       <c r="W53" s="25"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="25"/>
-      <c r="Z53" s="78"/>
+      <c r="Z53" s="77"/>
       <c r="AA53" s="72" t="s">
         <v>322</v>
       </c>
@@ -5562,7 +5562,7 @@
       <c r="W54" s="40"/>
       <c r="X54" s="37"/>
       <c r="Y54" s="40"/>
-      <c r="Z54" s="85"/>
+      <c r="Z54" s="84"/>
       <c r="AA54" s="33"/>
     </row>
     <row r="55" spans="1:27">
@@ -5607,7 +5607,7 @@
       <c r="W55" s="40"/>
       <c r="X55" s="37"/>
       <c r="Y55" s="40"/>
-      <c r="Z55" s="85"/>
+      <c r="Z55" s="84"/>
       <c r="AA55" s="33"/>
     </row>
     <row r="56" spans="1:27">
@@ -5652,7 +5652,7 @@
       <c r="W56" s="25"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="25"/>
-      <c r="Z56" s="78"/>
+      <c r="Z56" s="77"/>
       <c r="AA56" s="72" t="s">
         <v>357</v>
       </c>
@@ -5699,7 +5699,7 @@
       <c r="W57" s="40"/>
       <c r="X57" s="37"/>
       <c r="Y57" s="40"/>
-      <c r="Z57" s="85"/>
+      <c r="Z57" s="84"/>
       <c r="AA57" s="33"/>
     </row>
     <row r="58" spans="1:27">
@@ -5744,7 +5744,7 @@
       <c r="W58" s="40"/>
       <c r="X58" s="37"/>
       <c r="Y58" s="40"/>
-      <c r="Z58" s="85"/>
+      <c r="Z58" s="84"/>
       <c r="AA58" s="33"/>
     </row>
     <row r="59" spans="1:27">
@@ -5789,7 +5789,7 @@
       <c r="W59" s="26"/>
       <c r="X59" s="21"/>
       <c r="Y59" s="26"/>
-      <c r="Z59" s="87"/>
+      <c r="Z59" s="86"/>
       <c r="AA59" s="33"/>
     </row>
     <row r="60" spans="1:27">
@@ -5834,7 +5834,7 @@
       <c r="W60" s="26"/>
       <c r="X60" s="21"/>
       <c r="Y60" s="26"/>
-      <c r="Z60" s="87"/>
+      <c r="Z60" s="86"/>
       <c r="AA60" s="33"/>
     </row>
     <row r="61" spans="1:27">
@@ -5879,7 +5879,7 @@
       <c r="W61" s="26"/>
       <c r="X61" s="21"/>
       <c r="Y61" s="26"/>
-      <c r="Z61" s="87"/>
+      <c r="Z61" s="86"/>
       <c r="AA61" s="33"/>
     </row>
     <row r="62" spans="1:27">
@@ -5908,7 +5908,7 @@
       <c r="W62" s="63"/>
       <c r="X62" s="64"/>
       <c r="Y62" s="63"/>
-      <c r="Z62" s="88"/>
+      <c r="Z62" s="87"/>
       <c r="AA62" s="64"/>
     </row>
     <row r="63" spans="1:27">
@@ -5937,7 +5937,7 @@
       <c r="W63" s="63"/>
       <c r="X63" s="64"/>
       <c r="Y63" s="63"/>
-      <c r="Z63" s="88"/>
+      <c r="Z63" s="87"/>
       <c r="AA63" s="64"/>
     </row>
     <row r="64" spans="1:27">
@@ -6036,13 +6036,13 @@
     <hyperlink ref="J59" r:id="rId57" xr:uid="{1F794A32-EFB2-3D42-A286-BCD1CBBC45BA}"/>
     <hyperlink ref="J60" r:id="rId58" xr:uid="{70E14BC8-324F-4F41-9AE4-53FFD031B034}"/>
     <hyperlink ref="J61" r:id="rId59" xr:uid="{24174C93-6E13-914B-BE7B-96471148896D}"/>
-    <hyperlink ref="Z10" r:id="rId60" xr:uid="{1B83B776-BCCD-4AE3-BA8C-9099B19912F7}"/>
-    <hyperlink ref="Z19" r:id="rId61" xr:uid="{D2BEBD61-88B2-4D3D-86A4-8BA5F6234D07}"/>
-    <hyperlink ref="Z24" r:id="rId62" xr:uid="{D0162BA0-2D27-4874-82F4-3A761F550167}"/>
-    <hyperlink ref="Z25" r:id="rId63" xr:uid="{9CA4A9FF-A78A-4776-8E2D-C04D57C3476B}"/>
-    <hyperlink ref="Z33" r:id="rId64" xr:uid="{28224FBA-E1A6-471A-8DF2-D36159E27546}"/>
+    <hyperlink ref="Z10" display="/イニシャル変更後職務経歴書\職務経歴書_HS.xlsx" xr:uid="{1B83B776-BCCD-4AE3-BA8C-9099B19912F7}"/>
+    <hyperlink ref="Z19" display="/イニシャル変更後職務経歴書\業務経歴書_TK.xls" xr:uid="{D2BEBD61-88B2-4D3D-86A4-8BA5F6234D07}"/>
+    <hyperlink ref="Z24" display="イニシャル変更後職務経歴書\職務経歴書_SH.xls" xr:uid="{D0162BA0-2D27-4874-82F4-3A761F550167}"/>
+    <hyperlink ref="Z25" r:id="rId60" xr:uid="{9CA4A9FF-A78A-4776-8E2D-C04D57C3476B}"/>
+    <hyperlink ref="Z33" display="イニシャル変更後職務経歴書\職務経歴書_MA.docx" xr:uid="{28224FBA-E1A6-471A-8DF2-D36159E27546}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
--- a/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
+++ b/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
@@ -8,32 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/flyhawk/フライテック個人事業主/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6197EC16-F338-6547-81F1-4B942F1BED6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8885BE0-3D2D-BB41-8A5B-45C788D25236}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="413">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -1602,10 +1594,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>返答なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NG</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1949,14 +1937,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>60</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>経歴書</t>
     <rPh sb="0" eb="3">
       <t>ケイレキショ</t>
@@ -1984,6 +1964,164 @@
   </si>
   <si>
     <t>イニシャル変更後職務経歴書\職務経歴書_MA.docx</t>
+  </si>
+  <si>
+    <t>西早稲田、新大久保駅</t>
+    <rPh sb="0" eb="1">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イニシャル変更後職務経歴書/職務経歴書_OY.xlsx</t>
+  </si>
+  <si>
+    <t>イニシャル変更後職務経歴書/職務経歴書_SK.xlsx</t>
+  </si>
+  <si>
+    <t>イニシャル変更後職務経歴書/職務経歴書_OH.xlsx</t>
+  </si>
+  <si>
+    <t>イニシャル変更後職務経歴書/職務経歴書_IA.xls</t>
+  </si>
+  <si>
+    <t>イニシャル変更後職務経歴書/職務経歴書_GR.pdf</t>
+  </si>
+  <si>
+    <t>イニシャル変更後職務経歴書/職務経歴書_UH.pdf</t>
+  </si>
+  <si>
+    <t>Androidの開発経験が8年あり、Swiftの経験が8年あることからアプリ開発のフロントエンド、バックエンドの経験が10年以上あります。
+また、Pythonの経験が5年あり、Flutterの経験が3年あります。
+年齢は42歳です。
+条件の希望は下記になります。
+------------------------------------------------------------
+・希望言語
+　Dart,Flutter,Python,Django
+・希望勤務地
+　東京
+・希望稼働日
+　来月～
+・希望単価
+　75万円～95万円
+・希望契約形態
+    準委任契約
+------------------------------------------------------------
+また、Pythonの経験が5年あり、Flutterの経験が3年あります。
+年齢は42歳です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C言語の経験が4年ほどあり、Web制作経験が21年ほどあります。
+また、VBAの経験が少ないですが、社内事務の自動化を行い、要件定義から運用までの全ての工程を担当しています。
+年齢は53歳です。
+条件の希望は下記になります。
+------------------------------------------------------------
+・希望言語
+　VBA、VB.NET、c言語、WordPressのテーマ作り
+・希望勤務地
+　自宅から100分以内
+・希望稼働日
+　来月～
+・希望単価
+　45万円以上（手取り）
+・希望契約形態
+    準委任契約
+------------------------------------------------------------</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COBOlの経験が19年ほどあり、基本設計から結合テストまで全工程の経験があります。
+年齢は53歳です。
+条件の希望は下記になります。
+------------------------------------------------------------
+・希望言語
+　COBOL
+・希望勤務地
+　東京
+・希望稼働日
+　来月～
+・希望単価
+　なし
+・希望契約形態
+  準委任契約
+------------------------------------------------------------</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unityの経験が2年ほどあります。
+そして、プランナーとしての経験があり、さまざまな業種での品質管理を行うことができます。
+年齢は33歳です。
+条件の希望は下記になります。
+------------------------------------------------------------
+・希望言語
+　なし
+・希望勤務地
+　東京都内
+・希望稼働日
+　即日～
+・希望単価
+   55万円
+・希望契約形態
+  準委任契約
+------------------------------------------------------------</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Javaの経験が5年ほど、Pythonの経験が4年半ほど、VBAの経験が6年ほど、Swiftの経験が6年ほどあります。
+そして、得意分野はiOS、Android、JSON, Node.jsの開発、Pythonの人工知能、統計の開発です。
+年齢は45歳です。
+条件の希望は下記になります。
+------------------------------------------------------------
+・希望言語
+　swift, objective C,java,android,kotlin,ios
+・希望勤務地
+　東京,　横浜
+・希望稼働日
+　即日～
+・希望単価
+   60万円
+・希望契約形態
+  準委任契約
+------------------------------------------------------------ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RPGⅢの経験が13年ほど、VBAの経験が2年ほどあります。
+また、SEやプロジェクトマネージャ、統括マネージャーとしての経験があります。年齢は53歳です。
+条件の希望は下記になります。
+------------------------------------------------------------
+・希望言語
+　RPG３、ExcelVBA
+・希望勤務地
+　東京23区
+・希望稼働日
+　即日～
+・希望単価
+   60〜65万円
+・希望契約形態
+  準委任契約
+------------------------------------------------------------ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★★★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返答なし(経歴書なし)</t>
+    <rPh sb="0" eb="2">
+      <t>ケイレk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2221,7 +2359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2354,9 +2492,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2386,6 +2521,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2697,34 +2836,34 @@
     <col min="22" max="23" width="9" style="27"/>
     <col min="24" max="24" width="28.6640625" style="28" customWidth="1"/>
     <col min="25" max="25" width="9" style="27"/>
-    <col min="26" max="26" width="9" style="75"/>
+    <col min="26" max="26" width="9" style="74"/>
     <col min="27" max="27" width="34.33203125" style="28" customWidth="1"/>
     <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="S1" s="88" t="s">
-        <v>375</v>
-      </c>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="S1" s="87" t="s">
+        <v>374</v>
+      </c>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
       <c r="Y1" s="28"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="74" t="s">
-        <v>389</v>
+      <c r="A2" s="73" t="s">
+        <v>388</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>0</v>
@@ -2770,27 +2909,27 @@
         <v>97</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S2" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="T2" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="U2" s="68" t="s">
         <v>377</v>
-      </c>
-      <c r="U2" s="68" t="s">
-        <v>378</v>
       </c>
       <c r="V2" s="35"/>
       <c r="W2" s="35"/>
       <c r="X2" s="35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Y2" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="Z2" s="76" t="s">
-        <v>393</v>
+        <v>389</v>
+      </c>
+      <c r="Z2" s="75" t="s">
+        <v>390</v>
       </c>
       <c r="AA2" s="24" t="s">
         <v>112</v>
@@ -2850,8 +2989,8 @@
       <c r="W3" s="25"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="25"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="72" t="s">
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="71" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2897,8 +3036,8 @@
       <c r="W4" s="25"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="25"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="72" t="s">
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="71" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2956,8 +3095,8 @@
       <c r="W5" s="25"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="25"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="72" t="s">
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="71" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3009,8 +3148,8 @@
       <c r="W6" s="25"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="25"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="72" t="s">
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="71" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3056,8 +3195,8 @@
       <c r="W7" s="25"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="25"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="72" t="s">
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="71" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3103,15 +3242,17 @@
       <c r="W8" s="25"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="25"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="72" t="s">
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="71" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="17.5" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="42" t="s">
+        <v>411</v>
+      </c>
       <c r="B9" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>43</v>
@@ -3157,7 +3298,7 @@
         <v>92</v>
       </c>
       <c r="R9" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S9" s="45" t="s">
         <v>92</v>
@@ -3170,17 +3311,21 @@
       </c>
       <c r="V9" s="45"/>
       <c r="W9" s="45"/>
-      <c r="X9" s="70" t="s">
-        <v>386</v>
+      <c r="X9" s="77" t="s">
+        <v>385</v>
       </c>
       <c r="Y9" s="45"/>
-      <c r="Z9" s="78"/>
+      <c r="Z9" s="80" t="s">
+        <v>402</v>
+      </c>
       <c r="AA9" s="33"/>
     </row>
-    <row r="10" spans="1:27" ht="25.75" customHeight="1">
-      <c r="A10" s="29"/>
+    <row r="10" spans="1:27">
+      <c r="A10" s="29" t="s">
+        <v>411</v>
+      </c>
       <c r="B10" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>45</v>
@@ -3224,25 +3369,25 @@
       </c>
       <c r="Q10" s="32"/>
       <c r="R10" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S10" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T10" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U10" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
-      <c r="X10" s="69" t="s">
-        <v>380</v>
+      <c r="X10" s="84" t="s">
+        <v>379</v>
       </c>
       <c r="Y10" s="32"/>
-      <c r="Z10" s="79" t="s">
-        <v>394</v>
+      <c r="Z10" s="78" t="s">
+        <v>391</v>
       </c>
       <c r="AA10" s="33"/>
     </row>
@@ -3294,8 +3439,8 @@
       <c r="W11" s="25"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="25"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="72" t="s">
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="71" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3347,8 +3492,8 @@
       <c r="W12" s="25"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="25"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="72" t="s">
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="71" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3400,8 +3545,8 @@
       <c r="W13" s="25"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="25"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="72" t="s">
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="71" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3453,8 +3598,8 @@
       <c r="W14" s="25"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="25"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="72" t="s">
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="71" t="s">
         <v>321</v>
       </c>
     </row>
@@ -3506,8 +3651,8 @@
       <c r="W15" s="25"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="25"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="72" t="s">
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="71" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3559,8 +3704,8 @@
       <c r="W16" s="25"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="25"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="72" t="s">
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="71" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3603,15 +3748,15 @@
       <c r="U17" s="35"/>
       <c r="W17" s="35"/>
       <c r="X17" s="1"/>
-      <c r="Z17" s="76"/>
+      <c r="Z17" s="75"/>
       <c r="AA17" s="33"/>
     </row>
     <row r="18" spans="1:27" ht="19.25" customHeight="1">
       <c r="A18" s="47" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>82</v>
@@ -3666,19 +3811,21 @@
       </c>
       <c r="V18" s="50"/>
       <c r="W18" s="50"/>
-      <c r="X18" s="71" t="s">
-        <v>384</v>
+      <c r="X18" s="70" t="s">
+        <v>383</v>
       </c>
       <c r="Y18" s="50"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="73" t="s">
-        <v>338</v>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="72" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="20.5" customHeight="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="42" t="s">
+        <v>411</v>
+      </c>
       <c r="B19" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>86</v>
@@ -3735,15 +3882,15 @@
       </c>
       <c r="V19" s="45"/>
       <c r="W19" s="45"/>
-      <c r="X19" s="70" t="s">
-        <v>383</v>
+      <c r="X19" s="77" t="s">
+        <v>382</v>
       </c>
       <c r="Y19" s="45"/>
-      <c r="Z19" s="81" t="s">
-        <v>395</v>
+      <c r="Z19" s="80" t="s">
+        <v>392</v>
       </c>
       <c r="AA19" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -3788,8 +3935,8 @@
       <c r="W20" s="25"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="25"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="72" t="s">
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="71" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3835,7 +3982,7 @@
       <c r="W21" s="35"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="35"/>
-      <c r="Z21" s="76"/>
+      <c r="Z21" s="75"/>
       <c r="AA21" s="33"/>
     </row>
     <row r="22" spans="1:27">
@@ -3886,8 +4033,8 @@
       <c r="W22" s="25"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="25"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="72" t="s">
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="71" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3933,13 +4080,15 @@
       <c r="W23" s="35"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="35"/>
-      <c r="Z23" s="76"/>
+      <c r="Z23" s="75"/>
       <c r="AA23" s="33"/>
     </row>
     <row r="24" spans="1:27" ht="19.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="29" t="s">
+        <v>411</v>
+      </c>
       <c r="B24" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>133</v>
@@ -3983,7 +4132,7 @@
       </c>
       <c r="Q24" s="32"/>
       <c r="R24" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S24" s="31" t="s">
         <v>156</v>
@@ -3996,19 +4145,21 @@
       </c>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
-      <c r="X24" s="69" t="s">
-        <v>388</v>
+      <c r="X24" s="84" t="s">
+        <v>387</v>
       </c>
       <c r="Y24" s="32"/>
-      <c r="Z24" s="82" t="s">
-        <v>396</v>
+      <c r="Z24" s="81" t="s">
+        <v>393</v>
       </c>
       <c r="AA24" s="33"/>
     </row>
-    <row r="25" spans="1:27" ht="23.5" customHeight="1">
-      <c r="A25" s="42"/>
+    <row r="25" spans="1:27">
+      <c r="A25" s="42" t="s">
+        <v>411</v>
+      </c>
       <c r="B25" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C25" s="42" t="s">
         <v>138</v>
@@ -4065,12 +4216,12 @@
       </c>
       <c r="V25" s="45"/>
       <c r="W25" s="45"/>
-      <c r="X25" s="70" t="s">
-        <v>385</v>
+      <c r="X25" s="77" t="s">
+        <v>384</v>
       </c>
       <c r="Y25" s="45"/>
-      <c r="Z25" s="81" t="s">
-        <v>397</v>
+      <c r="Z25" s="80" t="s">
+        <v>394</v>
       </c>
       <c r="AA25" s="33"/>
     </row>
@@ -4116,8 +4267,8 @@
       <c r="W26" s="25"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="25"/>
-      <c r="Z26" s="77"/>
-      <c r="AA26" s="72" t="s">
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="71" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4163,7 +4314,7 @@
       <c r="W27" s="35"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="35"/>
-      <c r="Z27" s="76"/>
+      <c r="Z27" s="75"/>
       <c r="AA27" s="33"/>
     </row>
     <row r="28" spans="1:27">
@@ -4208,7 +4359,7 @@
       <c r="W28" s="35"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="35"/>
-      <c r="Z28" s="76"/>
+      <c r="Z28" s="75"/>
       <c r="AA28" s="33"/>
     </row>
     <row r="29" spans="1:27">
@@ -4259,8 +4410,8 @@
       <c r="W29" s="25"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="25"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="72" t="s">
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="71" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4304,7 +4455,7 @@
       <c r="W30" s="35"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="35"/>
-      <c r="Z30" s="76"/>
+      <c r="Z30" s="75"/>
       <c r="AA30" s="33"/>
     </row>
     <row r="31" spans="1:27">
@@ -4355,8 +4506,8 @@
       <c r="W31" s="25"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="25"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="72" t="s">
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="71" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4408,15 +4559,17 @@
       <c r="W32" s="25"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="25"/>
-      <c r="Z32" s="77"/>
-      <c r="AA32" s="72" t="s">
+      <c r="Z32" s="76"/>
+      <c r="AA32" s="71" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="19.25" customHeight="1">
-      <c r="A33" s="29"/>
+      <c r="A33" s="29" t="s">
+        <v>409</v>
+      </c>
       <c r="B33" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>180</v>
@@ -4460,7 +4613,7 @@
       </c>
       <c r="Q33" s="31"/>
       <c r="R33" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S33" s="31" t="s">
         <v>156</v>
@@ -4474,11 +4627,11 @@
       <c r="V33" s="31"/>
       <c r="W33" s="31"/>
       <c r="X33" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y33" s="31"/>
-      <c r="Z33" s="83" t="s">
-        <v>398</v>
+      <c r="Z33" s="82" t="s">
+        <v>395</v>
       </c>
       <c r="AA33" s="33"/>
     </row>
@@ -4524,7 +4677,7 @@
       <c r="W34" s="25"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="25"/>
-      <c r="Z34" s="77"/>
+      <c r="Z34" s="76"/>
       <c r="AA34" s="33"/>
     </row>
     <row r="35" spans="1:27">
@@ -4575,8 +4728,8 @@
       <c r="W35" s="25"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="25"/>
-      <c r="Z35" s="77"/>
-      <c r="AA35" s="72" t="s">
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="71" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4628,8 +4781,8 @@
       <c r="W36" s="25"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="25"/>
-      <c r="Z36" s="77"/>
-      <c r="AA36" s="72" t="s">
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="71" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4681,8 +4834,8 @@
       <c r="W37" s="25"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="25"/>
-      <c r="Z37" s="77"/>
-      <c r="AA37" s="72" t="s">
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="71" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4734,8 +4887,8 @@
       <c r="W38" s="25"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="25"/>
-      <c r="Z38" s="77"/>
-      <c r="AA38" s="72" t="s">
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="71" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4787,8 +4940,8 @@
       <c r="W39" s="25"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="25"/>
-      <c r="Z39" s="77"/>
-      <c r="AA39" s="72" t="s">
+      <c r="Z39" s="76"/>
+      <c r="AA39" s="71" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4834,15 +4987,17 @@
       <c r="W40" s="25"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="25"/>
-      <c r="Z40" s="77"/>
-      <c r="AA40" s="72" t="s">
+      <c r="Z40" s="76"/>
+      <c r="AA40" s="71" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:27">
-      <c r="A41" s="37"/>
+      <c r="A41" s="37" t="s">
+        <v>411</v>
+      </c>
       <c r="B41" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C41" s="37" t="s">
         <v>219</v>
@@ -4887,15 +5042,21 @@
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="40"/>
-      <c r="X41" s="37"/>
+      <c r="X41" s="83" t="s">
+        <v>406</v>
+      </c>
       <c r="Y41" s="40"/>
-      <c r="Z41" s="84"/>
+      <c r="Z41" s="88" t="s">
+        <v>399</v>
+      </c>
       <c r="AA41" s="33"/>
     </row>
     <row r="42" spans="1:27">
-      <c r="A42" s="37"/>
+      <c r="A42" s="37" t="s">
+        <v>411</v>
+      </c>
       <c r="B42" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>224</v>
@@ -4936,15 +5097,19 @@
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="40"/>
-      <c r="X42" s="37"/>
+      <c r="X42" s="83" t="s">
+        <v>405</v>
+      </c>
       <c r="Y42" s="40"/>
-      <c r="Z42" s="84"/>
+      <c r="Z42" s="88" t="s">
+        <v>400</v>
+      </c>
       <c r="AA42" s="33"/>
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="29"/>
       <c r="B43" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>229</v>
@@ -4984,16 +5149,20 @@
       </c>
       <c r="Q43" s="32"/>
       <c r="R43" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S43" s="31"/>
       <c r="T43" s="31"/>
       <c r="U43" s="31"/>
       <c r="V43" s="31"/>
       <c r="W43" s="32"/>
-      <c r="X43" s="29"/>
+      <c r="X43" s="84" t="s">
+        <v>408</v>
+      </c>
       <c r="Y43" s="31"/>
-      <c r="Z43" s="85"/>
+      <c r="Z43" s="81" t="s">
+        <v>397</v>
+      </c>
       <c r="AA43" s="33"/>
     </row>
     <row r="44" spans="1:27">
@@ -5050,7 +5219,7 @@
       <c r="W44" s="25"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="25"/>
-      <c r="Z44" s="77"/>
+      <c r="Z44" s="76"/>
       <c r="AA44" s="33"/>
     </row>
     <row r="45" spans="1:27">
@@ -5101,17 +5270,17 @@
       <c r="W45" s="25"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="25"/>
-      <c r="Z45" s="77"/>
-      <c r="AA45" s="72" t="s">
+      <c r="Z45" s="76"/>
+      <c r="AA45" s="71" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="29" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>255</v>
@@ -5160,150 +5329,154 @@
       <c r="U46" s="31"/>
       <c r="V46" s="31"/>
       <c r="W46" s="32"/>
-      <c r="X46" s="29"/>
+      <c r="X46" s="84" t="s">
+        <v>407</v>
+      </c>
       <c r="Y46" s="31"/>
-      <c r="Z46" s="85"/>
+      <c r="Z46" s="81" t="s">
+        <v>401</v>
+      </c>
       <c r="AA46" s="33"/>
     </row>
     <row r="47" spans="1:27">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="C47" s="37" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="F47" s="37" t="s">
+      <c r="F47" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38" t="s">
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="K47" s="58" t="s">
+      <c r="K47" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="L47" s="58"/>
-      <c r="M47" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N47" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="O47" s="39"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="84"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N47" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="O47" s="23"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="85"/>
       <c r="AA47" s="33"/>
     </row>
     <row r="48" spans="1:27">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="K48" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="L48" s="59"/>
+      <c r="M48" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N48" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="85"/>
+      <c r="AA48" s="33"/>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="C48" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="E48" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="K48" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="L48" s="58"/>
-      <c r="M48" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N48" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="84"/>
-      <c r="AA48" s="33"/>
-    </row>
-    <row r="49" spans="1:27">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F49" s="37" t="s">
+      <c r="F49" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38" t="s">
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="K49" s="58" t="s">
+      <c r="K49" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="L49" s="58"/>
-      <c r="M49" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N49" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="O49" s="39"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="40"/>
-      <c r="Z49" s="84"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="O49" s="23"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="26"/>
+      <c r="W49" s="26"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="85"/>
       <c r="AA49" s="33"/>
     </row>
     <row r="50" spans="1:27">
@@ -5354,17 +5527,17 @@
       <c r="W50" s="25"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="25"/>
-      <c r="Z50" s="77"/>
-      <c r="AA50" s="72" t="s">
+      <c r="Z50" s="76"/>
+      <c r="AA50" s="71" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="29" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>285</v>
@@ -5379,13 +5552,13 @@
         <v>130</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H51" s="29" t="s">
         <v>265</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J51" s="30" t="s">
         <v>286</v>
@@ -5407,23 +5580,27 @@
         <v>92</v>
       </c>
       <c r="Q51" s="32"/>
-      <c r="R51" s="29"/>
+      <c r="R51" s="29" t="s">
+        <v>396</v>
+      </c>
       <c r="S51" s="31"/>
       <c r="T51" s="31"/>
       <c r="U51" s="31"/>
       <c r="V51" s="31"/>
       <c r="W51" s="32"/>
-      <c r="X51" s="29"/>
+      <c r="X51" s="84" t="s">
+        <v>403</v>
+      </c>
       <c r="Y51" s="31"/>
-      <c r="Z51" s="85"/>
+      <c r="Z51" s="84"/>
       <c r="AA51" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="37"/>
       <c r="B52" s="37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C52" s="37" t="s">
         <v>289</v>
@@ -5462,9 +5639,13 @@
       <c r="U52" s="39"/>
       <c r="V52" s="40"/>
       <c r="W52" s="40"/>
-      <c r="X52" s="37"/>
+      <c r="X52" s="83" t="s">
+        <v>404</v>
+      </c>
       <c r="Y52" s="40"/>
-      <c r="Z52" s="84"/>
+      <c r="Z52" s="88" t="s">
+        <v>398</v>
+      </c>
       <c r="AA52" s="33"/>
     </row>
     <row r="53" spans="1:27">
@@ -5515,13 +5696,15 @@
       <c r="W53" s="25"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="25"/>
-      <c r="Z53" s="77"/>
-      <c r="AA53" s="72" t="s">
+      <c r="Z53" s="76"/>
+      <c r="AA53" s="71" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:27">
-      <c r="A54" s="37"/>
+      <c r="A54" s="37" t="s">
+        <v>410</v>
+      </c>
       <c r="B54" s="37"/>
       <c r="C54" s="37" t="s">
         <v>297</v>
@@ -5562,52 +5745,52 @@
       <c r="W54" s="40"/>
       <c r="X54" s="37"/>
       <c r="Y54" s="40"/>
-      <c r="Z54" s="84"/>
+      <c r="Z54" s="83"/>
       <c r="AA54" s="33"/>
     </row>
     <row r="55" spans="1:27">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37" t="s">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="D55" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="F55" s="37" t="s">
+      <c r="F55" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="38" t="s">
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="K55" s="58" t="s">
+      <c r="K55" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="L55" s="58"/>
-      <c r="M55" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N55" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="O55" s="39"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="40"/>
-      <c r="Z55" s="84"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="O55" s="23"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="26"/>
+      <c r="W55" s="26"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="26"/>
+      <c r="Z55" s="85"/>
       <c r="AA55" s="33"/>
     </row>
     <row r="56" spans="1:27">
@@ -5652,112 +5835,112 @@
       <c r="W56" s="25"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="25"/>
-      <c r="Z56" s="77"/>
-      <c r="AA56" s="72" t="s">
-        <v>357</v>
+      <c r="Z56" s="76"/>
+      <c r="AA56" s="71" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="1:27">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37" t="s">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="F57" s="37" t="s">
+      <c r="F57" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38" t="s">
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="K57" s="58" t="s">
+      <c r="K57" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="L57" s="58"/>
-      <c r="M57" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N57" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="40"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="40"/>
-      <c r="Z57" s="84"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N57" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="26"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="26"/>
+      <c r="Z57" s="85"/>
       <c r="AA57" s="33"/>
     </row>
     <row r="58" spans="1:27">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37" t="s">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="E58" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="F58" s="37" t="s">
+      <c r="F58" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38" t="s">
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="K58" s="58" t="s">
+      <c r="K58" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="L58" s="58"/>
-      <c r="M58" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N58" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="O58" s="39"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="40"/>
-      <c r="Z58" s="84"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="N58" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="O58" s="23"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="26"/>
+      <c r="W58" s="26"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="26"/>
+      <c r="Z58" s="85"/>
       <c r="AA58" s="33"/>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="E59" s="21" t="s">
         <v>340</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>341</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>150</v>
@@ -5766,10 +5949,10 @@
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K59" s="59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L59" s="59"/>
       <c r="M59" s="23" t="s">
@@ -5789,20 +5972,20 @@
       <c r="W59" s="26"/>
       <c r="X59" s="21"/>
       <c r="Y59" s="26"/>
-      <c r="Z59" s="86"/>
+      <c r="Z59" s="85"/>
       <c r="AA59" s="33"/>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D60" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="E60" s="21" t="s">
         <v>346</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>347</v>
       </c>
       <c r="F60" s="21" t="s">
         <v>150</v>
@@ -5811,10 +5994,10 @@
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K60" s="59" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L60" s="59"/>
       <c r="M60" s="23" t="s">
@@ -5834,20 +6017,20 @@
       <c r="W60" s="26"/>
       <c r="X60" s="21"/>
       <c r="Y60" s="26"/>
-      <c r="Z60" s="86"/>
+      <c r="Z60" s="85"/>
       <c r="AA60" s="33"/>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="D61" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="E61" s="21" t="s">
         <v>353</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>354</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>150</v>
@@ -5856,7 +6039,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="J61" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K61" s="59" t="s">
         <v>136</v>
@@ -5879,7 +6062,7 @@
       <c r="W61" s="26"/>
       <c r="X61" s="21"/>
       <c r="Y61" s="26"/>
-      <c r="Z61" s="86"/>
+      <c r="Z61" s="85"/>
       <c r="AA61" s="33"/>
     </row>
     <row r="62" spans="1:27">
@@ -5908,7 +6091,7 @@
       <c r="W62" s="63"/>
       <c r="X62" s="64"/>
       <c r="Y62" s="63"/>
-      <c r="Z62" s="87"/>
+      <c r="Z62" s="86"/>
       <c r="AA62" s="64"/>
     </row>
     <row r="63" spans="1:27">
@@ -5937,7 +6120,7 @@
       <c r="W63" s="63"/>
       <c r="X63" s="64"/>
       <c r="Y63" s="63"/>
-      <c r="Z63" s="87"/>
+      <c r="Z63" s="86"/>
       <c r="AA63" s="64"/>
     </row>
     <row r="64" spans="1:27">
@@ -5958,16 +6141,16 @@
         <v>331</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" ht="38">
       <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
-        <v>332</v>
+      <c r="D67" s="89" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="3:4">
       <c r="C68" s="5"/>
       <c r="D68" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -6036,13 +6219,19 @@
     <hyperlink ref="J59" r:id="rId57" xr:uid="{1F794A32-EFB2-3D42-A286-BCD1CBBC45BA}"/>
     <hyperlink ref="J60" r:id="rId58" xr:uid="{70E14BC8-324F-4F41-9AE4-53FFD031B034}"/>
     <hyperlink ref="J61" r:id="rId59" xr:uid="{24174C93-6E13-914B-BE7B-96471148896D}"/>
-    <hyperlink ref="Z10" display="/イニシャル変更後職務経歴書\職務経歴書_HS.xlsx" xr:uid="{1B83B776-BCCD-4AE3-BA8C-9099B19912F7}"/>
-    <hyperlink ref="Z19" display="/イニシャル変更後職務経歴書\業務経歴書_TK.xls" xr:uid="{D2BEBD61-88B2-4D3D-86A4-8BA5F6234D07}"/>
-    <hyperlink ref="Z24" display="イニシャル変更後職務経歴書\職務経歴書_SH.xls" xr:uid="{D0162BA0-2D27-4874-82F4-3A761F550167}"/>
-    <hyperlink ref="Z25" r:id="rId60" xr:uid="{9CA4A9FF-A78A-4776-8E2D-C04D57C3476B}"/>
-    <hyperlink ref="Z33" display="イニシャル変更後職務経歴書\職務経歴書_MA.docx" xr:uid="{28224FBA-E1A6-471A-8DF2-D36159E27546}"/>
+    <hyperlink ref="Z10" r:id="rId60" xr:uid="{1B83B776-BCCD-4AE3-BA8C-9099B19912F7}"/>
+    <hyperlink ref="Z19" r:id="rId61" xr:uid="{D2BEBD61-88B2-4D3D-86A4-8BA5F6234D07}"/>
+    <hyperlink ref="Z24" r:id="rId62" xr:uid="{D0162BA0-2D27-4874-82F4-3A761F550167}"/>
+    <hyperlink ref="Z25" r:id="rId63" xr:uid="{9CA4A9FF-A78A-4776-8E2D-C04D57C3476B}"/>
+    <hyperlink ref="Z33" r:id="rId64" xr:uid="{28224FBA-E1A6-471A-8DF2-D36159E27546}"/>
+    <hyperlink ref="Z43" r:id="rId65" xr:uid="{952BB8B4-2E3C-F244-B7A3-D4EFCB65C312}"/>
+    <hyperlink ref="Z52" r:id="rId66" xr:uid="{396B5500-92FA-424E-AA47-1ADD1D23C32A}"/>
+    <hyperlink ref="Z41" r:id="rId67" xr:uid="{125B68BD-5C26-2C4C-8624-A1DC16936E0D}"/>
+    <hyperlink ref="Z42" r:id="rId68" xr:uid="{3680A6F7-9B24-B54B-9088-FE1F30B5BB70}"/>
+    <hyperlink ref="Z46" r:id="rId69" xr:uid="{3E12B84C-46E0-554B-8974-00D86BE0FA72}"/>
+    <hyperlink ref="Z9" r:id="rId70" xr:uid="{930E419E-7049-F24F-9D56-2CBDF5721DD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId71"/>
 </worksheet>
 </file>
--- a/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
+++ b/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/flyhawk/フライテック個人事業主/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8885BE0-3D2D-BB41-8A5B-45C788D25236}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67DE410-7004-954A-B829-A2AC0DBD5E7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="425">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -2122,6 +2122,67 @@
       <t>ケイレk</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イニシャル変更後職務経歴書/職務経歴書_ZX.docx</t>
+  </si>
+  <si>
+    <t>RPG  CL QUERY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JR中央線三鷹駅 or  吉祥寺駅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出来れば50万円～　（案件により綱領します）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京23区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPG３、ExcelVBA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65万円〜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央・総武線沿線希望。第一希望は中野です。他も対応可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Objective-C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective-Cの経験が9年ほど、PHPの経験が7年ほどあります。
+また、iOSアプリ開発の要件定義から保守まで全ての工程での経験があります。
+年齢は54歳です。
+条件の希望は下記になります。
+------------------------------------------------------------
+・希望言語
+    Objective-C
+・希望勤務地
+　中央・総武線沿線希望で第一希望は中野。他も対応可能
+・希望稼働日
+　即日～
+・希望単価
+   60万円
+・希望契約形態
+  準委任契約
+------------------------------------------------------------ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イニシャル変更後職務経歴書/職務経歴書_TK.xls</t>
   </si>
 </sst>
 </file>
@@ -2519,12 +2580,12 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2810,7 +2871,7 @@
   <dimension ref="A1:AA68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="2" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -2842,20 +2903,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="S1" s="87" t="s">
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="S1" s="89" t="s">
         <v>374</v>
       </c>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
       <c r="Y1" s="28"/>
     </row>
     <row r="2" spans="1:27">
@@ -5046,7 +5107,7 @@
         <v>406</v>
       </c>
       <c r="Y41" s="40"/>
-      <c r="Z41" s="88" t="s">
+      <c r="Z41" s="87" t="s">
         <v>399</v>
       </c>
       <c r="AA41" s="33"/>
@@ -5101,13 +5162,15 @@
         <v>405</v>
       </c>
       <c r="Y42" s="40"/>
-      <c r="Z42" s="88" t="s">
+      <c r="Z42" s="87" t="s">
         <v>400</v>
       </c>
       <c r="AA42" s="33"/>
     </row>
     <row r="43" spans="1:27">
-      <c r="A43" s="29"/>
+      <c r="A43" s="29" t="s">
+        <v>411</v>
+      </c>
       <c r="B43" s="29" t="s">
         <v>367</v>
       </c>
@@ -5126,8 +5189,12 @@
       <c r="G43" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
+      <c r="H43" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>419</v>
+      </c>
       <c r="J43" s="30" t="s">
         <v>232</v>
       </c>
@@ -5386,50 +5453,64 @@
       <c r="AA47" s="33"/>
     </row>
     <row r="48" spans="1:27">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="C48" s="21" t="s">
+      <c r="A48" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="C48" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="22" t="s">
+      <c r="G48" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="I48" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="J48" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="K48" s="59" t="s">
+      <c r="K48" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="L48" s="59"/>
-      <c r="M48" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="N48" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="26"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="85"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="N48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="O48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="83" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="87" t="s">
+        <v>424</v>
+      </c>
       <c r="AA48" s="33"/>
     </row>
     <row r="49" spans="1:27">
@@ -5592,13 +5673,17 @@
         <v>403</v>
       </c>
       <c r="Y51" s="31"/>
-      <c r="Z51" s="84"/>
+      <c r="Z51" s="81" t="s">
+        <v>413</v>
+      </c>
       <c r="AA51" s="33" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:27">
-      <c r="A52" s="37"/>
+      <c r="A52" s="37" t="s">
+        <v>411</v>
+      </c>
       <c r="B52" s="37" t="s">
         <v>372</v>
       </c>
@@ -5643,7 +5728,7 @@
         <v>404</v>
       </c>
       <c r="Y52" s="40"/>
-      <c r="Z52" s="88" t="s">
+      <c r="Z52" s="87" t="s">
         <v>398</v>
       </c>
       <c r="AA52" s="33"/>
@@ -6021,48 +6106,62 @@
       <c r="AA60" s="33"/>
     </row>
     <row r="61" spans="1:27">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21" t="s">
+      <c r="A61" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="C61" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="22" t="s">
+      <c r="G61" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="H61" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="I61" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="J61" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="K61" s="59" t="s">
+      <c r="K61" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="L61" s="59"/>
-      <c r="M61" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="N61" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="O61" s="23"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="26"/>
-      <c r="W61" s="26"/>
-      <c r="X61" s="21"/>
-      <c r="Y61" s="26"/>
-      <c r="Z61" s="85"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="N61" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="O61" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="40"/>
+      <c r="Z61" s="83"/>
       <c r="AA61" s="33"/>
     </row>
     <row r="62" spans="1:27">
@@ -6143,7 +6242,7 @@
     </row>
     <row r="67" spans="3:4" ht="38">
       <c r="C67" s="1"/>
-      <c r="D67" s="89" t="s">
+      <c r="D67" s="88" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6230,8 +6329,10 @@
     <hyperlink ref="Z42" r:id="rId68" xr:uid="{3680A6F7-9B24-B54B-9088-FE1F30B5BB70}"/>
     <hyperlink ref="Z46" r:id="rId69" xr:uid="{3E12B84C-46E0-554B-8974-00D86BE0FA72}"/>
     <hyperlink ref="Z9" r:id="rId70" xr:uid="{930E419E-7049-F24F-9D56-2CBDF5721DD2}"/>
+    <hyperlink ref="Z51" r:id="rId71" xr:uid="{E5AEFDEF-5302-7340-85C4-CDB7EDDA6E81}"/>
+    <hyperlink ref="Z48" r:id="rId72" xr:uid="{00F9A4A8-E6CA-5A47-A8B9-C5556C6524C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId71"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>
--- a/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
+++ b/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/flyhawk/フライテック個人事業主/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flyha\Desktop\flyhawk\フライテックDoc\フライテック個人事業主\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67DE410-7004-954A-B829-A2AC0DBD5E7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B10C6B-ED6F-4BD4-BE63-B436852B5A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="425">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -2420,7 +2420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2587,6 +2587,10 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2870,35 +2874,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="2" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="18" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="12" width="13.33203125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="13.375" style="2" customWidth="1"/>
     <col min="13" max="15" width="9" style="2"/>
     <col min="16" max="17" width="9" style="27"/>
-    <col min="18" max="18" width="10.83203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="2" customWidth="1"/>
     <col min="19" max="21" width="9" style="2"/>
     <col min="22" max="23" width="9" style="27"/>
-    <col min="24" max="24" width="28.6640625" style="28" customWidth="1"/>
+    <col min="24" max="24" width="28.625" style="28" customWidth="1"/>
     <col min="25" max="25" width="9" style="27"/>
     <col min="26" max="26" width="9" style="74"/>
-    <col min="27" max="27" width="34.33203125" style="28" customWidth="1"/>
+    <col min="27" max="27" width="34.375" style="28" customWidth="1"/>
     <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2996,7 +3000,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="20">
+    <row r="3" spans="1:27" ht="19.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -3161,7 +3165,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="20">
+    <row r="6" spans="1:27" ht="19.5">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -3308,7 +3312,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="17.5" customHeight="1">
+    <row r="9" spans="1:27" ht="17.45" customHeight="1">
       <c r="A9" s="42" t="s">
         <v>411</v>
       </c>
@@ -3812,7 +3816,7 @@
       <c r="Z17" s="75"/>
       <c r="AA17" s="33"/>
     </row>
-    <row r="18" spans="1:27" ht="19.25" customHeight="1">
+    <row r="18" spans="1:27" ht="19.350000000000001" customHeight="1">
       <c r="A18" s="47" t="s">
         <v>410</v>
       </c>
@@ -3881,7 +3885,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="20.5" customHeight="1">
+    <row r="19" spans="1:27" ht="20.45" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>411</v>
       </c>
@@ -4144,7 +4148,7 @@
       <c r="Z23" s="75"/>
       <c r="AA23" s="33"/>
     </row>
-    <row r="24" spans="1:27" ht="19.75" customHeight="1">
+    <row r="24" spans="1:27" ht="19.7" customHeight="1">
       <c r="A24" s="29" t="s">
         <v>411</v>
       </c>
@@ -4625,7 +4629,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="19.25" customHeight="1">
+    <row r="33" spans="1:27" ht="19.350000000000001" customHeight="1">
       <c r="A33" s="29" t="s">
         <v>409</v>
       </c>
@@ -5342,7 +5346,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" s="91" customFormat="1">
       <c r="A46" s="29" t="s">
         <v>410</v>
       </c>
@@ -5391,8 +5395,12 @@
       </c>
       <c r="Q46" s="32"/>
       <c r="R46" s="29"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
+      <c r="S46" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="T46" s="31" t="s">
+        <v>92</v>
+      </c>
       <c r="U46" s="31"/>
       <c r="V46" s="31"/>
       <c r="W46" s="32"/>
@@ -5403,7 +5411,7 @@
       <c r="Z46" s="81" t="s">
         <v>401</v>
       </c>
-      <c r="AA46" s="33"/>
+      <c r="AA46" s="90"/>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="21"/>
@@ -5452,66 +5460,70 @@
       <c r="Z47" s="85"/>
       <c r="AA47" s="33"/>
     </row>
-    <row r="48" spans="1:27">
-      <c r="A48" s="37" t="s">
+    <row r="48" spans="1:27" s="91" customFormat="1">
+      <c r="A48" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="F48" s="37" t="s">
+      <c r="F48" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="G48" s="37" t="s">
+      <c r="G48" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="H48" s="37" t="s">
+      <c r="H48" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="I48" s="37" t="s">
+      <c r="I48" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="J48" s="38" t="s">
+      <c r="J48" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="K48" s="58" t="s">
+      <c r="K48" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="L48" s="58"/>
-      <c r="M48" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N48" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="O48" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="83" t="s">
+      <c r="L48" s="55"/>
+      <c r="M48" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="N48" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="O48" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="T48" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="84" t="s">
         <v>423</v>
       </c>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="87" t="s">
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="81" t="s">
         <v>424</v>
       </c>
-      <c r="AA48" s="33"/>
+      <c r="AA48" s="90"/>
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="21"/>
@@ -5613,7 +5625,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" s="91" customFormat="1">
       <c r="A51" s="29" t="s">
         <v>410</v>
       </c>
@@ -5664,8 +5676,12 @@
       <c r="R51" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
+      <c r="S51" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="T51" s="31" t="s">
+        <v>92</v>
+      </c>
       <c r="U51" s="31"/>
       <c r="V51" s="31"/>
       <c r="W51" s="32"/>
@@ -5676,7 +5692,7 @@
       <c r="Z51" s="81" t="s">
         <v>413</v>
       </c>
-      <c r="AA51" s="33" t="s">
+      <c r="AA51" s="90" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6240,7 +6256,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="67" spans="3:4" ht="38">
+    <row r="67" spans="3:4" ht="37.5">
       <c r="C67" s="1"/>
       <c r="D67" s="88" t="s">
         <v>412</v>

--- a/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
+++ b/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flyha\Desktop\flyhawk\フライテックDoc\フライテック個人事業主\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B10C6B-ED6F-4BD4-BE63-B436852B5A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222CB65B-CC34-4DD1-A0FC-F2EDE2477112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AA$64</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="426">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -2183,6 +2186,10 @@
   </si>
   <si>
     <t>イニシャル変更後職務経歴書/職務経歴書_TK.xls</t>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2331,7 +2338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2415,12 +2422,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2438,14 +2454,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2489,9 +2499,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2500,7 +2507,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2543,7 +2549,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2569,7 +2574,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2584,13 +2588,44 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2872,13 +2907,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA68"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="18" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -2895,1822 +2930,1951 @@
     <col min="10" max="10" width="13" style="2" customWidth="1"/>
     <col min="11" max="12" width="13.375" style="2" customWidth="1"/>
     <col min="13" max="15" width="9" style="2"/>
-    <col min="16" max="17" width="9" style="27"/>
+    <col min="16" max="17" width="9" style="23"/>
     <col min="18" max="18" width="10.875" style="2" customWidth="1"/>
     <col min="19" max="21" width="9" style="2"/>
-    <col min="22" max="23" width="9" style="27"/>
-    <col min="24" max="24" width="28.625" style="28" customWidth="1"/>
-    <col min="25" max="25" width="9" style="27"/>
-    <col min="26" max="26" width="9" style="74"/>
-    <col min="27" max="27" width="34.375" style="28" customWidth="1"/>
+    <col min="22" max="23" width="9" style="23"/>
+    <col min="24" max="24" width="28.625" style="24" customWidth="1"/>
+    <col min="25" max="25" width="9" style="23"/>
+    <col min="26" max="26" width="9" style="67"/>
+    <col min="27" max="27" width="34.375" style="24" customWidth="1"/>
     <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="S1" s="89" t="s">
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="S1" s="83" t="s">
         <v>374</v>
       </c>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="Y1" s="28"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="Y1" s="24"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="65" t="s">
+      <c r="L2" s="60"/>
+      <c r="M2" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="S2" s="65" t="s">
+      <c r="S2" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="U2" s="68" t="s">
+      <c r="U2" s="61" t="s">
         <v>377</v>
       </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35" t="s">
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Y2" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="Z2" s="75" t="s">
+      <c r="Z2" s="68" t="s">
         <v>390</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="19.5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
+    <row r="3" spans="1:27">
+      <c r="A3" s="66"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="31"/>
+    </row>
+    <row r="4" spans="1:27" ht="52.5" customHeight="1">
+      <c r="A4" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="97"/>
+      <c r="M4" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="U4" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="63" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="65" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5" s="49"/>
+      <c r="M5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="76" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="73" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA5" s="81"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="L6" s="49"/>
+      <c r="M6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="76" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA6" s="81"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="L7" s="49"/>
+      <c r="M7" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="76" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="73" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA7" s="81" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K8" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="L8" s="52"/>
+      <c r="M8" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="29"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="48"/>
+      <c r="M9" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="72" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA9" s="29"/>
+    </row>
+    <row r="10" spans="1:27" ht="17.45" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="49"/>
+      <c r="M10" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="U10" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="96" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA10" s="29"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="M11" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" s="36"/>
+      <c r="S11" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U11" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="100" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA11" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="19.5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="G12" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="49"/>
+      <c r="M12" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="U12" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA12" s="29"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="71" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G13" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" s="36"/>
+      <c r="S13" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T13" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U13" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA13" s="29"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="52"/>
+      <c r="M14" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="79" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA14" s="29"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="L15" s="52"/>
+      <c r="M15" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="79" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA15" s="29"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" s="49"/>
+      <c r="M16" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="76" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="73" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA16" s="29"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="52"/>
+      <c r="M17" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="79" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA17" s="29"/>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="52"/>
+      <c r="M18" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="29"/>
+    </row>
+    <row r="19" spans="1:27" ht="19.350000000000001" customHeight="1">
+      <c r="A19" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="71" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="17.45" customHeight="1">
-      <c r="A9" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" s="45" t="s">
+      <c r="G19" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" s="49"/>
+      <c r="M19" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="Q9" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="R9" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="S9" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="T9" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="U9" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="77" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="80" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA9" s="33"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="55"/>
-      <c r="M10" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P10" s="32" t="s">
+      <c r="O19" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="S19" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="S10" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="T10" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="U10" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="84" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="78" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA10" s="33"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="53"/>
-      <c r="M11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P11" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q11" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="53"/>
-      <c r="M12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P12" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q12" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="71" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="53"/>
-      <c r="M13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O13" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q13" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="53"/>
-      <c r="M14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O14" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P14" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q14" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="71" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="53"/>
-      <c r="M15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O15" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q15" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="53"/>
-      <c r="M16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O16" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P16" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="56"/>
-      <c r="M17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="1"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="33"/>
-    </row>
-    <row r="18" spans="1:27" ht="19.350000000000001" customHeight="1">
-      <c r="A18" s="47" t="s">
-        <v>410</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="57"/>
-      <c r="M18" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="N18" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="O18" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="P18" s="50" t="s">
+      <c r="T19" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="49" t="s">
+      <c r="U19" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="T18" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="U18" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="70" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="72" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="20.45" customHeight="1">
-      <c r="A19" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="N19" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="O19" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="R19" s="42"/>
-      <c r="S19" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="T19" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="U19" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="77" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="AA19" s="33" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="5"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="62" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="74" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA19" s="29"/>
+    </row>
+    <row r="20" spans="1:27" ht="20.45" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="53"/>
+        <v>7</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="46"/>
       <c r="M20" s="4" t="s">
         <v>92</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
+      <c r="O20" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>204</v>
+      </c>
       <c r="R20" s="5"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="71" t="s">
-        <v>211</v>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="64" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="K21" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="33"/>
+      <c r="A21" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="47"/>
+      <c r="M21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="64" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15" t="s">
-        <v>144</v>
+      <c r="A22" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="47"/>
       <c r="M22" s="4" t="s">
         <v>92</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O22" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P22" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q22" s="25" t="s">
+      <c r="O22" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q22" s="21" t="s">
         <v>204</v>
       </c>
       <c r="R22" s="5"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23" s="56"/>
-      <c r="M23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="75"/>
-      <c r="AA23" s="33"/>
-    </row>
-    <row r="24" spans="1:27" ht="19.7" customHeight="1">
-      <c r="A24" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="29" t="s">
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="19.5">
+      <c r="A23" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="K24" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" s="55"/>
-      <c r="M24" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="N24" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="O24" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P24" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="S24" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="T24" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="U24" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="84" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="81" t="s">
-        <v>393</v>
-      </c>
-      <c r="AA24" s="33"/>
-    </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="J25" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="K25" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25" s="54"/>
-      <c r="M25" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="N25" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="O25" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="P25" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q25" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="R25" s="42"/>
-      <c r="S25" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="T25" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="U25" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="77" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="80" t="s">
-        <v>394</v>
-      </c>
-      <c r="AA25" s="33"/>
+      <c r="G23" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="69"/>
+      <c r="AA23" s="64" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="47"/>
+      <c r="M24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="64" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="19.7" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="47"/>
+      <c r="M25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="64" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="K26" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="L26" s="53"/>
+        <v>49</v>
+      </c>
+      <c r="K26" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="47"/>
       <c r="M26" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
+      <c r="N26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P26" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q26" s="21" t="s">
+        <v>204</v>
+      </c>
       <c r="R26" s="5"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="76"/>
-      <c r="AA26" s="71" t="s">
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="47"/>
+      <c r="M27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q27" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="64" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="K27" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="L27" s="56"/>
-      <c r="M27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N27" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="75"/>
-      <c r="AA27" s="33"/>
-    </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="K28" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="L28" s="56"/>
-      <c r="M28" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N28" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="33"/>
+      <c r="A28" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="47"/>
+      <c r="M28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N28" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q28" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R28" s="5"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="64" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="K29" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="L29" s="53"/>
+        <v>66</v>
+      </c>
+      <c r="K29" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="47"/>
       <c r="M29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N29" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="O29" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P29" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q29" s="25" t="s">
+      <c r="N29" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q29" s="21" t="s">
         <v>204</v>
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="76"/>
-      <c r="AA29" s="71" t="s">
-        <v>114</v>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="64" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="K30" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="L30" s="56"/>
-      <c r="M30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N30" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="18"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="33"/>
+      <c r="A30" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="47"/>
+      <c r="M30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="64" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="K31" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="L31" s="53"/>
+        <v>76</v>
+      </c>
+      <c r="K31" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" s="47"/>
       <c r="M31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N31" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="O31" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="P31" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q31" s="25" t="s">
+      <c r="N31" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="O31" s="95" t="s">
+        <v>204</v>
+      </c>
+      <c r="P31" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q31" s="21" t="s">
         <v>204</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="76"/>
-      <c r="AA31" s="71" t="s">
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="64" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="5"/>
+      <c r="A32" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="K32" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="L32" s="53"/>
+        <v>118</v>
+      </c>
+      <c r="K32" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="47"/>
       <c r="M32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N32" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="O32" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="P32" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q32" s="25" t="s">
-        <v>204</v>
-      </c>
+      <c r="N32" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="O32" s="94"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
       <c r="R32" s="5"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="76"/>
-      <c r="AA32" s="71" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="19.350000000000001" customHeight="1">
-      <c r="A33" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F33" s="29" t="s">
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="69"/>
+      <c r="AA32" s="64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="K33" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="L33" s="55"/>
-      <c r="M33" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="N33" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="O33" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="P33" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="S33" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="T33" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="U33" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="69" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="82" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA33" s="33"/>
-    </row>
-    <row r="34" spans="1:27">
-      <c r="A34" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K33" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="L33" s="86"/>
+      <c r="M33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N33" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="O33" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q33" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R33" s="5"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="69"/>
+      <c r="AA33" s="64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="19.350000000000001" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>150</v>
@@ -4719,43 +4883,47 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="K34" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="L34" s="53"/>
+        <v>154</v>
+      </c>
+      <c r="K34" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" s="47"/>
       <c r="M34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="N34" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
       <c r="R34" s="5"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="76"/>
-      <c r="AA34" s="33"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="69"/>
+      <c r="AA34" s="64" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="5"/>
+      <c r="A35" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>150</v>
@@ -4764,157 +4932,163 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="K35" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="L35" s="53"/>
+        <v>158</v>
+      </c>
+      <c r="K35" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="L35" s="47"/>
       <c r="M35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N35" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="O35" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P35" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q35" s="25" t="s">
+      <c r="N35" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q35" s="21" t="s">
         <v>204</v>
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="76"/>
-      <c r="AA35" s="71" t="s">
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="64" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:27">
-      <c r="A36" s="5"/>
+      <c r="A36" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="K36" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="L36" s="53"/>
+        <v>172</v>
+      </c>
+      <c r="K36" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="L36" s="47"/>
       <c r="M36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N36" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="O36" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P36" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q36" s="25" t="s">
+      <c r="N36" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q36" s="21" t="s">
         <v>204</v>
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="76"/>
-      <c r="AA36" s="71" t="s">
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="69"/>
+      <c r="AA36" s="64" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:27">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="K37" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="L37" s="53"/>
+        <v>178</v>
+      </c>
+      <c r="K37" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="L37" s="47"/>
       <c r="M37" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N37" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="O37" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P37" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q37" s="25" t="s">
+      <c r="N37" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q37" s="21" t="s">
         <v>204</v>
       </c>
       <c r="R37" s="5"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="76"/>
-      <c r="AA37" s="71" t="s">
-        <v>115</v>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="69"/>
+      <c r="AA37" s="64" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:27">
-      <c r="A38" s="5"/>
+      <c r="A38" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>150</v>
@@ -4923,51 +5097,45 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="K38" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="L38" s="53"/>
+        <v>189</v>
+      </c>
+      <c r="K38" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="L38" s="47"/>
       <c r="M38" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N38" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="O38" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P38" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q38" s="25" t="s">
-        <v>204</v>
-      </c>
+      <c r="N38" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
       <c r="R38" s="5"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="76"/>
-      <c r="AA38" s="71" t="s">
-        <v>114</v>
-      </c>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="69"/>
+      <c r="AA38" s="29"/>
     </row>
     <row r="39" spans="1:27">
-      <c r="A39" s="5"/>
+      <c r="A39" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>150</v>
@@ -4976,51 +5144,53 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="K39" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="L39" s="53"/>
+        <v>191</v>
+      </c>
+      <c r="K39" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="L39" s="47"/>
       <c r="M39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N39" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="O39" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P39" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q39" s="25" t="s">
+      <c r="N39" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P39" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q39" s="21" t="s">
         <v>204</v>
       </c>
       <c r="R39" s="5"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="76"/>
-      <c r="AA39" s="71" t="s">
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="69"/>
+      <c r="AA39" s="64" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="5"/>
+      <c r="A40" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>150</v>
@@ -5029,1324 +5199,1282 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="K40" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="L40" s="53"/>
+        <v>198</v>
+      </c>
+      <c r="K40" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L40" s="47"/>
       <c r="M40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N40" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
+      <c r="N40" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P40" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q40" s="21" t="s">
+        <v>204</v>
+      </c>
       <c r="R40" s="5"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="76"/>
-      <c r="AA40" s="71" t="s">
-        <v>239</v>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="69"/>
+      <c r="AA40" s="64" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:27">
-      <c r="A41" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="F41" s="37" t="s">
+      <c r="A41" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="I41" s="37"/>
-      <c r="J41" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="K41" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="L41" s="58"/>
-      <c r="M41" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N41" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="O41" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="83" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="87" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA41" s="33"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K41" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="L41" s="47"/>
+      <c r="M41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P41" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q41" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R41" s="5"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="69"/>
+      <c r="AA41" s="64" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="42" spans="1:27">
-      <c r="A42" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="K42" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="L42" s="58"/>
-      <c r="M42" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N42" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="O42" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="83" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="87" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA42" s="33"/>
+      <c r="A42" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K42" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" s="47"/>
+      <c r="M42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N42" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P42" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q42" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R42" s="5"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="69"/>
+      <c r="AA42" s="64" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="43" spans="1:27">
-      <c r="A43" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="F43" s="29" t="s">
+      <c r="A43" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G43" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="I43" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="J43" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="K43" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="L43" s="55"/>
-      <c r="M43" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="N43" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="O43" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P43" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="84" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="81" t="s">
-        <v>397</v>
-      </c>
-      <c r="AA43" s="33"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K43" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="L43" s="47"/>
+      <c r="M43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N43" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P43" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q43" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R43" s="5"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="69"/>
+      <c r="AA43" s="64" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="44" spans="1:27">
-      <c r="A44" s="5"/>
+      <c r="A44" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>273</v>
-      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="L44" s="17"/>
+        <v>214</v>
+      </c>
+      <c r="K44" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="L44" s="47"/>
       <c r="M44" s="4" t="s">
         <v>92</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O44" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P44" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q44" s="25" t="s">
-        <v>204</v>
-      </c>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
       <c r="R44" s="5"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="76"/>
-      <c r="AA44" s="33"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="69"/>
+      <c r="AA44" s="64" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="45" spans="1:27">
-      <c r="A45" s="5"/>
+      <c r="A45" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>273</v>
+      </c>
       <c r="J45" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="K45" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="L45" s="53"/>
+        <v>248</v>
+      </c>
+      <c r="K45" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="L45" s="89"/>
       <c r="M45" s="4" t="s">
         <v>92</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O45" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P45" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q45" s="25" t="s">
+      <c r="O45" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P45" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q45" s="21" t="s">
         <v>204</v>
       </c>
       <c r="R45" s="5"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="76"/>
-      <c r="AA45" s="71" t="s">
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="69"/>
+      <c r="AA45" s="29"/>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="K46" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="L46" s="47"/>
+      <c r="M46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O46" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P46" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q46" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R46" s="5"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="69"/>
+      <c r="AA46" s="64" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="91" customFormat="1">
-      <c r="A46" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="F46" s="29" t="s">
+    <row r="47" spans="1:27" s="82" customFormat="1">
+      <c r="A47" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="J46" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="K46" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="L46" s="55"/>
-      <c r="M46" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="N46" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="O46" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P46" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="T46" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="84" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="81" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA46" s="90"/>
-    </row>
-    <row r="47" spans="1:27">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="F47" s="21" t="s">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K47" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L47" s="88"/>
+      <c r="M47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N47" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="O47" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P47" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q47" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R47" s="5"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="69"/>
+      <c r="AA47" s="64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="K48" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" s="47"/>
+      <c r="M48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P48" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q48" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R48" s="5"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="69"/>
+      <c r="AA48" s="64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="82" customFormat="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K49" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="L49" s="50"/>
+      <c r="M49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="31"/>
+      <c r="Z49" s="68"/>
+      <c r="AA49" s="29"/>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="K50" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="L50" s="50"/>
+      <c r="M50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="68"/>
+      <c r="AA50" s="29"/>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="K47" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="L47" s="59"/>
-      <c r="M47" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="N47" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="O47" s="23"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="26"/>
-      <c r="W47" s="26"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="85"/>
-      <c r="AA47" s="33"/>
-    </row>
-    <row r="48" spans="1:27" s="91" customFormat="1">
-      <c r="A48" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>420</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="J48" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="K48" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="L48" s="55"/>
-      <c r="M48" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="N48" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="O48" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="T48" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="U48" s="32"/>
-      <c r="V48" s="32"/>
-      <c r="W48" s="32"/>
-      <c r="X48" s="84" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="81" t="s">
-        <v>424</v>
-      </c>
-      <c r="AA48" s="90"/>
-    </row>
-    <row r="49" spans="1:27">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="K49" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="L49" s="59"/>
-      <c r="M49" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="N49" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="O49" s="23"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="26"/>
-      <c r="W49" s="26"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="85"/>
-      <c r="AA49" s="33"/>
-    </row>
-    <row r="50" spans="1:27">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="K50" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="L50" s="41"/>
-      <c r="M50" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N50" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="O50" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P50" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q50" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="R50" s="5"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="25"/>
-      <c r="V50" s="25"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="76"/>
-      <c r="AA50" s="71" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" s="91" customFormat="1">
-      <c r="A51" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="K51" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="L51" s="55"/>
-      <c r="M51" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="N51" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="O51" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P51" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="S51" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="T51" s="31" t="s">
-        <v>92</v>
-      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K51" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="L51" s="90"/>
+      <c r="M51" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
       <c r="U51" s="31"/>
       <c r="V51" s="31"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="84" t="s">
-        <v>403</v>
-      </c>
+      <c r="W51" s="31"/>
+      <c r="X51" s="1"/>
       <c r="Y51" s="31"/>
-      <c r="Z51" s="81" t="s">
-        <v>413</v>
-      </c>
-      <c r="AA51" s="90" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
-      <c r="A52" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>372</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="F52" s="37" t="s">
+      <c r="Z51" s="68"/>
+      <c r="AA51" s="29"/>
+    </row>
+    <row r="52" spans="1:27" s="82" customFormat="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K52" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="L52" s="50"/>
+      <c r="M52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N52" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="93"/>
+      <c r="U52" s="31"/>
+      <c r="V52" s="31"/>
+      <c r="W52" s="31"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="31"/>
+      <c r="Z52" s="68"/>
+      <c r="AA52" s="29"/>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K53" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="L53" s="50"/>
+      <c r="M53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N53" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="93"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="31"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="31"/>
+      <c r="Z53" s="68"/>
+      <c r="AA53" s="29"/>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K54" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="L54" s="50"/>
+      <c r="M54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N54" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="93"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="31"/>
+      <c r="Z54" s="68"/>
+      <c r="AA54" s="29"/>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="F55" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="K52" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="L52" s="58"/>
-      <c r="M52" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N52" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="O52" s="39"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="83" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="87" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA52" s="33"/>
-    </row>
-    <row r="53" spans="1:27">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="K53" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="L53" s="53"/>
-      <c r="M53" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O53" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="P53" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q53" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="R53" s="5"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="25"/>
-      <c r="V53" s="25"/>
-      <c r="W53" s="25"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="25"/>
-      <c r="Z53" s="76"/>
-      <c r="AA53" s="71" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
-      <c r="A54" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="K54" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="L54" s="58"/>
-      <c r="M54" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N54" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="40"/>
-      <c r="Z54" s="83"/>
-      <c r="AA54" s="33"/>
-    </row>
-    <row r="55" spans="1:27">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21" t="s">
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="K55" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="L55" s="53"/>
+      <c r="M55" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N55" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O55" s="19"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="77"/>
+      <c r="AA55" s="29"/>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="K56" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="L56" s="53"/>
+      <c r="M56" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N56" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O56" s="19"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="77"/>
+      <c r="AA56" s="29"/>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D57" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E57" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F57" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="22" t="s">
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="K55" s="59" t="s">
+      <c r="K57" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="L55" s="59"/>
-      <c r="M55" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="N55" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="O55" s="23"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="26"/>
-      <c r="W55" s="26"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="26"/>
-      <c r="Z55" s="85"/>
-      <c r="AA55" s="33"/>
-    </row>
-    <row r="56" spans="1:27">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5" t="s">
+      <c r="L57" s="54"/>
+      <c r="M57" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N57" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O57" s="19"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="77"/>
+      <c r="AA57" s="29"/>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="9" t="s">
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="K56" s="41" t="s">
+      <c r="K58" s="88" t="s">
         <v>310</v>
       </c>
-      <c r="L56" s="41"/>
-      <c r="M56" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="25"/>
-      <c r="Z56" s="76"/>
-      <c r="AA56" s="71" t="s">
+      <c r="L58" s="88"/>
+      <c r="M58" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="69"/>
+      <c r="AA58" s="64" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21" t="s">
+    <row r="59" spans="1:27">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D59" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E59" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F59" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="22" t="s">
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="K57" s="59" t="s">
+      <c r="K59" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="L57" s="59"/>
-      <c r="M57" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="N57" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="26"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="26"/>
-      <c r="Z57" s="85"/>
-      <c r="AA57" s="33"/>
-    </row>
-    <row r="58" spans="1:27">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21" t="s">
+      <c r="L59" s="53"/>
+      <c r="M59" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N59" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="77"/>
+      <c r="AA59" s="29"/>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D60" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E60" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F60" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="22" t="s">
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="K58" s="59" t="s">
+      <c r="K60" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="L58" s="59"/>
-      <c r="M58" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="N58" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="O58" s="23"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="26"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="26"/>
-      <c r="Z58" s="85"/>
-      <c r="AA58" s="33"/>
-    </row>
-    <row r="59" spans="1:27">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21" t="s">
+      <c r="L60" s="53"/>
+      <c r="M60" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N60" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O60" s="19"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="77"/>
+      <c r="AA60" s="29"/>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D61" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E61" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F61" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="22" t="s">
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="K59" s="59" t="s">
+      <c r="K61" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="L59" s="59"/>
-      <c r="M59" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="N59" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="O59" s="23"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="85"/>
-      <c r="AA59" s="33"/>
-    </row>
-    <row r="60" spans="1:27">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21" t="s">
+      <c r="L61" s="53"/>
+      <c r="M61" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N61" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O61" s="19"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="77"/>
+      <c r="AA61" s="29"/>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D62" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E62" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F62" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="22" t="s">
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="K60" s="59" t="s">
+      <c r="K62" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="L60" s="59"/>
-      <c r="M60" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="N60" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="O60" s="23"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="85"/>
-      <c r="AA60" s="33"/>
-    </row>
-    <row r="61" spans="1:27">
-      <c r="A61" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="D61" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="E61" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="G61" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="H61" s="37" t="s">
-        <v>415</v>
-      </c>
-      <c r="I61" s="37" t="s">
-        <v>414</v>
-      </c>
-      <c r="J61" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="K61" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="L61" s="58"/>
-      <c r="M61" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N61" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="O61" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="37" t="s">
-        <v>416</v>
-      </c>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="83"/>
-      <c r="AA61" s="33"/>
-    </row>
-    <row r="62" spans="1:27">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="62"/>
-      <c r="O62" s="62"/>
-      <c r="P62" s="63"/>
-      <c r="Q62" s="63"/>
-      <c r="R62" s="60"/>
-      <c r="S62" s="62"/>
-      <c r="T62" s="62"/>
-      <c r="U62" s="62"/>
-      <c r="V62" s="63"/>
-      <c r="W62" s="63"/>
-      <c r="X62" s="64"/>
-      <c r="Y62" s="63"/>
-      <c r="Z62" s="86"/>
-      <c r="AA62" s="64"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N62" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O62" s="19"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="77"/>
+      <c r="AA62" s="29"/>
     </row>
     <row r="63" spans="1:27">
-      <c r="A63" s="60"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="62"/>
-      <c r="T63" s="62"/>
-      <c r="U63" s="62"/>
-      <c r="V63" s="63"/>
-      <c r="W63" s="63"/>
-      <c r="X63" s="64"/>
-      <c r="Y63" s="63"/>
-      <c r="Z63" s="86"/>
-      <c r="AA63" s="64"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="56"/>
+      <c r="T63" s="56"/>
+      <c r="U63" s="56"/>
+      <c r="V63" s="57"/>
+      <c r="W63" s="57"/>
+      <c r="X63" s="58"/>
+      <c r="Y63" s="57"/>
+      <c r="Z63" s="78"/>
+      <c r="AA63" s="58"/>
     </row>
     <row r="64" spans="1:27">
-      <c r="C64" s="42"/>
-      <c r="D64" s="1" t="s">
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="56"/>
+      <c r="V64" s="57"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="58"/>
+      <c r="Y64" s="57"/>
+      <c r="Z64" s="78"/>
+      <c r="AA64" s="58"/>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="36"/>
+      <c r="D65" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="29"/>
-      <c r="D65" s="1" t="s">
+    <row r="66" spans="3:4">
+      <c r="C66" s="25"/>
+      <c r="D66" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
-      <c r="C66" s="46"/>
-      <c r="D66" s="1" t="s">
+    <row r="67" spans="3:4">
+      <c r="C67" s="40"/>
+      <c r="D67" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="67" spans="3:4" ht="37.5">
-      <c r="C67" s="1"/>
-      <c r="D67" s="88" t="s">
+    <row r="68" spans="3:4" ht="37.5">
+      <c r="C68" s="1"/>
+      <c r="D68" s="80" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
-      <c r="C68" s="5"/>
-      <c r="D68" s="1" t="s">
+    <row r="69" spans="3:4">
+      <c r="C69" s="5"/>
+      <c r="D69" s="1" t="s">
         <v>332</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:AA64" xr:uid="{CA3BC04F-46B4-4466-B01B-96C81447CDE9}"/>
   <mergeCells count="2">
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="S1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{F9D9C236-8102-41D7-A3FF-A4213EF27818}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{2B6E4207-1615-402A-8CD6-698E24028015}"/>
-    <hyperlink ref="J5" r:id="rId3" xr:uid="{F2B42BC1-00C9-40C1-AC46-C09E0B19FCC7}"/>
-    <hyperlink ref="J6" r:id="rId4" xr:uid="{115710DD-80F7-4519-8BA7-C43836617D54}"/>
-    <hyperlink ref="J7" r:id="rId5" xr:uid="{0DFC0EB6-5B04-4378-A1D6-DA34820E395B}"/>
-    <hyperlink ref="J8" r:id="rId6" xr:uid="{98AE6454-BFEF-4446-B607-63C52D77720D}"/>
+    <hyperlink ref="J20" r:id="rId1" xr:uid="{F9D9C236-8102-41D7-A3FF-A4213EF27818}"/>
+    <hyperlink ref="J21" r:id="rId2" xr:uid="{2B6E4207-1615-402A-8CD6-698E24028015}"/>
+    <hyperlink ref="J22" r:id="rId3" xr:uid="{F2B42BC1-00C9-40C1-AC46-C09E0B19FCC7}"/>
+    <hyperlink ref="J23" r:id="rId4" xr:uid="{115710DD-80F7-4519-8BA7-C43836617D54}"/>
+    <hyperlink ref="J24" r:id="rId5" xr:uid="{0DFC0EB6-5B04-4378-A1D6-DA34820E395B}"/>
+    <hyperlink ref="J25" r:id="rId6" xr:uid="{98AE6454-BFEF-4446-B607-63C52D77720D}"/>
     <hyperlink ref="J9" r:id="rId7" xr:uid="{777743D8-DC74-4DBA-A6EA-59866878D563}"/>
     <hyperlink ref="J10" r:id="rId8" xr:uid="{BDB4AE0E-5BAE-4EAC-8D95-1E3347373064}"/>
-    <hyperlink ref="J11" r:id="rId9" xr:uid="{BB3CC937-C5D2-41A4-B0D2-CB55A266C364}"/>
-    <hyperlink ref="J12" r:id="rId10" xr:uid="{9F3293D2-DCA2-412B-B5DB-98BDBAE69C70}"/>
-    <hyperlink ref="J13" r:id="rId11" xr:uid="{5497739D-42E0-4505-ACC0-9EBA306AA7CE}"/>
-    <hyperlink ref="J14" r:id="rId12" xr:uid="{4BF31959-0DFB-47B6-B347-BAA73B32316F}"/>
-    <hyperlink ref="J15" r:id="rId13" xr:uid="{D86A3A09-7703-46D2-BF77-9A7E1FF872CD}"/>
-    <hyperlink ref="J16" r:id="rId14" xr:uid="{0D967C1D-5C5C-4957-89C8-5B9360EE8AB6}"/>
-    <hyperlink ref="J17" r:id="rId15" xr:uid="{4638CA6C-6EE5-4DDB-BB40-77011011E692}"/>
-    <hyperlink ref="J18" r:id="rId16" xr:uid="{04D8D836-0034-4D12-BCDC-10C831AFC787}"/>
-    <hyperlink ref="J19" r:id="rId17" xr:uid="{51395BDD-4C1D-499E-8283-F493BC0FA686}"/>
-    <hyperlink ref="J20" r:id="rId18" xr:uid="{2F0C47EF-11F5-8146-AEB1-D86F0ADEDB46}"/>
-    <hyperlink ref="J23" r:id="rId19" xr:uid="{BE504EA4-4EA5-C240-A151-D56A16C8839A}"/>
-    <hyperlink ref="J24" r:id="rId20" xr:uid="{91C649DA-F283-1240-9073-751DE89C5503}"/>
-    <hyperlink ref="J25" r:id="rId21" xr:uid="{F943065E-B4FC-C448-B0F3-A80A9DDAD67E}"/>
-    <hyperlink ref="J21" r:id="rId22" xr:uid="{2BC420E2-5A54-4A44-A542-15C511198564}"/>
-    <hyperlink ref="J22" r:id="rId23" xr:uid="{F7BD1527-B752-2B41-88B8-0671201FA5F9}"/>
-    <hyperlink ref="J26" r:id="rId24" xr:uid="{FF0344F9-46FA-4042-B2B2-0164A6C4416D}"/>
-    <hyperlink ref="J27" r:id="rId25" xr:uid="{25B7DD41-10DA-5E46-906C-8A328AB2C86E}"/>
-    <hyperlink ref="J28" r:id="rId26" xr:uid="{02787E47-5A48-BF48-8450-9D8EDB7026F1}"/>
-    <hyperlink ref="J29" r:id="rId27" xr:uid="{29A269FA-5144-1E4D-A4C8-8D6C32015DDF}"/>
-    <hyperlink ref="J30" r:id="rId28" xr:uid="{79AD5ED7-82BD-984E-A90B-B6668B1A0A5A}"/>
-    <hyperlink ref="J31" r:id="rId29" xr:uid="{65977F21-BEF4-3E42-827F-8731487CD1F9}"/>
-    <hyperlink ref="J32" r:id="rId30" xr:uid="{47AF78C6-E9CF-DE41-B2C1-4A4AD631ADDA}"/>
-    <hyperlink ref="J33" r:id="rId31" xr:uid="{325EE047-7D29-A740-AF32-9A746F5CBDFB}"/>
-    <hyperlink ref="J34" r:id="rId32" xr:uid="{558743AF-2F42-E24E-B3B6-921DC128A728}"/>
-    <hyperlink ref="J35" r:id="rId33" xr:uid="{600F420E-7DC6-4946-B5E3-6A0AA389A80D}"/>
-    <hyperlink ref="J36" r:id="rId34" xr:uid="{D0206206-836C-E743-A7D5-9624497D30F4}"/>
-    <hyperlink ref="J37" r:id="rId35" xr:uid="{7ECCD565-A33F-8F49-84C7-4C83EF76E1EE}"/>
-    <hyperlink ref="J38" r:id="rId36" xr:uid="{A9534F28-7118-8740-9733-8521752B16EF}"/>
-    <hyperlink ref="J39" r:id="rId37" xr:uid="{FAC87A9B-6272-0741-A040-61B349BCDB45}"/>
-    <hyperlink ref="J40" r:id="rId38" xr:uid="{737AC81B-5731-5348-BF5F-4BBFAE591947}"/>
-    <hyperlink ref="J41" r:id="rId39" xr:uid="{17996C24-D95C-494C-8944-A45F048D3B10}"/>
-    <hyperlink ref="J42" r:id="rId40" xr:uid="{E63C25F8-1CFC-374A-A064-F7887AFEAB47}"/>
-    <hyperlink ref="J43" r:id="rId41" xr:uid="{402A1B83-45B4-D64F-BB0B-9C86A22847CA}"/>
-    <hyperlink ref="J44" r:id="rId42" xr:uid="{84EE34DF-A817-6944-B2A9-253A7AEB4735}"/>
-    <hyperlink ref="J45" r:id="rId43" xr:uid="{43D04F74-588D-C24E-BF16-ECD12AA92A1C}"/>
-    <hyperlink ref="J46" r:id="rId44" xr:uid="{8CF94D89-492C-A34A-A1B1-2A26394ADDC7}"/>
-    <hyperlink ref="J47" r:id="rId45" xr:uid="{771DFAAD-A53B-D34E-BBBD-32A438943BCD}"/>
-    <hyperlink ref="J48" r:id="rId46" xr:uid="{FCA0F9CD-07A6-9445-80BB-6BC8960B5B1D}"/>
-    <hyperlink ref="J49" r:id="rId47" xr:uid="{F80D4AB4-BD39-C943-8104-595038F4681E}"/>
-    <hyperlink ref="J50" r:id="rId48" xr:uid="{3DD85A7B-811B-8547-A09D-66074E9025C7}"/>
-    <hyperlink ref="J51" r:id="rId49" xr:uid="{77BB90B8-33E9-064C-9132-7F150A672DF1}"/>
-    <hyperlink ref="J52" r:id="rId50" xr:uid="{92E08F30-3DC4-B84C-A266-44997CE2FA27}"/>
-    <hyperlink ref="J53" r:id="rId51" xr:uid="{B37103CC-10C3-5C46-9E6C-251FD5B90EBE}"/>
-    <hyperlink ref="J54" r:id="rId52" xr:uid="{DB470383-D88B-EA48-B49F-E029188086B5}"/>
-    <hyperlink ref="J55" r:id="rId53" xr:uid="{E157C894-C700-A543-9B6A-C504A418BAAB}"/>
-    <hyperlink ref="J56" r:id="rId54" xr:uid="{DFEC65CB-2190-A248-8C94-2122077BAD55}"/>
-    <hyperlink ref="J57" r:id="rId55" xr:uid="{D3229CD7-5EA8-114B-8F7D-BFC73351FCD9}"/>
-    <hyperlink ref="J58" r:id="rId56" xr:uid="{949AD8A8-BB2A-9D46-86E2-02B2D0CBA374}"/>
-    <hyperlink ref="J59" r:id="rId57" xr:uid="{1F794A32-EFB2-3D42-A286-BCD1CBBC45BA}"/>
-    <hyperlink ref="J60" r:id="rId58" xr:uid="{70E14BC8-324F-4F41-9AE4-53FFD031B034}"/>
-    <hyperlink ref="J61" r:id="rId59" xr:uid="{24174C93-6E13-914B-BE7B-96471148896D}"/>
+    <hyperlink ref="J26" r:id="rId9" xr:uid="{BB3CC937-C5D2-41A4-B0D2-CB55A266C364}"/>
+    <hyperlink ref="J27" r:id="rId10" xr:uid="{9F3293D2-DCA2-412B-B5DB-98BDBAE69C70}"/>
+    <hyperlink ref="J28" r:id="rId11" xr:uid="{5497739D-42E0-4505-ACC0-9EBA306AA7CE}"/>
+    <hyperlink ref="J29" r:id="rId12" xr:uid="{4BF31959-0DFB-47B6-B347-BAA73B32316F}"/>
+    <hyperlink ref="J30" r:id="rId13" xr:uid="{D86A3A09-7703-46D2-BF77-9A7E1FF872CD}"/>
+    <hyperlink ref="J31" r:id="rId14" xr:uid="{0D967C1D-5C5C-4957-89C8-5B9360EE8AB6}"/>
+    <hyperlink ref="J49" r:id="rId15" xr:uid="{4638CA6C-6EE5-4DDB-BB40-77011011E692}"/>
+    <hyperlink ref="J4" r:id="rId16" xr:uid="{04D8D836-0034-4D12-BCDC-10C831AFC787}"/>
+    <hyperlink ref="J11" r:id="rId17" xr:uid="{51395BDD-4C1D-499E-8283-F493BC0FA686}"/>
+    <hyperlink ref="J32" r:id="rId18" xr:uid="{2F0C47EF-11F5-8146-AEB1-D86F0ADEDB46}"/>
+    <hyperlink ref="J51" r:id="rId19" xr:uid="{BE504EA4-4EA5-C240-A151-D56A16C8839A}"/>
+    <hyperlink ref="J12" r:id="rId20" xr:uid="{91C649DA-F283-1240-9073-751DE89C5503}"/>
+    <hyperlink ref="J13" r:id="rId21" xr:uid="{F943065E-B4FC-C448-B0F3-A80A9DDAD67E}"/>
+    <hyperlink ref="J50" r:id="rId22" xr:uid="{2BC420E2-5A54-4A44-A542-15C511198564}"/>
+    <hyperlink ref="J33" r:id="rId23" xr:uid="{F7BD1527-B752-2B41-88B8-0671201FA5F9}"/>
+    <hyperlink ref="J34" r:id="rId24" xr:uid="{FF0344F9-46FA-4042-B2B2-0164A6C4416D}"/>
+    <hyperlink ref="J52" r:id="rId25" xr:uid="{25B7DD41-10DA-5E46-906C-8A328AB2C86E}"/>
+    <hyperlink ref="J53" r:id="rId26" xr:uid="{02787E47-5A48-BF48-8450-9D8EDB7026F1}"/>
+    <hyperlink ref="J35" r:id="rId27" xr:uid="{29A269FA-5144-1E4D-A4C8-8D6C32015DDF}"/>
+    <hyperlink ref="J54" r:id="rId28" xr:uid="{79AD5ED7-82BD-984E-A90B-B6668B1A0A5A}"/>
+    <hyperlink ref="J36" r:id="rId29" xr:uid="{65977F21-BEF4-3E42-827F-8731487CD1F9}"/>
+    <hyperlink ref="J37" r:id="rId30" xr:uid="{47AF78C6-E9CF-DE41-B2C1-4A4AD631ADDA}"/>
+    <hyperlink ref="J19" r:id="rId31" xr:uid="{325EE047-7D29-A740-AF32-9A746F5CBDFB}"/>
+    <hyperlink ref="J38" r:id="rId32" xr:uid="{558743AF-2F42-E24E-B3B6-921DC128A728}"/>
+    <hyperlink ref="J39" r:id="rId33" xr:uid="{600F420E-7DC6-4946-B5E3-6A0AA389A80D}"/>
+    <hyperlink ref="J40" r:id="rId34" xr:uid="{D0206206-836C-E743-A7D5-9624497D30F4}"/>
+    <hyperlink ref="J41" r:id="rId35" xr:uid="{7ECCD565-A33F-8F49-84C7-4C83EF76E1EE}"/>
+    <hyperlink ref="J42" r:id="rId36" xr:uid="{A9534F28-7118-8740-9733-8521752B16EF}"/>
+    <hyperlink ref="J43" r:id="rId37" xr:uid="{FAC87A9B-6272-0741-A040-61B349BCDB45}"/>
+    <hyperlink ref="J44" r:id="rId38" xr:uid="{737AC81B-5731-5348-BF5F-4BBFAE591947}"/>
+    <hyperlink ref="J14" r:id="rId39" xr:uid="{17996C24-D95C-494C-8944-A45F048D3B10}"/>
+    <hyperlink ref="J15" r:id="rId40" xr:uid="{E63C25F8-1CFC-374A-A064-F7887AFEAB47}"/>
+    <hyperlink ref="J16" r:id="rId41" xr:uid="{402A1B83-45B4-D64F-BB0B-9C86A22847CA}"/>
+    <hyperlink ref="J45" r:id="rId42" xr:uid="{84EE34DF-A817-6944-B2A9-253A7AEB4735}"/>
+    <hyperlink ref="J46" r:id="rId43" xr:uid="{43D04F74-588D-C24E-BF16-ECD12AA92A1C}"/>
+    <hyperlink ref="J5" r:id="rId44" xr:uid="{8CF94D89-492C-A34A-A1B1-2A26394ADDC7}"/>
+    <hyperlink ref="J55" r:id="rId45" xr:uid="{771DFAAD-A53B-D34E-BBBD-32A438943BCD}"/>
+    <hyperlink ref="J6" r:id="rId46" xr:uid="{FCA0F9CD-07A6-9445-80BB-6BC8960B5B1D}"/>
+    <hyperlink ref="J56" r:id="rId47" xr:uid="{F80D4AB4-BD39-C943-8104-595038F4681E}"/>
+    <hyperlink ref="J47" r:id="rId48" xr:uid="{3DD85A7B-811B-8547-A09D-66074E9025C7}"/>
+    <hyperlink ref="J7" r:id="rId49" xr:uid="{77BB90B8-33E9-064C-9132-7F150A672DF1}"/>
+    <hyperlink ref="J17" r:id="rId50" xr:uid="{92E08F30-3DC4-B84C-A266-44997CE2FA27}"/>
+    <hyperlink ref="J48" r:id="rId51" xr:uid="{B37103CC-10C3-5C46-9E6C-251FD5B90EBE}"/>
+    <hyperlink ref="J8" r:id="rId52" xr:uid="{DB470383-D88B-EA48-B49F-E029188086B5}"/>
+    <hyperlink ref="J57" r:id="rId53" xr:uid="{E157C894-C700-A543-9B6A-C504A418BAAB}"/>
+    <hyperlink ref="J58" r:id="rId54" xr:uid="{DFEC65CB-2190-A248-8C94-2122077BAD55}"/>
+    <hyperlink ref="J59" r:id="rId55" xr:uid="{D3229CD7-5EA8-114B-8F7D-BFC73351FCD9}"/>
+    <hyperlink ref="J60" r:id="rId56" xr:uid="{949AD8A8-BB2A-9D46-86E2-02B2D0CBA374}"/>
+    <hyperlink ref="J61" r:id="rId57" xr:uid="{1F794A32-EFB2-3D42-A286-BCD1CBBC45BA}"/>
+    <hyperlink ref="J62" r:id="rId58" xr:uid="{70E14BC8-324F-4F41-9AE4-53FFD031B034}"/>
+    <hyperlink ref="J18" r:id="rId59" xr:uid="{24174C93-6E13-914B-BE7B-96471148896D}"/>
     <hyperlink ref="Z10" r:id="rId60" xr:uid="{1B83B776-BCCD-4AE3-BA8C-9099B19912F7}"/>
-    <hyperlink ref="Z19" r:id="rId61" xr:uid="{D2BEBD61-88B2-4D3D-86A4-8BA5F6234D07}"/>
-    <hyperlink ref="Z24" r:id="rId62" xr:uid="{D0162BA0-2D27-4874-82F4-3A761F550167}"/>
-    <hyperlink ref="Z25" r:id="rId63" xr:uid="{9CA4A9FF-A78A-4776-8E2D-C04D57C3476B}"/>
-    <hyperlink ref="Z33" r:id="rId64" xr:uid="{28224FBA-E1A6-471A-8DF2-D36159E27546}"/>
-    <hyperlink ref="Z43" r:id="rId65" xr:uid="{952BB8B4-2E3C-F244-B7A3-D4EFCB65C312}"/>
-    <hyperlink ref="Z52" r:id="rId66" xr:uid="{396B5500-92FA-424E-AA47-1ADD1D23C32A}"/>
-    <hyperlink ref="Z41" r:id="rId67" xr:uid="{125B68BD-5C26-2C4C-8624-A1DC16936E0D}"/>
-    <hyperlink ref="Z42" r:id="rId68" xr:uid="{3680A6F7-9B24-B54B-9088-FE1F30B5BB70}"/>
-    <hyperlink ref="Z46" r:id="rId69" xr:uid="{3E12B84C-46E0-554B-8974-00D86BE0FA72}"/>
+    <hyperlink ref="Z11" r:id="rId61" xr:uid="{D2BEBD61-88B2-4D3D-86A4-8BA5F6234D07}"/>
+    <hyperlink ref="Z12" r:id="rId62" xr:uid="{D0162BA0-2D27-4874-82F4-3A761F550167}"/>
+    <hyperlink ref="Z13" r:id="rId63" xr:uid="{9CA4A9FF-A78A-4776-8E2D-C04D57C3476B}"/>
+    <hyperlink ref="Z19" r:id="rId64" xr:uid="{28224FBA-E1A6-471A-8DF2-D36159E27546}"/>
+    <hyperlink ref="Z16" r:id="rId65" xr:uid="{952BB8B4-2E3C-F244-B7A3-D4EFCB65C312}"/>
+    <hyperlink ref="Z17" r:id="rId66" xr:uid="{396B5500-92FA-424E-AA47-1ADD1D23C32A}"/>
+    <hyperlink ref="Z14" r:id="rId67" xr:uid="{125B68BD-5C26-2C4C-8624-A1DC16936E0D}"/>
+    <hyperlink ref="Z15" r:id="rId68" xr:uid="{3680A6F7-9B24-B54B-9088-FE1F30B5BB70}"/>
+    <hyperlink ref="Z5" r:id="rId69" xr:uid="{3E12B84C-46E0-554B-8974-00D86BE0FA72}"/>
     <hyperlink ref="Z9" r:id="rId70" xr:uid="{930E419E-7049-F24F-9D56-2CBDF5721DD2}"/>
-    <hyperlink ref="Z51" r:id="rId71" xr:uid="{E5AEFDEF-5302-7340-85C4-CDB7EDDA6E81}"/>
-    <hyperlink ref="Z48" r:id="rId72" xr:uid="{00F9A4A8-E6CA-5A47-A8B9-C5556C6524C8}"/>
+    <hyperlink ref="Z7" r:id="rId71" xr:uid="{E5AEFDEF-5302-7340-85C4-CDB7EDDA6E81}"/>
+    <hyperlink ref="Z6" r:id="rId72" xr:uid="{00F9A4A8-E6CA-5A47-A8B9-C5556C6524C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>

--- a/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
+++ b/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flyha\Desktop\flyhawk\フライテックDoc\フライテック個人事業主\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/flyhawk/フライテック個人事業主/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222CB65B-CC34-4DD1-A0FC-F2EDE2477112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DD650D-1077-F244-BF36-DA09B13153C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="434">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -2190,6 +2190,67 @@
   <si>
     <t>×</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50万円～65万円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都内または埼玉県</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,Java,Perl,PL/SQL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成増駅（東武東上線）または新高島平駅（三田線）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPGの経験が34年ほどあります。
+また、会計システム、物流システム、業務システムの要件定義から保守まで全ての工程での経験があります。
+年齢は57歳です。
+条件の希望は下記になります。
+------------------------------------------------------------
+・希望言語
+    RPG CL QUERY
+・希望勤務地
+　東京都なら
+・希望稼働日
+　即日～
+・希望単価
+   出来れば45万円～　（案件により綱領します）
+・希望契約形態
+  準委任契約
+------------------------------------------------------------</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CとC++の経験が6年ほどあり、Javaの経験が1年ほど、Oracleの経験が5年ほどあります。
+また、大規模な開発プロジェクトのリーダ経験があります。
+年齢は57歳です。
+条件の希望は下記になります。
+------------------------------------------------------------
+・希望言語
+    C,Java,Perl,PL/SQL
+・希望勤務地
+　都内または埼玉県
+・希望稼働日
+　即日～
+・希望単価
+    55万円～70万円
+・希望契約形態
+  準委任契約
+------------------------------------------------------------</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イニシャル変更後職務経歴書/業務経歴書_TT.xls</t>
   </si>
 </sst>
 </file>
@@ -2592,9 +2653,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2626,6 +2684,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2909,53 +2970,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="18" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="18" ySplit="2" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="12" width="13.375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="13.33203125" style="2" customWidth="1"/>
     <col min="13" max="15" width="9" style="2"/>
     <col min="16" max="17" width="9" style="23"/>
-    <col min="18" max="18" width="10.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="2" customWidth="1"/>
     <col min="19" max="21" width="9" style="2"/>
     <col min="22" max="23" width="9" style="23"/>
-    <col min="24" max="24" width="28.625" style="24" customWidth="1"/>
+    <col min="24" max="24" width="28.6640625" style="24" customWidth="1"/>
     <col min="25" max="25" width="9" style="23"/>
     <col min="26" max="26" width="9" style="67"/>
-    <col min="27" max="27" width="34.375" style="24" customWidth="1"/>
+    <col min="27" max="27" width="34.33203125" style="24" customWidth="1"/>
     <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="S1" s="83" t="s">
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="S1" s="100" t="s">
         <v>374</v>
       </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
       <c r="Y1" s="24"/>
     </row>
     <row r="2" spans="1:27">
@@ -3047,7 +3108,7 @@
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
       <c r="K3" s="45"/>
-      <c r="L3" s="91"/>
+      <c r="L3" s="90"/>
       <c r="M3" s="59"/>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
@@ -3098,7 +3159,7 @@
       <c r="K4" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="97"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="43" t="s">
         <v>92</v>
       </c>
@@ -3201,62 +3262,62 @@
       <c r="AA5" s="81"/>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="32" t="s">
         <v>420</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="K6" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="76" t="s">
+      <c r="L6" s="52"/>
+      <c r="M6" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="75" t="s">
         <v>423</v>
       </c>
       <c r="Y6" s="28"/>
@@ -3336,7 +3397,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="17" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>410</v>
       </c>
@@ -3384,420 +3445,422 @@
       <c r="AA8" s="29"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="K9" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="L9" s="52"/>
+      <c r="M9" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="29"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B10" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C10" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E10" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F10" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G10" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H10" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I10" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="K10" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" s="39" t="s">
+      <c r="L10" s="48"/>
+      <c r="M10" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="Q9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="R9" s="36" t="s">
+      <c r="Q10" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="S9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="T9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="U9" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="70" t="s">
+      <c r="S10" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U10" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="72" t="s">
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="72" t="s">
         <v>402</v>
       </c>
-      <c r="AA9" s="29"/>
-    </row>
-    <row r="10" spans="1:27" ht="17.45" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="AA10" s="29"/>
+    </row>
+    <row r="11" spans="1:27" ht="17.5" customHeight="1">
+      <c r="A11" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B11" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G11" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H11" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I11" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J11" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="49" t="s">
+      <c r="K11" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P10" s="28" t="s">
+      <c r="L11" s="49"/>
+      <c r="M11" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="25" t="s">
+      <c r="Q11" s="28"/>
+      <c r="R11" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="S10" s="27" t="s">
+      <c r="S11" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="T10" s="27" t="s">
+      <c r="T11" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="U10" s="27" t="s">
+      <c r="U11" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="76" t="s">
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="96" t="s">
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="95" t="s">
         <v>391</v>
       </c>
-      <c r="AA10" s="29"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="36" t="s">
+      <c r="AA11" s="29"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B12" s="36" t="s">
         <v>381</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C12" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D12" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E12" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F12" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G12" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H12" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J12" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="48" t="s">
+      <c r="K12" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="P11" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q11" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="R11" s="36"/>
-      <c r="S11" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="T11" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="U11" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="70" t="s">
+      <c r="L12" s="48"/>
+      <c r="M12" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="36"/>
+      <c r="S12" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="70" t="s">
         <v>382</v>
       </c>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="100" t="s">
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="99" t="s">
         <v>392</v>
       </c>
-      <c r="AA11" s="29" t="s">
+      <c r="AA12" s="29" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="25" t="s">
+    <row r="13" spans="1:27">
+      <c r="A13" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B13" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C13" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D13" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E13" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G13" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H13" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I13" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J13" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K13" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="25" t="s">
+      <c r="L13" s="49"/>
+      <c r="M13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="S12" s="27" t="s">
+      <c r="S13" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="T12" s="27" t="s">
+      <c r="T13" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="U12" s="27" t="s">
+      <c r="U13" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="76" t="s">
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="76" t="s">
         <v>387</v>
       </c>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="73" t="s">
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="73" t="s">
         <v>393</v>
       </c>
-      <c r="AA12" s="29"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="36" t="s">
+      <c r="AA13" s="29"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B14" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C14" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D14" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E14" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F14" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G14" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H14" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I14" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J14" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="K13" s="48" t="s">
+      <c r="K14" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N13" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O13" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q13" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="R13" s="36"/>
-      <c r="S13" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="T13" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="U13" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="70" t="s">
+      <c r="L14" s="48"/>
+      <c r="M14" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="36"/>
+      <c r="S14" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T14" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="70" t="s">
         <v>384</v>
       </c>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="72" t="s">
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="72" t="s">
         <v>394</v>
-      </c>
-      <c r="AA13" s="29"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="K14" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="L14" s="52"/>
-      <c r="M14" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="75" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="79" t="s">
-        <v>399</v>
       </c>
       <c r="AA14" s="29"/>
     </row>
@@ -3806,28 +3869,32 @@
         <v>411</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+        <v>150</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>328</v>
+      </c>
       <c r="I15" s="32"/>
       <c r="J15" s="33" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K15" s="52" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L15" s="52"/>
       <c r="M15" s="34" t="s">
@@ -3848,129 +3915,131 @@
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
       <c r="X15" s="75" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y15" s="35"/>
       <c r="Z15" s="79" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA15" s="29"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="L16" s="52"/>
+      <c r="M16" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="AA15" s="29"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="25" t="s">
+      <c r="AA16" s="29"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B17" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C17" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D17" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E17" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F17" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G17" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H17" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I17" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J17" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="K16" s="49" t="s">
+      <c r="K17" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="L16" s="49"/>
-      <c r="M16" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="25" t="s">
+      <c r="L17" s="49"/>
+      <c r="M17" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="76" t="s">
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="76" t="s">
         <v>408</v>
       </c>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="73" t="s">
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="73" t="s">
         <v>397</v>
-      </c>
-      <c r="AA16" s="29"/>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="K17" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="52"/>
-      <c r="M17" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="75" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="79" t="s">
-        <v>398</v>
       </c>
       <c r="AA17" s="29"/>
     </row>
@@ -3979,34 +4048,28 @@
         <v>411</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>414</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="33" t="s">
-        <v>354</v>
+        <v>290</v>
       </c>
       <c r="K18" s="52" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="34" t="s">
@@ -4018,189 +4081,205 @@
       <c r="O18" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="P18" s="99"/>
+      <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
-      <c r="R18" s="32" t="s">
-        <v>416</v>
-      </c>
+      <c r="R18" s="32"/>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
       <c r="U18" s="34"/>
-      <c r="V18" s="99"/>
+      <c r="V18" s="35"/>
       <c r="W18" s="35"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="75"/>
+      <c r="X18" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="79" t="s">
+        <v>398</v>
+      </c>
       <c r="AA18" s="29"/>
     </row>
-    <row r="19" spans="1:27" ht="19.350000000000001" customHeight="1">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:27">
+      <c r="A19" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="K19" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="52"/>
+      <c r="M19" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="79" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA19" s="29"/>
+    </row>
+    <row r="20" spans="1:27" ht="19.25" customHeight="1">
+      <c r="A20" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B20" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C20" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D20" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E20" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G20" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H20" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I20" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J20" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K20" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N19" s="98" t="s">
+      <c r="L20" s="49"/>
+      <c r="M20" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="O19" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="25" t="s">
+      <c r="O20" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="S19" s="27" t="s">
+      <c r="S20" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="T19" s="98" t="s">
+      <c r="T20" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="U19" s="28" t="s">
+      <c r="U20" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="62" t="s">
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="62" t="s">
         <v>386</v>
       </c>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="74" t="s">
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="74" t="s">
         <v>395</v>
       </c>
-      <c r="AA19" s="29"/>
-    </row>
-    <row r="20" spans="1:27" ht="20.45" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="46"/>
-      <c r="M20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O20" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="P20" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q20" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20" s="29"/>
+    </row>
+    <row r="21" spans="1:27" ht="20.5" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="47"/>
+        <v>7</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="46"/>
       <c r="M21" s="4" t="s">
         <v>92</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="O21" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>204</v>
+      </c>
       <c r="R21" s="5"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -4211,7 +4290,7 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="69"/>
       <c r="AA21" s="64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -4220,31 +4299,25 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J22" s="84" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L22" s="47"/>
       <c r="M22" s="4" t="s">
@@ -4253,15 +4326,9 @@
       <c r="N22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O22" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="P22" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q22" s="21" t="s">
-        <v>204</v>
-      </c>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
       <c r="R22" s="5"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -4272,138 +4339,150 @@
       <c r="Y22" s="21"/>
       <c r="Z22" s="69"/>
       <c r="AA22" s="64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="19.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
+        <v>20</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="47"/>
       <c r="M23" s="4" t="s">
         <v>92</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="O23" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>204</v>
+      </c>
       <c r="R23" s="5"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
+      <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="21"/>
       <c r="Z23" s="69"/>
       <c r="AA23" s="64" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="20">
       <c r="A24" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" s="47"/>
+        <v>15</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
       <c r="M24" s="4" t="s">
         <v>92</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O24" s="21"/>
+      <c r="O24" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="5"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="21"/>
+      <c r="U24" s="4"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="21"/>
       <c r="Z24" s="69"/>
       <c r="AA24" s="64" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="19.7" customHeight="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K25" s="47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L25" s="47"/>
       <c r="M25" s="4" t="s">
@@ -4425,22 +4504,22 @@
       <c r="Y25" s="21"/>
       <c r="Z25" s="69"/>
       <c r="AA25" s="64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="19.75" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>35</v>
@@ -4449,10 +4528,10 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K26" s="47" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L26" s="47"/>
       <c r="M26" s="4" t="s">
@@ -4461,15 +4540,9 @@
       <c r="N26" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O26" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="P26" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q26" s="21" t="s">
-        <v>204</v>
-      </c>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
       <c r="R26" s="5"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -4489,25 +4562,25 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K27" s="47" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="L27" s="47"/>
       <c r="M27" s="4" t="s">
@@ -4535,7 +4608,7 @@
       <c r="Y27" s="21"/>
       <c r="Z27" s="69"/>
       <c r="AA27" s="64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -4544,13 +4617,13 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>28</v>
@@ -4559,16 +4632,16 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K28" s="47" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L28" s="47"/>
       <c r="M28" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N28" s="92" t="s">
+      <c r="N28" s="4" t="s">
         <v>92</v>
       </c>
       <c r="O28" s="21" t="s">
@@ -4582,7 +4655,7 @@
       </c>
       <c r="R28" s="5"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="92"/>
+      <c r="T28" s="4"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -4590,7 +4663,7 @@
       <c r="Y28" s="21"/>
       <c r="Z28" s="69"/>
       <c r="AA28" s="64" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -4599,13 +4672,13 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>28</v>
@@ -4614,16 +4687,16 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L29" s="47"/>
       <c r="M29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N29" s="92" t="s">
+      <c r="N29" s="91" t="s">
         <v>92</v>
       </c>
       <c r="O29" s="21" t="s">
@@ -4637,7 +4710,7 @@
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="92"/>
+      <c r="T29" s="91"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -4645,7 +4718,7 @@
       <c r="Y29" s="21"/>
       <c r="Z29" s="69"/>
       <c r="AA29" s="64" t="s">
-        <v>321</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -4654,13 +4727,13 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>28</v>
@@ -4669,16 +4742,16 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K30" s="47" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L30" s="47"/>
       <c r="M30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="91" t="s">
         <v>92</v>
       </c>
       <c r="O30" s="21" t="s">
@@ -4692,7 +4765,7 @@
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
+      <c r="T30" s="91"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -4700,7 +4773,7 @@
       <c r="Y30" s="21"/>
       <c r="Z30" s="69"/>
       <c r="AA30" s="64" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -4709,13 +4782,13 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>28</v>
@@ -4724,19 +4797,19 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K31" s="47" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L31" s="47"/>
       <c r="M31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N31" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="O31" s="95" t="s">
+      <c r="N31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O31" s="21" t="s">
         <v>204</v>
       </c>
       <c r="P31" s="21" t="s">
@@ -4747,15 +4820,15 @@
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="95"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="21"/>
       <c r="Z31" s="69"/>
       <c r="AA31" s="64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -4764,13 +4837,13 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>28</v>
@@ -4779,24 +4852,30 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="9" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="K32" s="47" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L32" s="47"/>
       <c r="M32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N32" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="O32" s="94"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
+      <c r="N32" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="O32" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="P32" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q32" s="21" t="s">
+        <v>204</v>
+      </c>
       <c r="R32" s="5"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="92"/>
+      <c r="T32" s="91"/>
       <c r="U32" s="94"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -4804,22 +4883,22 @@
       <c r="Y32" s="21"/>
       <c r="Z32" s="69"/>
       <c r="AA32" s="64" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14" t="s">
-        <v>144</v>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>28</v>
@@ -4827,103 +4906,103 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="K33" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="L33" s="86"/>
+      <c r="J33" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="L33" s="47"/>
       <c r="M33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N33" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="O33" s="94" t="s">
-        <v>204</v>
-      </c>
-      <c r="P33" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q33" s="21" t="s">
-        <v>204</v>
-      </c>
+      <c r="N33" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="O33" s="93"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
       <c r="R33" s="5"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="94"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="93"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="21"/>
       <c r="Z33" s="69"/>
       <c r="AA33" s="64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="19.350000000000001" customHeight="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>151</v>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="K34" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="L34" s="47"/>
+      <c r="J34" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K34" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="L34" s="85"/>
       <c r="M34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N34" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="N34" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="O34" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q34" s="21" t="s">
+        <v>204</v>
+      </c>
       <c r="R34" s="5"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="21"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="93"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="21"/>
       <c r="Z34" s="69"/>
       <c r="AA34" s="64" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="19.25" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>150</v>
@@ -4932,30 +5011,24 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K35" s="47" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="L35" s="47"/>
       <c r="M35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N35" s="92" t="s">
-        <v>204</v>
-      </c>
-      <c r="O35" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="P35" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q35" s="21" t="s">
-        <v>204</v>
-      </c>
+      <c r="N35" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
       <c r="R35" s="5"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="92"/>
+      <c r="T35" s="15"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -4963,7 +5036,7 @@
       <c r="Y35" s="21"/>
       <c r="Z35" s="69"/>
       <c r="AA35" s="64" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -4972,34 +5045,34 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="9" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="K36" s="47" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L36" s="47"/>
       <c r="M36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N36" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="O36" s="16" t="s">
+      <c r="N36" s="91" t="s">
+        <v>204</v>
+      </c>
+      <c r="O36" s="21" t="s">
         <v>204</v>
       </c>
       <c r="P36" s="21" t="s">
@@ -5010,8 +5083,8 @@
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="16"/>
+      <c r="T36" s="91"/>
+      <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
       <c r="X36" s="5"/>
@@ -5027,13 +5100,13 @@
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>15</v>
@@ -5042,16 +5115,16 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K37" s="47" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L37" s="47"/>
       <c r="M37" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N37" s="16" t="s">
+      <c r="N37" s="15" t="s">
         <v>204</v>
       </c>
       <c r="O37" s="16" t="s">
@@ -5065,7 +5138,7 @@
       </c>
       <c r="R37" s="5"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="16"/>
+      <c r="T37" s="15"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -5073,7 +5146,7 @@
       <c r="Y37" s="21"/>
       <c r="Z37" s="69"/>
       <c r="AA37" s="64" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -5082,46 +5155,54 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="9" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K38" s="47" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="L38" s="47"/>
       <c r="M38" s="4" t="s">
         <v>92</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
+        <v>204</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q38" s="21" t="s">
+        <v>204</v>
+      </c>
       <c r="R38" s="5"/>
       <c r="S38" s="4"/>
       <c r="T38" s="16"/>
-      <c r="U38" s="21"/>
+      <c r="U38" s="16"/>
       <c r="V38" s="21"/>
       <c r="W38" s="21"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="21"/>
       <c r="Z38" s="69"/>
-      <c r="AA38" s="29"/>
+      <c r="AA38" s="64" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="5" t="s">
@@ -5129,13 +5210,13 @@
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>150</v>
@@ -5144,27 +5225,21 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K39" s="47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L39" s="47"/>
       <c r="M39" s="4" t="s">
         <v>92</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="O39" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="P39" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q39" s="21" t="s">
-        <v>204</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
       <c r="R39" s="5"/>
       <c r="S39" s="4"/>
       <c r="T39" s="16"/>
@@ -5174,9 +5249,7 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="21"/>
       <c r="Z39" s="69"/>
-      <c r="AA39" s="64" t="s">
-        <v>114</v>
-      </c>
+      <c r="AA39" s="29"/>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="5" t="s">
@@ -5184,13 +5257,13 @@
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>150</v>
@@ -5199,10 +5272,10 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K40" s="47" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="L40" s="47"/>
       <c r="M40" s="4" t="s">
@@ -5239,13 +5312,13 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>150</v>
@@ -5254,10 +5327,10 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K41" s="47" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="L41" s="47"/>
       <c r="M41" s="4" t="s">
@@ -5285,7 +5358,7 @@
       <c r="Y41" s="21"/>
       <c r="Z41" s="69"/>
       <c r="AA41" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -5294,13 +5367,13 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>150</v>
@@ -5309,10 +5382,10 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K42" s="47" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="L42" s="47"/>
       <c r="M42" s="4" t="s">
@@ -5340,7 +5413,7 @@
       <c r="Y42" s="21"/>
       <c r="Z42" s="69"/>
       <c r="AA42" s="64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -5349,13 +5422,13 @@
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>150</v>
@@ -5364,10 +5437,10 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="9" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="K43" s="47" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="L43" s="47"/>
       <c r="M43" s="4" t="s">
@@ -5404,13 +5477,13 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>150</v>
@@ -5419,24 +5492,30 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="9" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="K44" s="47" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="L44" s="47"/>
       <c r="M44" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N44" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
+      <c r="N44" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="O44" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P44" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q44" s="21" t="s">
+        <v>204</v>
+      </c>
       <c r="R44" s="5"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
+      <c r="T44" s="16"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
       <c r="W44" s="21"/>
@@ -5444,7 +5523,7 @@
       <c r="Y44" s="21"/>
       <c r="Z44" s="69"/>
       <c r="AA44" s="64" t="s">
-        <v>239</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -5453,48 +5532,36 @@
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>273</v>
-      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="K45" s="89" t="s">
-        <v>244</v>
-      </c>
-      <c r="L45" s="89"/>
+        <v>214</v>
+      </c>
+      <c r="K45" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="L45" s="47"/>
       <c r="M45" s="4" t="s">
         <v>92</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O45" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="P45" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q45" s="21" t="s">
-        <v>204</v>
-      </c>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
       <c r="R45" s="5"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
@@ -5504,7 +5571,9 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="21"/>
       <c r="Z45" s="69"/>
-      <c r="AA45" s="29"/>
+      <c r="AA45" s="64" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="5" t="s">
@@ -5512,27 +5581,33 @@
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>273</v>
+      </c>
       <c r="J46" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="K46" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="L46" s="47"/>
+        <v>248</v>
+      </c>
+      <c r="K46" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="L46" s="88"/>
       <c r="M46" s="4" t="s">
         <v>92</v>
       </c>
@@ -5557,42 +5632,40 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="21"/>
       <c r="Z46" s="69"/>
-      <c r="AA46" s="64" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" s="82" customFormat="1">
+      <c r="AA46" s="29"/>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="K47" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="L47" s="88"/>
+        <v>254</v>
+      </c>
+      <c r="K47" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="L47" s="47"/>
       <c r="M47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N47" s="16" t="s">
-        <v>204</v>
+      <c r="N47" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="O47" s="21" t="s">
         <v>204</v>
@@ -5605,7 +5678,7 @@
       </c>
       <c r="R47" s="5"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="16"/>
+      <c r="T47" s="4"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -5613,41 +5686,41 @@
       <c r="Y47" s="21"/>
       <c r="Z47" s="69"/>
       <c r="AA47" s="64" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="82" customFormat="1">
       <c r="A48" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
-        <v>293</v>
+        <v>190</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>295</v>
+        <v>193</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="K48" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="L48" s="47"/>
+        <v>191</v>
+      </c>
+      <c r="K48" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" s="87"/>
       <c r="M48" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N48" s="4" t="s">
-        <v>92</v>
+      <c r="N48" s="16" t="s">
+        <v>204</v>
       </c>
       <c r="O48" s="21" t="s">
         <v>204</v>
@@ -5660,7 +5733,7 @@
       </c>
       <c r="R48" s="5"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
+      <c r="T48" s="16"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
@@ -5668,77 +5741,87 @@
       <c r="Y48" s="21"/>
       <c r="Z48" s="69"/>
       <c r="AA48" s="64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="K49" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49" s="47"/>
+      <c r="M49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O49" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="P49" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q49" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R49" s="5"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="69"/>
+      <c r="AA49" s="64" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="82" customFormat="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
+    <row r="50" spans="1:27" s="82" customFormat="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K49" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="L49" s="50"/>
-      <c r="M49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="31"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="68"/>
-      <c r="AA49" s="29"/>
-    </row>
-    <row r="50" spans="1:27">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="85" t="s">
-        <v>143</v>
+      <c r="J50" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="K50" s="50" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="L50" s="50"/>
       <c r="M50" s="3" t="s">
@@ -5762,30 +5845,30 @@
       <c r="AA50" s="29"/>
     </row>
     <row r="51" spans="1:27">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>127</v>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K51" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="L51" s="90"/>
+      <c r="J51" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="K51" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="L51" s="50"/>
       <c r="M51" s="3" t="s">
         <v>92</v>
       </c>
@@ -5806,43 +5889,43 @@
       <c r="Z51" s="68"/>
       <c r="AA51" s="29"/>
     </row>
-    <row r="52" spans="1:27" s="82" customFormat="1">
+    <row r="52" spans="1:27">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="K52" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="L52" s="50"/>
+        <v>131</v>
+      </c>
+      <c r="K52" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52" s="89"/>
       <c r="M52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N52" s="93" t="s">
-        <v>156</v>
+      <c r="N52" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="O52" s="31"/>
       <c r="P52" s="31"/>
       <c r="Q52" s="31"/>
       <c r="R52" s="1"/>
       <c r="S52" s="3"/>
-      <c r="T52" s="93"/>
+      <c r="T52" s="3"/>
       <c r="U52" s="31"/>
       <c r="V52" s="31"/>
       <c r="W52" s="31"/>
@@ -5851,17 +5934,17 @@
       <c r="Z52" s="68"/>
       <c r="AA52" s="29"/>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" s="82" customFormat="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>150</v>
@@ -5870,16 +5953,16 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="6" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="K53" s="50" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="L53" s="50"/>
       <c r="M53" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N53" s="93" t="s">
+      <c r="N53" s="92" t="s">
         <v>156</v>
       </c>
       <c r="O53" s="31"/>
@@ -5887,7 +5970,7 @@
       <c r="Q53" s="31"/>
       <c r="R53" s="1"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="93"/>
+      <c r="T53" s="92"/>
       <c r="U53" s="31"/>
       <c r="V53" s="31"/>
       <c r="W53" s="31"/>
@@ -5900,13 +5983,13 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>150</v>
@@ -5915,25 +5998,25 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K54" s="50" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L54" s="50"/>
       <c r="M54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N54" s="93" t="s">
+      <c r="N54" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="O54" s="1"/>
+      <c r="O54" s="31"/>
       <c r="P54" s="31"/>
       <c r="Q54" s="31"/>
       <c r="R54" s="1"/>
       <c r="S54" s="3"/>
-      <c r="T54" s="93"/>
-      <c r="U54" s="1"/>
+      <c r="T54" s="92"/>
+      <c r="U54" s="31"/>
       <c r="V54" s="31"/>
       <c r="W54" s="31"/>
       <c r="X54" s="1"/>
@@ -5942,77 +6025,75 @@
       <c r="AA54" s="29"/>
     </row>
     <row r="55" spans="1:27">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="K55" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="L55" s="53"/>
-      <c r="M55" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N55" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="O55" s="19"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="77"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K55" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="L55" s="50"/>
+      <c r="M55" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N55" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="O55" s="1"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="92"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="31"/>
+      <c r="W55" s="31"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="31"/>
+      <c r="Z55" s="68"/>
       <c r="AA55" s="29"/>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="18" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="K56" s="53" t="s">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="L56" s="53"/>
       <c r="M56" s="19" t="s">
@@ -6037,15 +6118,17 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
+      <c r="B57" s="17" t="s">
+        <v>370</v>
+      </c>
       <c r="C57" s="17" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>150</v>
@@ -6054,12 +6137,12 @@
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="K57" s="54" t="s">
-        <v>304</v>
-      </c>
-      <c r="L57" s="54"/>
+        <v>281</v>
+      </c>
+      <c r="K57" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="L57" s="53"/>
       <c r="M57" s="19" t="s">
         <v>92</v>
       </c>
@@ -6081,120 +6164,120 @@
       <c r="AA57" s="29"/>
     </row>
     <row r="58" spans="1:27">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="K58" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="L58" s="54"/>
+      <c r="M58" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N58" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O58" s="19"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="77"/>
+      <c r="AA58" s="29"/>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="9" t="s">
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="K58" s="88" t="s">
+      <c r="K59" s="87" t="s">
         <v>310</v>
       </c>
-      <c r="L58" s="88"/>
-      <c r="M58" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="69"/>
-      <c r="AA58" s="64" t="s">
+      <c r="L59" s="87"/>
+      <c r="M59" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="69"/>
+      <c r="AA59" s="64" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="59" spans="1:27">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="K59" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="L59" s="53"/>
-      <c r="M59" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N59" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="77"/>
-      <c r="AA59" s="29"/>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="18" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="K60" s="53" t="s">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="L60" s="53"/>
       <c r="M60" s="19" t="s">
@@ -6203,13 +6286,13 @@
       <c r="N60" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="O60" s="19"/>
+      <c r="O60" s="22"/>
       <c r="P60" s="22"/>
       <c r="Q60" s="22"/>
       <c r="R60" s="17"/>
       <c r="S60" s="19"/>
       <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
+      <c r="U60" s="22"/>
       <c r="V60" s="22"/>
       <c r="W60" s="22"/>
       <c r="X60" s="17"/>
@@ -6221,13 +6304,13 @@
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>150</v>
@@ -6236,10 +6319,10 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="18" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="K61" s="53" t="s">
-        <v>341</v>
+        <v>72</v>
       </c>
       <c r="L61" s="53"/>
       <c r="M61" s="19" t="s">
@@ -6266,13 +6349,13 @@
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>150</v>
@@ -6281,10 +6364,10 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K62" s="53" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="L62" s="53"/>
       <c r="M62" s="19" t="s">
@@ -6383,7 +6466,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="68" spans="3:4" ht="37.5">
+    <row r="68" spans="3:4" ht="38">
       <c r="C68" s="1"/>
       <c r="D68" s="80" t="s">
         <v>412</v>
@@ -6403,80 +6486,81 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J20" r:id="rId1" xr:uid="{F9D9C236-8102-41D7-A3FF-A4213EF27818}"/>
-    <hyperlink ref="J21" r:id="rId2" xr:uid="{2B6E4207-1615-402A-8CD6-698E24028015}"/>
-    <hyperlink ref="J22" r:id="rId3" xr:uid="{F2B42BC1-00C9-40C1-AC46-C09E0B19FCC7}"/>
-    <hyperlink ref="J23" r:id="rId4" xr:uid="{115710DD-80F7-4519-8BA7-C43836617D54}"/>
-    <hyperlink ref="J24" r:id="rId5" xr:uid="{0DFC0EB6-5B04-4378-A1D6-DA34820E395B}"/>
-    <hyperlink ref="J25" r:id="rId6" xr:uid="{98AE6454-BFEF-4446-B607-63C52D77720D}"/>
-    <hyperlink ref="J9" r:id="rId7" xr:uid="{777743D8-DC74-4DBA-A6EA-59866878D563}"/>
-    <hyperlink ref="J10" r:id="rId8" xr:uid="{BDB4AE0E-5BAE-4EAC-8D95-1E3347373064}"/>
-    <hyperlink ref="J26" r:id="rId9" xr:uid="{BB3CC937-C5D2-41A4-B0D2-CB55A266C364}"/>
-    <hyperlink ref="J27" r:id="rId10" xr:uid="{9F3293D2-DCA2-412B-B5DB-98BDBAE69C70}"/>
-    <hyperlink ref="J28" r:id="rId11" xr:uid="{5497739D-42E0-4505-ACC0-9EBA306AA7CE}"/>
-    <hyperlink ref="J29" r:id="rId12" xr:uid="{4BF31959-0DFB-47B6-B347-BAA73B32316F}"/>
-    <hyperlink ref="J30" r:id="rId13" xr:uid="{D86A3A09-7703-46D2-BF77-9A7E1FF872CD}"/>
-    <hyperlink ref="J31" r:id="rId14" xr:uid="{0D967C1D-5C5C-4957-89C8-5B9360EE8AB6}"/>
-    <hyperlink ref="J49" r:id="rId15" xr:uid="{4638CA6C-6EE5-4DDB-BB40-77011011E692}"/>
+    <hyperlink ref="J21" r:id="rId1" xr:uid="{F9D9C236-8102-41D7-A3FF-A4213EF27818}"/>
+    <hyperlink ref="J22" r:id="rId2" xr:uid="{2B6E4207-1615-402A-8CD6-698E24028015}"/>
+    <hyperlink ref="J23" r:id="rId3" xr:uid="{F2B42BC1-00C9-40C1-AC46-C09E0B19FCC7}"/>
+    <hyperlink ref="J24" r:id="rId4" xr:uid="{115710DD-80F7-4519-8BA7-C43836617D54}"/>
+    <hyperlink ref="J25" r:id="rId5" xr:uid="{0DFC0EB6-5B04-4378-A1D6-DA34820E395B}"/>
+    <hyperlink ref="J26" r:id="rId6" xr:uid="{98AE6454-BFEF-4446-B607-63C52D77720D}"/>
+    <hyperlink ref="J10" r:id="rId7" xr:uid="{777743D8-DC74-4DBA-A6EA-59866878D563}"/>
+    <hyperlink ref="J11" r:id="rId8" xr:uid="{BDB4AE0E-5BAE-4EAC-8D95-1E3347373064}"/>
+    <hyperlink ref="J27" r:id="rId9" xr:uid="{BB3CC937-C5D2-41A4-B0D2-CB55A266C364}"/>
+    <hyperlink ref="J28" r:id="rId10" xr:uid="{9F3293D2-DCA2-412B-B5DB-98BDBAE69C70}"/>
+    <hyperlink ref="J29" r:id="rId11" xr:uid="{5497739D-42E0-4505-ACC0-9EBA306AA7CE}"/>
+    <hyperlink ref="J30" r:id="rId12" xr:uid="{4BF31959-0DFB-47B6-B347-BAA73B32316F}"/>
+    <hyperlink ref="J31" r:id="rId13" xr:uid="{D86A3A09-7703-46D2-BF77-9A7E1FF872CD}"/>
+    <hyperlink ref="J32" r:id="rId14" xr:uid="{0D967C1D-5C5C-4957-89C8-5B9360EE8AB6}"/>
+    <hyperlink ref="J50" r:id="rId15" xr:uid="{4638CA6C-6EE5-4DDB-BB40-77011011E692}"/>
     <hyperlink ref="J4" r:id="rId16" xr:uid="{04D8D836-0034-4D12-BCDC-10C831AFC787}"/>
-    <hyperlink ref="J11" r:id="rId17" xr:uid="{51395BDD-4C1D-499E-8283-F493BC0FA686}"/>
-    <hyperlink ref="J32" r:id="rId18" xr:uid="{2F0C47EF-11F5-8146-AEB1-D86F0ADEDB46}"/>
-    <hyperlink ref="J51" r:id="rId19" xr:uid="{BE504EA4-4EA5-C240-A151-D56A16C8839A}"/>
-    <hyperlink ref="J12" r:id="rId20" xr:uid="{91C649DA-F283-1240-9073-751DE89C5503}"/>
-    <hyperlink ref="J13" r:id="rId21" xr:uid="{F943065E-B4FC-C448-B0F3-A80A9DDAD67E}"/>
-    <hyperlink ref="J50" r:id="rId22" xr:uid="{2BC420E2-5A54-4A44-A542-15C511198564}"/>
-    <hyperlink ref="J33" r:id="rId23" xr:uid="{F7BD1527-B752-2B41-88B8-0671201FA5F9}"/>
-    <hyperlink ref="J34" r:id="rId24" xr:uid="{FF0344F9-46FA-4042-B2B2-0164A6C4416D}"/>
-    <hyperlink ref="J52" r:id="rId25" xr:uid="{25B7DD41-10DA-5E46-906C-8A328AB2C86E}"/>
-    <hyperlink ref="J53" r:id="rId26" xr:uid="{02787E47-5A48-BF48-8450-9D8EDB7026F1}"/>
-    <hyperlink ref="J35" r:id="rId27" xr:uid="{29A269FA-5144-1E4D-A4C8-8D6C32015DDF}"/>
-    <hyperlink ref="J54" r:id="rId28" xr:uid="{79AD5ED7-82BD-984E-A90B-B6668B1A0A5A}"/>
-    <hyperlink ref="J36" r:id="rId29" xr:uid="{65977F21-BEF4-3E42-827F-8731487CD1F9}"/>
-    <hyperlink ref="J37" r:id="rId30" xr:uid="{47AF78C6-E9CF-DE41-B2C1-4A4AD631ADDA}"/>
-    <hyperlink ref="J19" r:id="rId31" xr:uid="{325EE047-7D29-A740-AF32-9A746F5CBDFB}"/>
-    <hyperlink ref="J38" r:id="rId32" xr:uid="{558743AF-2F42-E24E-B3B6-921DC128A728}"/>
-    <hyperlink ref="J39" r:id="rId33" xr:uid="{600F420E-7DC6-4946-B5E3-6A0AA389A80D}"/>
-    <hyperlink ref="J40" r:id="rId34" xr:uid="{D0206206-836C-E743-A7D5-9624497D30F4}"/>
-    <hyperlink ref="J41" r:id="rId35" xr:uid="{7ECCD565-A33F-8F49-84C7-4C83EF76E1EE}"/>
-    <hyperlink ref="J42" r:id="rId36" xr:uid="{A9534F28-7118-8740-9733-8521752B16EF}"/>
-    <hyperlink ref="J43" r:id="rId37" xr:uid="{FAC87A9B-6272-0741-A040-61B349BCDB45}"/>
-    <hyperlink ref="J44" r:id="rId38" xr:uid="{737AC81B-5731-5348-BF5F-4BBFAE591947}"/>
-    <hyperlink ref="J14" r:id="rId39" xr:uid="{17996C24-D95C-494C-8944-A45F048D3B10}"/>
-    <hyperlink ref="J15" r:id="rId40" xr:uid="{E63C25F8-1CFC-374A-A064-F7887AFEAB47}"/>
-    <hyperlink ref="J16" r:id="rId41" xr:uid="{402A1B83-45B4-D64F-BB0B-9C86A22847CA}"/>
-    <hyperlink ref="J45" r:id="rId42" xr:uid="{84EE34DF-A817-6944-B2A9-253A7AEB4735}"/>
-    <hyperlink ref="J46" r:id="rId43" xr:uid="{43D04F74-588D-C24E-BF16-ECD12AA92A1C}"/>
+    <hyperlink ref="J12" r:id="rId17" xr:uid="{51395BDD-4C1D-499E-8283-F493BC0FA686}"/>
+    <hyperlink ref="J33" r:id="rId18" xr:uid="{2F0C47EF-11F5-8146-AEB1-D86F0ADEDB46}"/>
+    <hyperlink ref="J52" r:id="rId19" xr:uid="{BE504EA4-4EA5-C240-A151-D56A16C8839A}"/>
+    <hyperlink ref="J13" r:id="rId20" xr:uid="{91C649DA-F283-1240-9073-751DE89C5503}"/>
+    <hyperlink ref="J14" r:id="rId21" xr:uid="{F943065E-B4FC-C448-B0F3-A80A9DDAD67E}"/>
+    <hyperlink ref="J51" r:id="rId22" xr:uid="{2BC420E2-5A54-4A44-A542-15C511198564}"/>
+    <hyperlink ref="J34" r:id="rId23" xr:uid="{F7BD1527-B752-2B41-88B8-0671201FA5F9}"/>
+    <hyperlink ref="J35" r:id="rId24" xr:uid="{FF0344F9-46FA-4042-B2B2-0164A6C4416D}"/>
+    <hyperlink ref="J53" r:id="rId25" xr:uid="{25B7DD41-10DA-5E46-906C-8A328AB2C86E}"/>
+    <hyperlink ref="J54" r:id="rId26" xr:uid="{02787E47-5A48-BF48-8450-9D8EDB7026F1}"/>
+    <hyperlink ref="J36" r:id="rId27" xr:uid="{29A269FA-5144-1E4D-A4C8-8D6C32015DDF}"/>
+    <hyperlink ref="J55" r:id="rId28" xr:uid="{79AD5ED7-82BD-984E-A90B-B6668B1A0A5A}"/>
+    <hyperlink ref="J37" r:id="rId29" xr:uid="{65977F21-BEF4-3E42-827F-8731487CD1F9}"/>
+    <hyperlink ref="J38" r:id="rId30" xr:uid="{47AF78C6-E9CF-DE41-B2C1-4A4AD631ADDA}"/>
+    <hyperlink ref="J20" r:id="rId31" xr:uid="{325EE047-7D29-A740-AF32-9A746F5CBDFB}"/>
+    <hyperlink ref="J39" r:id="rId32" xr:uid="{558743AF-2F42-E24E-B3B6-921DC128A728}"/>
+    <hyperlink ref="J40" r:id="rId33" xr:uid="{600F420E-7DC6-4946-B5E3-6A0AA389A80D}"/>
+    <hyperlink ref="J41" r:id="rId34" xr:uid="{D0206206-836C-E743-A7D5-9624497D30F4}"/>
+    <hyperlink ref="J42" r:id="rId35" xr:uid="{7ECCD565-A33F-8F49-84C7-4C83EF76E1EE}"/>
+    <hyperlink ref="J43" r:id="rId36" xr:uid="{A9534F28-7118-8740-9733-8521752B16EF}"/>
+    <hyperlink ref="J44" r:id="rId37" xr:uid="{FAC87A9B-6272-0741-A040-61B349BCDB45}"/>
+    <hyperlink ref="J45" r:id="rId38" xr:uid="{737AC81B-5731-5348-BF5F-4BBFAE591947}"/>
+    <hyperlink ref="J15" r:id="rId39" xr:uid="{17996C24-D95C-494C-8944-A45F048D3B10}"/>
+    <hyperlink ref="J16" r:id="rId40" xr:uid="{E63C25F8-1CFC-374A-A064-F7887AFEAB47}"/>
+    <hyperlink ref="J17" r:id="rId41" xr:uid="{402A1B83-45B4-D64F-BB0B-9C86A22847CA}"/>
+    <hyperlink ref="J46" r:id="rId42" xr:uid="{84EE34DF-A817-6944-B2A9-253A7AEB4735}"/>
+    <hyperlink ref="J47" r:id="rId43" xr:uid="{43D04F74-588D-C24E-BF16-ECD12AA92A1C}"/>
     <hyperlink ref="J5" r:id="rId44" xr:uid="{8CF94D89-492C-A34A-A1B1-2A26394ADDC7}"/>
-    <hyperlink ref="J55" r:id="rId45" xr:uid="{771DFAAD-A53B-D34E-BBBD-32A438943BCD}"/>
+    <hyperlink ref="J56" r:id="rId45" xr:uid="{771DFAAD-A53B-D34E-BBBD-32A438943BCD}"/>
     <hyperlink ref="J6" r:id="rId46" xr:uid="{FCA0F9CD-07A6-9445-80BB-6BC8960B5B1D}"/>
-    <hyperlink ref="J56" r:id="rId47" xr:uid="{F80D4AB4-BD39-C943-8104-595038F4681E}"/>
-    <hyperlink ref="J47" r:id="rId48" xr:uid="{3DD85A7B-811B-8547-A09D-66074E9025C7}"/>
+    <hyperlink ref="J57" r:id="rId47" xr:uid="{F80D4AB4-BD39-C943-8104-595038F4681E}"/>
+    <hyperlink ref="J48" r:id="rId48" xr:uid="{3DD85A7B-811B-8547-A09D-66074E9025C7}"/>
     <hyperlink ref="J7" r:id="rId49" xr:uid="{77BB90B8-33E9-064C-9132-7F150A672DF1}"/>
-    <hyperlink ref="J17" r:id="rId50" xr:uid="{92E08F30-3DC4-B84C-A266-44997CE2FA27}"/>
-    <hyperlink ref="J48" r:id="rId51" xr:uid="{B37103CC-10C3-5C46-9E6C-251FD5B90EBE}"/>
+    <hyperlink ref="J18" r:id="rId50" xr:uid="{92E08F30-3DC4-B84C-A266-44997CE2FA27}"/>
+    <hyperlink ref="J49" r:id="rId51" xr:uid="{B37103CC-10C3-5C46-9E6C-251FD5B90EBE}"/>
     <hyperlink ref="J8" r:id="rId52" xr:uid="{DB470383-D88B-EA48-B49F-E029188086B5}"/>
-    <hyperlink ref="J57" r:id="rId53" xr:uid="{E157C894-C700-A543-9B6A-C504A418BAAB}"/>
-    <hyperlink ref="J58" r:id="rId54" xr:uid="{DFEC65CB-2190-A248-8C94-2122077BAD55}"/>
-    <hyperlink ref="J59" r:id="rId55" xr:uid="{D3229CD7-5EA8-114B-8F7D-BFC73351FCD9}"/>
-    <hyperlink ref="J60" r:id="rId56" xr:uid="{949AD8A8-BB2A-9D46-86E2-02B2D0CBA374}"/>
-    <hyperlink ref="J61" r:id="rId57" xr:uid="{1F794A32-EFB2-3D42-A286-BCD1CBBC45BA}"/>
-    <hyperlink ref="J62" r:id="rId58" xr:uid="{70E14BC8-324F-4F41-9AE4-53FFD031B034}"/>
-    <hyperlink ref="J18" r:id="rId59" xr:uid="{24174C93-6E13-914B-BE7B-96471148896D}"/>
-    <hyperlink ref="Z10" r:id="rId60" xr:uid="{1B83B776-BCCD-4AE3-BA8C-9099B19912F7}"/>
-    <hyperlink ref="Z11" r:id="rId61" xr:uid="{D2BEBD61-88B2-4D3D-86A4-8BA5F6234D07}"/>
-    <hyperlink ref="Z12" r:id="rId62" xr:uid="{D0162BA0-2D27-4874-82F4-3A761F550167}"/>
-    <hyperlink ref="Z13" r:id="rId63" xr:uid="{9CA4A9FF-A78A-4776-8E2D-C04D57C3476B}"/>
-    <hyperlink ref="Z19" r:id="rId64" xr:uid="{28224FBA-E1A6-471A-8DF2-D36159E27546}"/>
-    <hyperlink ref="Z16" r:id="rId65" xr:uid="{952BB8B4-2E3C-F244-B7A3-D4EFCB65C312}"/>
-    <hyperlink ref="Z17" r:id="rId66" xr:uid="{396B5500-92FA-424E-AA47-1ADD1D23C32A}"/>
-    <hyperlink ref="Z14" r:id="rId67" xr:uid="{125B68BD-5C26-2C4C-8624-A1DC16936E0D}"/>
-    <hyperlink ref="Z15" r:id="rId68" xr:uid="{3680A6F7-9B24-B54B-9088-FE1F30B5BB70}"/>
-    <hyperlink ref="Z5" r:id="rId69" xr:uid="{3E12B84C-46E0-554B-8974-00D86BE0FA72}"/>
-    <hyperlink ref="Z9" r:id="rId70" xr:uid="{930E419E-7049-F24F-9D56-2CBDF5721DD2}"/>
-    <hyperlink ref="Z7" r:id="rId71" xr:uid="{E5AEFDEF-5302-7340-85C4-CDB7EDDA6E81}"/>
-    <hyperlink ref="Z6" r:id="rId72" xr:uid="{00F9A4A8-E6CA-5A47-A8B9-C5556C6524C8}"/>
+    <hyperlink ref="J58" r:id="rId53" xr:uid="{E157C894-C700-A543-9B6A-C504A418BAAB}"/>
+    <hyperlink ref="J59" r:id="rId54" xr:uid="{DFEC65CB-2190-A248-8C94-2122077BAD55}"/>
+    <hyperlink ref="J60" r:id="rId55" xr:uid="{D3229CD7-5EA8-114B-8F7D-BFC73351FCD9}"/>
+    <hyperlink ref="J61" r:id="rId56" xr:uid="{949AD8A8-BB2A-9D46-86E2-02B2D0CBA374}"/>
+    <hyperlink ref="J62" r:id="rId57" xr:uid="{1F794A32-EFB2-3D42-A286-BCD1CBBC45BA}"/>
+    <hyperlink ref="J19" r:id="rId58" xr:uid="{24174C93-6E13-914B-BE7B-96471148896D}"/>
+    <hyperlink ref="Z11" r:id="rId59" xr:uid="{1B83B776-BCCD-4AE3-BA8C-9099B19912F7}"/>
+    <hyperlink ref="Z12" r:id="rId60" xr:uid="{D2BEBD61-88B2-4D3D-86A4-8BA5F6234D07}"/>
+    <hyperlink ref="Z13" r:id="rId61" xr:uid="{D0162BA0-2D27-4874-82F4-3A761F550167}"/>
+    <hyperlink ref="Z14" r:id="rId62" xr:uid="{9CA4A9FF-A78A-4776-8E2D-C04D57C3476B}"/>
+    <hyperlink ref="Z20" r:id="rId63" xr:uid="{28224FBA-E1A6-471A-8DF2-D36159E27546}"/>
+    <hyperlink ref="Z17" r:id="rId64" xr:uid="{952BB8B4-2E3C-F244-B7A3-D4EFCB65C312}"/>
+    <hyperlink ref="Z18" r:id="rId65" xr:uid="{396B5500-92FA-424E-AA47-1ADD1D23C32A}"/>
+    <hyperlink ref="Z15" r:id="rId66" xr:uid="{125B68BD-5C26-2C4C-8624-A1DC16936E0D}"/>
+    <hyperlink ref="Z16" r:id="rId67" xr:uid="{3680A6F7-9B24-B54B-9088-FE1F30B5BB70}"/>
+    <hyperlink ref="Z5" r:id="rId68" xr:uid="{3E12B84C-46E0-554B-8974-00D86BE0FA72}"/>
+    <hyperlink ref="Z10" r:id="rId69" xr:uid="{930E419E-7049-F24F-9D56-2CBDF5721DD2}"/>
+    <hyperlink ref="Z7" r:id="rId70" xr:uid="{E5AEFDEF-5302-7340-85C4-CDB7EDDA6E81}"/>
+    <hyperlink ref="Z6" r:id="rId71" xr:uid="{00F9A4A8-E6CA-5A47-A8B9-C5556C6524C8}"/>
+    <hyperlink ref="J9" r:id="rId72" xr:uid="{2241162F-9C77-D74E-863B-571D1D092984}"/>
+    <hyperlink ref="Z19" r:id="rId73" xr:uid="{D4274994-32E8-3A46-89AF-794CE8278821}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>
--- a/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
+++ b/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/flyhawk/フライテック個人事業主/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DD650D-1077-F244-BF36-DA09B13153C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEF83CF-3D94-ED43-9771-A5EA49BA2343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AA$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AA$67</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="454">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -1328,10 +1328,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>渋谷、新宿</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>45万～50万(税抜)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2251,6 +2247,99 @@
   </si>
   <si>
     <t>イニシャル変更後職務経歴書/業務経歴書_TT.xls</t>
+  </si>
+  <si>
+    <t>他社で決まった。COBOL問題なさそう。また案件探す時に連絡くれるそう</t>
+    <rPh sb="0" eb="2">
+      <t>。</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴崎駅から60分以内</t>
+    <rPh sb="0" eb="1">
+      <t>エk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根路銘佑也</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09057271564</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19811106</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>waizuplan@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isono206hiroshi@yahoo.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09055074155</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19580206</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磯野博</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉原潤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクター／プロモーションWEB制作ディレクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>job.yoshihara@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19800927</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08033973870</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筬島稔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19590103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mosajima@googlemail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08044003413</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08054676136</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面談不在</t>
+    <rPh sb="0" eb="2">
+      <t>メンダn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2497,7 +2586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2616,12 +2705,6 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2638,9 +2721,6 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2676,17 +2756,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2968,10 +3057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA69"/>
+  <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="18" ySplit="2" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -2997,34 +3086,34 @@
     <col min="22" max="23" width="9" style="23"/>
     <col min="24" max="24" width="28.6640625" style="24" customWidth="1"/>
     <col min="25" max="25" width="9" style="23"/>
-    <col min="26" max="26" width="9" style="67"/>
+    <col min="26" max="26" width="9" style="65"/>
     <col min="27" max="27" width="34.33203125" style="24" customWidth="1"/>
     <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="M1" s="100" t="s">
+      <c r="M1" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="S1" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="S1" s="94" t="s">
+        <v>373</v>
+      </c>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
       <c r="Y1" s="24"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="66" t="s">
-        <v>388</v>
+      <c r="A2" s="64" t="s">
+        <v>387</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -3070,34 +3159,34 @@
         <v>97</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S2" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="T2" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="U2" s="61" t="s">
         <v>376</v>
-      </c>
-      <c r="U2" s="61" t="s">
-        <v>377</v>
       </c>
       <c r="V2" s="31"/>
       <c r="W2" s="31"/>
       <c r="X2" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y2" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z2" s="66" t="s">
         <v>389</v>
-      </c>
-      <c r="Z2" s="68" t="s">
-        <v>390</v>
       </c>
       <c r="AA2" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="66"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
@@ -3108,7 +3197,7 @@
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
       <c r="K3" s="45"/>
-      <c r="L3" s="90"/>
+      <c r="L3" s="87"/>
       <c r="M3" s="59"/>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
@@ -3122,44 +3211,44 @@
       <c r="W3" s="31"/>
       <c r="X3" s="31"/>
       <c r="Y3" s="31"/>
-      <c r="Z3" s="68"/>
+      <c r="Z3" s="66"/>
       <c r="AA3" s="31"/>
     </row>
-    <row r="4" spans="1:27" ht="52.5" customHeight="1">
-      <c r="A4" s="41" t="s">
-        <v>410</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4" s="41" t="s">
+    <row r="4" spans="1:27" s="65" customFormat="1" ht="33" customHeight="1">
+      <c r="A4" s="69" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="96"/>
+      <c r="L4" s="102"/>
       <c r="M4" s="43" t="s">
         <v>92</v>
       </c>
@@ -3173,7 +3262,7 @@
         <v>156</v>
       </c>
       <c r="Q4" s="44"/>
-      <c r="R4" s="41"/>
+      <c r="R4" s="69"/>
       <c r="S4" s="43" t="s">
         <v>156</v>
       </c>
@@ -3185,21 +3274,21 @@
       </c>
       <c r="V4" s="44"/>
       <c r="W4" s="44"/>
-      <c r="X4" s="63" t="s">
-        <v>383</v>
+      <c r="X4" s="69" t="s">
+        <v>382</v>
       </c>
       <c r="Y4" s="44"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="65" t="s">
-        <v>337</v>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="63" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>255</v>
@@ -3214,13 +3303,13 @@
         <v>150</v>
       </c>
       <c r="G5" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>325</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>326</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>259</v>
@@ -3252,176 +3341,180 @@
       <c r="U5" s="27"/>
       <c r="V5" s="27"/>
       <c r="W5" s="28"/>
-      <c r="X5" s="76" t="s">
-        <v>407</v>
+      <c r="X5" s="73" t="s">
+        <v>406</v>
       </c>
       <c r="Y5" s="27"/>
-      <c r="Z5" s="73" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA5" s="81"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="C6" s="32" t="s">
+      <c r="Z5" s="71" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA5" s="78"/>
+    </row>
+    <row r="6" spans="1:27" s="65" customFormat="1">
+      <c r="A6" s="73" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>419</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>420</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>421</v>
+      </c>
+      <c r="J6" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="32" t="s">
+      <c r="K6" s="100" t="s">
         <v>279</v>
       </c>
-      <c r="G6" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="I6" s="32" t="s">
+      <c r="L6" s="100"/>
+      <c r="M6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="73" t="s">
         <v>422</v>
       </c>
-      <c r="J6" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="T6" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="75" t="s">
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="71" t="s">
         <v>423</v>
       </c>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="73" t="s">
-        <v>424</v>
-      </c>
-      <c r="AA6" s="81"/>
+      <c r="AA6" s="78"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="J7" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="J7" s="26" t="s">
+      <c r="K7" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="76" t="s">
-        <v>403</v>
-      </c>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="73" t="s">
-        <v>413</v>
-      </c>
-      <c r="AA7" s="81" t="s">
-        <v>334</v>
+      <c r="L7" s="48"/>
+      <c r="M7" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="S7" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="68" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA7" s="78" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="17" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="E8" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="E8" s="32" t="s">
-        <v>299</v>
-      </c>
       <c r="F8" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="K8" s="52" t="s">
         <v>300</v>
-      </c>
-      <c r="K8" s="52" t="s">
-        <v>301</v>
       </c>
       <c r="L8" s="52"/>
       <c r="M8" s="34" t="s">
@@ -3430,7 +3523,9 @@
       <c r="N8" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="O8" s="35"/>
+      <c r="O8" s="34" t="s">
+        <v>92</v>
+      </c>
       <c r="P8" s="35"/>
       <c r="Q8" s="35"/>
       <c r="R8" s="32"/>
@@ -3441,76 +3536,78 @@
       <c r="W8" s="35"/>
       <c r="X8" s="32"/>
       <c r="Y8" s="35"/>
-      <c r="Z8" s="75"/>
+      <c r="Z8" s="72"/>
       <c r="AA8" s="29"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="H9" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="J9" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="I9" s="32" t="s">
+      <c r="K9" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="L9" s="49"/>
+      <c r="M9" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="K9" s="52" t="s">
-        <v>355</v>
-      </c>
-      <c r="L9" s="52"/>
-      <c r="M9" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="75" t="s">
-        <v>432</v>
-      </c>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="75"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="73"/>
       <c r="AA9" s="29"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>43</v>
@@ -3556,7 +3653,7 @@
         <v>92</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S10" s="39" t="s">
         <v>92</v>
@@ -3569,92 +3666,94 @@
       </c>
       <c r="V10" s="39"/>
       <c r="W10" s="39"/>
-      <c r="X10" s="70" t="s">
-        <v>385</v>
+      <c r="X10" s="68" t="s">
+        <v>384</v>
       </c>
       <c r="Y10" s="39"/>
-      <c r="Z10" s="72" t="s">
-        <v>402</v>
+      <c r="Z10" s="70" t="s">
+        <v>401</v>
       </c>
       <c r="AA10" s="29"/>
     </row>
     <row r="11" spans="1:27" ht="17.5" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="H11" s="25" t="s">
+      <c r="G11" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="I11" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="J11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="49" t="s">
+      <c r="K11" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P11" s="28" t="s">
+      <c r="L11" s="48"/>
+      <c r="M11" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="S11" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="T11" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="U11" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="76" t="s">
+      <c r="Q11" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="S11" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="95" t="s">
-        <v>391</v>
+      <c r="T11" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="U11" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="68" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="92" t="s">
+        <v>390</v>
       </c>
       <c r="AA11" s="29"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>86</v>
@@ -3711,94 +3810,96 @@
       </c>
       <c r="V12" s="39"/>
       <c r="W12" s="39"/>
-      <c r="X12" s="70" t="s">
-        <v>382</v>
+      <c r="X12" s="68" t="s">
+        <v>381</v>
       </c>
       <c r="Y12" s="39"/>
-      <c r="Z12" s="99" t="s">
+      <c r="Z12" s="93" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA12" s="29" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="51"/>
+      <c r="M13" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="S13" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="T13" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="U13" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="95" t="s">
         <v>392</v>
       </c>
-      <c r="AA12" s="29" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="S13" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="T13" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="U13" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="76" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="73" t="s">
-        <v>393</v>
-      </c>
-      <c r="AA13" s="29"/>
+      <c r="AA13" s="29" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>138</v>
@@ -3855,80 +3956,86 @@
       </c>
       <c r="V14" s="39"/>
       <c r="W14" s="39"/>
-      <c r="X14" s="70" t="s">
-        <v>384</v>
+      <c r="X14" s="68" t="s">
+        <v>383</v>
       </c>
       <c r="Y14" s="39"/>
-      <c r="Z14" s="72" t="s">
-        <v>394</v>
+      <c r="Z14" s="70" t="s">
+        <v>393</v>
       </c>
       <c r="AA14" s="29"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="A15" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="H15" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="H15" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33" t="s">
+      <c r="I15" s="36"/>
+      <c r="J15" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="K15" s="52" t="s">
+      <c r="K15" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="L15" s="52"/>
-      <c r="M15" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="O15" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="75" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="79" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA15" s="29"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="R15" s="36"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="68" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA15" s="29" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>224</v>
@@ -3969,95 +4076,97 @@
       <c r="U16" s="34"/>
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
-      <c r="X16" s="75" t="s">
-        <v>405</v>
+      <c r="X16" s="72" t="s">
+        <v>404</v>
       </c>
       <c r="Y16" s="35"/>
-      <c r="Z16" s="79" t="s">
-        <v>400</v>
+      <c r="Z16" s="76" t="s">
+        <v>399</v>
       </c>
       <c r="AA16" s="29"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="C17" s="25" t="s">
+      <c r="A17" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="I17" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="I17" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K17" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="76" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="73" t="s">
-        <v>397</v>
+      <c r="L17" s="48"/>
+      <c r="M17" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="68" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="70" t="s">
+        <v>396</v>
       </c>
       <c r="AA17" s="29"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>130</v>
@@ -4066,7 +4175,7 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K18" s="52" t="s">
         <v>78</v>
@@ -4089,152 +4198,156 @@
       <c r="U18" s="34"/>
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
-      <c r="X18" s="75" t="s">
-        <v>404</v>
+      <c r="X18" s="72" t="s">
+        <v>403</v>
       </c>
       <c r="Y18" s="35"/>
-      <c r="Z18" s="79" t="s">
-        <v>398</v>
+      <c r="Z18" s="76" t="s">
+        <v>397</v>
       </c>
       <c r="AA18" s="29"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="C19" s="32" t="s">
+      <c r="A19" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="E19" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="F19" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="F19" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="H19" s="32" t="s">
+      <c r="K19" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="49"/>
+      <c r="M19" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="I19" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="K19" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="52"/>
-      <c r="M19" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="N19" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="32" t="s">
-        <v>416</v>
-      </c>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="75" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="79" t="s">
-        <v>433</v>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="73" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="71" t="s">
+        <v>432</v>
       </c>
       <c r="AA19" s="29"/>
     </row>
     <row r="20" spans="1:27" ht="19.25" customHeight="1">
-      <c r="A20" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="C20" s="25" t="s">
+      <c r="A20" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="I20" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="I20" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="K20" s="49" t="s">
+      <c r="K20" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="27" t="s">
+      <c r="L20" s="48"/>
+      <c r="M20" s="38" t="s">
         <v>92</v>
       </c>
       <c r="N20" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="O20" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="S20" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="S20" s="38" t="s">
         <v>156</v>
       </c>
       <c r="T20" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="U20" s="28" t="s">
+      <c r="U20" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="62" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="74" t="s">
-        <v>395</v>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="98" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="99" t="s">
+        <v>394</v>
       </c>
       <c r="AA20" s="29"/>
     </row>
     <row r="21" spans="1:27" ht="20.5" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
@@ -4288,14 +4401,14 @@
       <c r="W21" s="21"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="21"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="64" t="s">
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="62" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
@@ -4337,14 +4450,14 @@
       <c r="W22" s="21"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="21"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="64" t="s">
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
@@ -4368,7 +4481,7 @@
       <c r="I23" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J23" s="83" t="s">
+      <c r="J23" s="80" t="s">
         <v>22</v>
       </c>
       <c r="K23" s="47" t="s">
@@ -4398,14 +4511,14 @@
       <c r="W23" s="21"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="21"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="64" t="s">
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="62" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="20">
       <c r="A24" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
@@ -4429,11 +4542,11 @@
       <c r="I24" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="83" t="s">
+      <c r="J24" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
       <c r="M24" s="4" t="s">
         <v>92</v>
       </c>
@@ -4453,14 +4566,14 @@
       <c r="W24" s="21"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="21"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="64" t="s">
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="62" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
@@ -4502,14 +4615,14 @@
       <c r="W25" s="21"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="21"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="64" t="s">
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="62" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="19.75" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
@@ -4551,14 +4664,14 @@
       <c r="W26" s="21"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="21"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="64" t="s">
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
@@ -4606,14 +4719,14 @@
       <c r="W27" s="21"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="21"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="64" t="s">
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
@@ -4661,14 +4774,14 @@
       <c r="W28" s="21"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="21"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="64" t="s">
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="62" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
@@ -4696,7 +4809,7 @@
       <c r="M29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N29" s="91" t="s">
+      <c r="N29" s="88" t="s">
         <v>92</v>
       </c>
       <c r="O29" s="21" t="s">
@@ -4710,20 +4823,20 @@
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="91"/>
+      <c r="T29" s="88"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="21"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="64" t="s">
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="62" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
@@ -4751,7 +4864,7 @@
       <c r="M30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N30" s="91" t="s">
+      <c r="N30" s="88" t="s">
         <v>92</v>
       </c>
       <c r="O30" s="21" t="s">
@@ -4765,20 +4878,20 @@
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="91"/>
+      <c r="T30" s="88"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="21"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="64" t="s">
-        <v>321</v>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="62" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
@@ -4826,14 +4939,14 @@
       <c r="W31" s="21"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="21"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="64" t="s">
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="62" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
@@ -4861,10 +4974,10 @@
       <c r="M32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N32" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="O32" s="94" t="s">
+      <c r="N32" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="O32" s="91" t="s">
         <v>204</v>
       </c>
       <c r="P32" s="21" t="s">
@@ -4875,20 +4988,20 @@
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="91"/>
-      <c r="U32" s="94"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="91"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="21"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="64" t="s">
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
@@ -4916,28 +5029,28 @@
       <c r="M33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N33" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="O33" s="93"/>
+      <c r="N33" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="O33" s="90"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="5"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="93"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="90"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="21"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="64" t="s">
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="62" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14" t="s">
@@ -4958,17 +5071,17 @@
       <c r="J34" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="K34" s="85" t="s">
+      <c r="K34" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="L34" s="85"/>
+      <c r="L34" s="82"/>
       <c r="M34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N34" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="O34" s="93" t="s">
+      <c r="N34" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="O34" s="90" t="s">
         <v>204</v>
       </c>
       <c r="P34" s="21" t="s">
@@ -4979,20 +5092,20 @@
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="93"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="90"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="21"/>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="64" t="s">
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="62" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="19.25" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
@@ -5034,14 +5147,14 @@
       <c r="W35" s="21"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="21"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="64" t="s">
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="62" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
@@ -5069,7 +5182,7 @@
       <c r="M36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N36" s="91" t="s">
+      <c r="N36" s="88" t="s">
         <v>204</v>
       </c>
       <c r="O36" s="21" t="s">
@@ -5083,20 +5196,20 @@
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="91"/>
+      <c r="T36" s="88"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="21"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="64" t="s">
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
@@ -5144,14 +5257,14 @@
       <c r="W37" s="21"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="21"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="64" t="s">
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
@@ -5199,14 +5312,14 @@
       <c r="W38" s="21"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="21"/>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="64" t="s">
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="62" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
@@ -5248,12 +5361,12 @@
       <c r="W39" s="21"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="21"/>
-      <c r="Z39" s="69"/>
+      <c r="Z39" s="67"/>
       <c r="AA39" s="29"/>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
@@ -5301,14 +5414,14 @@
       <c r="W40" s="21"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="21"/>
-      <c r="Z40" s="69"/>
-      <c r="AA40" s="64" t="s">
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
@@ -5356,14 +5469,14 @@
       <c r="W41" s="21"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="21"/>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="64" t="s">
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
@@ -5411,14 +5524,14 @@
       <c r="W42" s="21"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="21"/>
-      <c r="Z42" s="69"/>
-      <c r="AA42" s="64" t="s">
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="62" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
@@ -5466,14 +5579,14 @@
       <c r="W43" s="21"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="21"/>
-      <c r="Z43" s="69"/>
-      <c r="AA43" s="64" t="s">
+      <c r="Z43" s="67"/>
+      <c r="AA43" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
@@ -5521,14 +5634,14 @@
       <c r="W44" s="21"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="21"/>
-      <c r="Z44" s="69"/>
-      <c r="AA44" s="64" t="s">
+      <c r="Z44" s="67"/>
+      <c r="AA44" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
@@ -5570,14 +5683,14 @@
       <c r="W45" s="21"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="21"/>
-      <c r="Z45" s="69"/>
-      <c r="AA45" s="64" t="s">
+      <c r="Z45" s="67"/>
+      <c r="AA45" s="62" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
@@ -5593,21 +5706,21 @@
         <v>150</v>
       </c>
       <c r="G46" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="K46" s="88" t="s">
+      <c r="K46" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="L46" s="88"/>
+      <c r="L46" s="85"/>
       <c r="M46" s="4" t="s">
         <v>92</v>
       </c>
@@ -5631,12 +5744,12 @@
       <c r="W46" s="21"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="21"/>
-      <c r="Z46" s="69"/>
+      <c r="Z46" s="67"/>
       <c r="AA46" s="29"/>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
@@ -5684,14 +5797,14 @@
       <c r="W47" s="21"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="21"/>
-      <c r="Z47" s="69"/>
-      <c r="AA47" s="64" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" s="82" customFormat="1">
+      <c r="Z47" s="67"/>
+      <c r="AA47" s="62" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="79" customFormat="1">
       <c r="A48" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
@@ -5712,10 +5825,10 @@
       <c r="J48" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K48" s="87" t="s">
+      <c r="K48" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="L48" s="87"/>
+      <c r="L48" s="84"/>
       <c r="M48" s="4" t="s">
         <v>92</v>
       </c>
@@ -5739,33 +5852,33 @@
       <c r="W48" s="21"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="21"/>
-      <c r="Z48" s="69"/>
-      <c r="AA48" s="64" t="s">
-        <v>321</v>
+      <c r="Z48" s="67"/>
+      <c r="AA48" s="62" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>295</v>
-      </c>
       <c r="F49" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K49" s="47" t="s">
         <v>39</v>
@@ -5794,12 +5907,12 @@
       <c r="W49" s="21"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="21"/>
-      <c r="Z49" s="69"/>
-      <c r="AA49" s="64" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" s="82" customFormat="1">
+      <c r="Z49" s="67"/>
+      <c r="AA49" s="62" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" s="79" customFormat="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
@@ -5841,7 +5954,7 @@
       <c r="W50" s="31"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="31"/>
-      <c r="Z50" s="68"/>
+      <c r="Z50" s="66"/>
       <c r="AA50" s="29"/>
     </row>
     <row r="51" spans="1:27">
@@ -5862,7 +5975,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="84" t="s">
+      <c r="J51" s="81" t="s">
         <v>143</v>
       </c>
       <c r="K51" s="50" t="s">
@@ -5886,7 +5999,7 @@
       <c r="W51" s="31"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="31"/>
-      <c r="Z51" s="68"/>
+      <c r="Z51" s="66"/>
       <c r="AA51" s="29"/>
     </row>
     <row r="52" spans="1:27">
@@ -5910,10 +6023,10 @@
       <c r="J52" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K52" s="89" t="s">
+      <c r="K52" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="L52" s="89"/>
+      <c r="L52" s="86"/>
       <c r="M52" s="3" t="s">
         <v>92</v>
       </c>
@@ -5931,10 +6044,10 @@
       <c r="W52" s="31"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="31"/>
-      <c r="Z52" s="68"/>
+      <c r="Z52" s="66"/>
       <c r="AA52" s="29"/>
     </row>
-    <row r="53" spans="1:27" s="82" customFormat="1">
+    <row r="53" spans="1:27" s="79" customFormat="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
@@ -5962,7 +6075,7 @@
       <c r="M53" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N53" s="92" t="s">
+      <c r="N53" s="89" t="s">
         <v>156</v>
       </c>
       <c r="O53" s="31"/>
@@ -5970,13 +6083,13 @@
       <c r="Q53" s="31"/>
       <c r="R53" s="1"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="92"/>
+      <c r="T53" s="89"/>
       <c r="U53" s="31"/>
       <c r="V53" s="31"/>
       <c r="W53" s="31"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="31"/>
-      <c r="Z53" s="68"/>
+      <c r="Z53" s="66"/>
       <c r="AA53" s="29"/>
     </row>
     <row r="54" spans="1:27">
@@ -6007,7 +6120,7 @@
       <c r="M54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N54" s="92" t="s">
+      <c r="N54" s="89" t="s">
         <v>156</v>
       </c>
       <c r="O54" s="31"/>
@@ -6015,13 +6128,13 @@
       <c r="Q54" s="31"/>
       <c r="R54" s="1"/>
       <c r="S54" s="3"/>
-      <c r="T54" s="92"/>
+      <c r="T54" s="89"/>
       <c r="U54" s="31"/>
       <c r="V54" s="31"/>
       <c r="W54" s="31"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="31"/>
-      <c r="Z54" s="68"/>
+      <c r="Z54" s="66"/>
       <c r="AA54" s="29"/>
     </row>
     <row r="55" spans="1:27">
@@ -6052,7 +6165,7 @@
       <c r="M55" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N55" s="92" t="s">
+      <c r="N55" s="89" t="s">
         <v>156</v>
       </c>
       <c r="O55" s="1"/>
@@ -6060,19 +6173,19 @@
       <c r="Q55" s="31"/>
       <c r="R55" s="1"/>
       <c r="S55" s="3"/>
-      <c r="T55" s="92"/>
+      <c r="T55" s="89"/>
       <c r="U55" s="1"/>
       <c r="V55" s="31"/>
       <c r="W55" s="31"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="31"/>
-      <c r="Z55" s="68"/>
+      <c r="Z55" s="66"/>
       <c r="AA55" s="29"/>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>260</v>
@@ -6113,22 +6226,22 @@
       <c r="W56" s="22"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="22"/>
-      <c r="Z56" s="77"/>
+      <c r="Z56" s="74"/>
       <c r="AA56" s="29"/>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C57" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="E57" s="17" t="s">
         <v>283</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>284</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>150</v>
@@ -6137,7 +6250,7 @@
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K57" s="53" t="s">
         <v>228</v>
@@ -6160,20 +6273,20 @@
       <c r="W57" s="22"/>
       <c r="X57" s="17"/>
       <c r="Y57" s="22"/>
-      <c r="Z57" s="77"/>
+      <c r="Z57" s="74"/>
       <c r="AA57" s="29"/>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>150</v>
@@ -6182,10 +6295,10 @@
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="K58" s="54" t="s">
         <v>303</v>
-      </c>
-      <c r="K58" s="54" t="s">
-        <v>304</v>
       </c>
       <c r="L58" s="54"/>
       <c r="M58" s="19" t="s">
@@ -6205,20 +6318,20 @@
       <c r="W58" s="22"/>
       <c r="X58" s="17"/>
       <c r="Y58" s="22"/>
-      <c r="Z58" s="77"/>
+      <c r="Z58" s="74"/>
       <c r="AA58" s="29"/>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>150</v>
@@ -6227,12 +6340,12 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="K59" s="87" t="s">
         <v>310</v>
       </c>
-      <c r="L59" s="87"/>
+      <c r="K59" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="L59" s="84"/>
       <c r="M59" s="4" t="s">
         <v>92</v>
       </c>
@@ -6250,22 +6363,22 @@
       <c r="W59" s="21"/>
       <c r="X59" s="5"/>
       <c r="Y59" s="21"/>
-      <c r="Z59" s="69"/>
-      <c r="AA59" s="64" t="s">
-        <v>356</v>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="62" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>252</v>
@@ -6274,10 +6387,10 @@
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="K60" s="53" t="s">
         <v>312</v>
-      </c>
-      <c r="K60" s="53" t="s">
-        <v>313</v>
       </c>
       <c r="L60" s="53"/>
       <c r="M60" s="19" t="s">
@@ -6297,20 +6410,20 @@
       <c r="W60" s="22"/>
       <c r="X60" s="17"/>
       <c r="Y60" s="22"/>
-      <c r="Z60" s="77"/>
+      <c r="Z60" s="74"/>
       <c r="AA60" s="29"/>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="E61" s="17" t="s">
         <v>318</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>319</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>150</v>
@@ -6319,7 +6432,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K61" s="53" t="s">
         <v>72</v>
@@ -6342,20 +6455,20 @@
       <c r="W61" s="22"/>
       <c r="X61" s="17"/>
       <c r="Y61" s="22"/>
-      <c r="Z61" s="77"/>
+      <c r="Z61" s="74"/>
       <c r="AA61" s="29"/>
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="E62" s="17" t="s">
         <v>339</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>340</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>150</v>
@@ -6364,10 +6477,10 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K62" s="53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L62" s="53"/>
       <c r="M62" s="19" t="s">
@@ -6387,99 +6500,242 @@
       <c r="W62" s="22"/>
       <c r="X62" s="17"/>
       <c r="Y62" s="22"/>
-      <c r="Z62" s="77"/>
+      <c r="Z62" s="74"/>
       <c r="AA62" s="29"/>
     </row>
     <row r="63" spans="1:27">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="57"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="56"/>
-      <c r="T63" s="56"/>
-      <c r="U63" s="56"/>
-      <c r="V63" s="57"/>
-      <c r="W63" s="57"/>
-      <c r="X63" s="58"/>
-      <c r="Y63" s="57"/>
-      <c r="Z63" s="78"/>
-      <c r="AA63" s="58"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="K63" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L63" s="47"/>
+      <c r="M63" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N63" s="4"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="67"/>
+      <c r="AA63" s="62"/>
     </row>
     <row r="64" spans="1:27">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="56"/>
-      <c r="T64" s="56"/>
-      <c r="U64" s="56"/>
-      <c r="V64" s="57"/>
-      <c r="W64" s="57"/>
-      <c r="X64" s="58"/>
-      <c r="Y64" s="57"/>
-      <c r="Z64" s="78"/>
-      <c r="AA64" s="58"/>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="36"/>
-      <c r="D65" s="1" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="K64" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="L64" s="47"/>
+      <c r="M64" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="67"/>
+      <c r="AA64" s="62"/>
+    </row>
+    <row r="65" spans="1:27">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="K65" s="53" t="s">
+        <v>444</v>
+      </c>
+      <c r="L65" s="53"/>
+      <c r="M65" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="22"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="74"/>
+      <c r="AA65" s="29"/>
+    </row>
+    <row r="66" spans="1:27">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="K66" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="L66" s="47"/>
+      <c r="M66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="21"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="74"/>
+      <c r="AA66" s="29"/>
+    </row>
+    <row r="67" spans="1:27">
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="54"/>
+      <c r="S67" s="56"/>
+      <c r="T67" s="56"/>
+      <c r="U67" s="56"/>
+      <c r="V67" s="57"/>
+      <c r="W67" s="57"/>
+      <c r="X67" s="58"/>
+      <c r="Y67" s="57"/>
+      <c r="Z67" s="75"/>
+      <c r="AA67" s="58"/>
+    </row>
+    <row r="68" spans="1:27">
+      <c r="C68" s="36"/>
+      <c r="D68" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
+      <c r="C69" s="25"/>
+      <c r="D69" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
-      <c r="C66" s="25"/>
-      <c r="D66" s="1" t="s">
+    <row r="70" spans="1:27">
+      <c r="C70" s="40"/>
+      <c r="D70" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="40"/>
-      <c r="D67" s="1" t="s">
+    <row r="71" spans="1:27" ht="38">
+      <c r="C71" s="1"/>
+      <c r="D71" s="77" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="C72" s="5"/>
+      <c r="D72" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="68" spans="3:4" ht="38">
-      <c r="C68" s="1"/>
-      <c r="D68" s="80" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" s="5"/>
-      <c r="D69" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:AA64" xr:uid="{CA3BC04F-46B4-4466-B01B-96C81447CDE9}"/>
+  <autoFilter ref="A3:AA67" xr:uid="{CA3BC04F-46B4-4466-B01B-96C81447CDE9}"/>
   <mergeCells count="2">
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="S1:W1"/>
@@ -6559,8 +6815,12 @@
     <hyperlink ref="Z6" r:id="rId71" xr:uid="{00F9A4A8-E6CA-5A47-A8B9-C5556C6524C8}"/>
     <hyperlink ref="J9" r:id="rId72" xr:uid="{2241162F-9C77-D74E-863B-571D1D092984}"/>
     <hyperlink ref="Z19" r:id="rId73" xr:uid="{D4274994-32E8-3A46-89AF-794CE8278821}"/>
+    <hyperlink ref="J63" r:id="rId74" xr:uid="{9144EC47-0C61-E149-8F4B-E7C0F033D775}"/>
+    <hyperlink ref="J64" r:id="rId75" xr:uid="{F7682771-F37D-604A-99D1-F7EEE860DC15}"/>
+    <hyperlink ref="J65" r:id="rId76" xr:uid="{D6BDA43E-2749-D34D-97FB-290D681AF727}"/>
+    <hyperlink ref="J66" r:id="rId77" xr:uid="{664B1C71-86DF-1B48-B988-9493EDC30B15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
--- a/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
+++ b/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/flyhawk/フライテック個人事業主/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEF83CF-3D94-ED43-9771-A5EA49BA2343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44DBA013-06B0-8348-BE88-0EB8FCE7C7DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AA$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AA$71</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="479">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -2339,6 +2340,106 @@
     <rPh sb="0" eb="2">
       <t>メンダn</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河上孝仁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09022302762</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19670524</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>takasophia@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芝田純也</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08040600133</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aqu.olt.v1915@yahoo.ne.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> FLASH／ソーシャルゲームアニメーション制作のエンジニア求人・案件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＪＲ成田線　新木駅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VBA(Excel, Access), VB, SQL の開発経験が豊富です。他に VB.net, C# の開発経験があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京23区内</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60万円～75万円(税込)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊東克浩</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07012767227</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19810901</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM／オフショア開発におけるPM・ディレクターのエンジニア求人・案件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高安俊輔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ゲーム広告動画】マーケティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worldconsultingresearch@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19900122</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08065266778</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>katsu.kbc.91@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SJ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2586,7 +2687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2757,13 +2858,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2773,9 +2868,22 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3057,13 +3165,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="18" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="18" ySplit="2" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -3092,20 +3200,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="S1" s="94" t="s">
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="S1" s="102" t="s">
         <v>373</v>
       </c>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
       <c r="Y1" s="24"/>
     </row>
     <row r="2" spans="1:27">
@@ -3242,13 +3350,13 @@
       <c r="I4" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="95" t="s">
+      <c r="J4" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="102"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="43" t="s">
         <v>92</v>
       </c>
@@ -3284,131 +3392,135 @@
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="73" t="s">
+      <c r="L5" s="48"/>
+      <c r="M5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="36"/>
+      <c r="S5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="68" t="s">
         <v>406</v>
       </c>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="71" t="s">
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="70" t="s">
         <v>400</v>
       </c>
       <c r="AA5" s="78"/>
     </row>
     <row r="6" spans="1:27" s="65" customFormat="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="68" t="s">
         <v>409</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="68" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="68" t="s">
         <v>419</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="68" t="s">
         <v>420</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="68" t="s">
         <v>421</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="70" t="s">
         <v>275</v>
       </c>
-      <c r="K6" s="100" t="s">
+      <c r="K6" s="101" t="s">
         <v>279</v>
       </c>
-      <c r="L6" s="100"/>
-      <c r="M6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="73" t="s">
+      <c r="L6" s="101"/>
+      <c r="M6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="68"/>
+      <c r="S6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="68" t="s">
         <v>422</v>
       </c>
       <c r="Y6" s="28"/>
@@ -3540,62 +3652,64 @@
       <c r="AA8" s="29"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="25" t="s">
+      <c r="L9" s="48"/>
+      <c r="M9" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="73" t="s">
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="68" t="s">
         <v>431</v>
       </c>
       <c r="Y9" s="28"/>
@@ -3887,7 +4001,7 @@
         <v>386</v>
       </c>
       <c r="Y13" s="44"/>
-      <c r="Z13" s="95" t="s">
+      <c r="Z13" s="94" t="s">
         <v>392</v>
       </c>
       <c r="AA13" s="29" t="s">
@@ -4153,121 +4267,127 @@
       <c r="AA17" s="29"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33" t="s">
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="K18" s="52" t="s">
+      <c r="K18" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="L18" s="52"/>
-      <c r="M18" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="N18" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="72" t="s">
+      <c r="L18" s="48"/>
+      <c r="M18" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q18" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="R18" s="36"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="68" t="s">
         <v>403</v>
       </c>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="76" t="s">
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="70" t="s">
         <v>397</v>
       </c>
       <c r="AA18" s="29"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="25" t="s">
+      <c r="L19" s="48"/>
+      <c r="M19" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="73" t="s">
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="100"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="68" t="s">
         <v>430</v>
       </c>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="71" t="s">
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="70" t="s">
         <v>432</v>
       </c>
       <c r="AA19" s="29"/>
@@ -4310,7 +4430,7 @@
       <c r="M20" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="97" t="s">
+      <c r="N20" s="95" t="s">
         <v>92</v>
       </c>
       <c r="O20" s="39" t="s">
@@ -4328,7 +4448,7 @@
       <c r="S20" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="T20" s="97" t="s">
+      <c r="T20" s="95" t="s">
         <v>156</v>
       </c>
       <c r="U20" s="39" t="s">
@@ -4336,11 +4456,11 @@
       </c>
       <c r="V20" s="38"/>
       <c r="W20" s="38"/>
-      <c r="X20" s="98" t="s">
+      <c r="X20" s="96" t="s">
         <v>385</v>
       </c>
       <c r="Y20" s="38"/>
-      <c r="Z20" s="99" t="s">
+      <c r="Z20" s="97" t="s">
         <v>394</v>
       </c>
       <c r="AA20" s="29"/>
@@ -6675,67 +6795,275 @@
       <c r="Z66" s="74"/>
       <c r="AA66" s="29"/>
     </row>
-    <row r="67" spans="1:27">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="57"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="56"/>
-      <c r="T67" s="56"/>
-      <c r="U67" s="56"/>
-      <c r="V67" s="57"/>
-      <c r="W67" s="57"/>
-      <c r="X67" s="58"/>
-      <c r="Y67" s="57"/>
-      <c r="Z67" s="75"/>
-      <c r="AA67" s="58"/>
-    </row>
-    <row r="68" spans="1:27">
-      <c r="C68" s="36"/>
-      <c r="D68" s="1" t="s">
+    <row r="67" spans="1:27" s="103" customFormat="1">
+      <c r="A67" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="I67" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="J67" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="K67" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="L67" s="49"/>
+      <c r="M67" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N67" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O67" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P67" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="27"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="73"/>
+      <c r="AA67" s="105"/>
+    </row>
+    <row r="68" spans="1:27" s="103" customFormat="1">
+      <c r="A68" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="K68" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="L68" s="52"/>
+      <c r="M68" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="N68" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="32"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="72"/>
+      <c r="AA68" s="104"/>
+    </row>
+    <row r="69" spans="1:27" s="103" customFormat="1">
+      <c r="A69" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="K69" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="L69" s="52"/>
+      <c r="M69" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="N69" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="32"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="72"/>
+      <c r="AA69" s="104"/>
+    </row>
+    <row r="70" spans="1:27" s="103" customFormat="1">
+      <c r="A70" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="F70" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="K70" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="L70" s="52"/>
+      <c r="M70" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="N70" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="O70" s="34"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="32"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="72"/>
+      <c r="AA70" s="104"/>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="57"/>
+      <c r="Q71" s="57"/>
+      <c r="R71" s="54"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="57"/>
+      <c r="W71" s="57"/>
+      <c r="X71" s="58"/>
+      <c r="Y71" s="57"/>
+      <c r="Z71" s="75"/>
+      <c r="AA71" s="58"/>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="C72" s="36"/>
+      <c r="D72" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
-      <c r="C69" s="25"/>
-      <c r="D69" s="1" t="s">
+    <row r="73" spans="1:27">
+      <c r="C73" s="25"/>
+      <c r="D73" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
-      <c r="C70" s="40"/>
-      <c r="D70" s="1" t="s">
+    <row r="74" spans="1:27">
+      <c r="C74" s="40"/>
+      <c r="D74" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="38">
-      <c r="C71" s="1"/>
-      <c r="D71" s="77" t="s">
+    <row r="75" spans="1:27" ht="38">
+      <c r="C75" s="1"/>
+      <c r="D75" s="77" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
-      <c r="C72" s="5"/>
-      <c r="D72" s="1" t="s">
+    <row r="76" spans="1:27">
+      <c r="C76" s="5"/>
+      <c r="D76" s="1" t="s">
         <v>331</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA67" xr:uid="{CA3BC04F-46B4-4466-B01B-96C81447CDE9}"/>
+  <autoFilter ref="A3:AA71" xr:uid="{CA3BC04F-46B4-4466-B01B-96C81447CDE9}"/>
   <mergeCells count="2">
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="S1:W1"/>
@@ -6819,8 +7147,12 @@
     <hyperlink ref="J64" r:id="rId75" xr:uid="{F7682771-F37D-604A-99D1-F7EEE860DC15}"/>
     <hyperlink ref="J65" r:id="rId76" xr:uid="{D6BDA43E-2749-D34D-97FB-290D681AF727}"/>
     <hyperlink ref="J66" r:id="rId77" xr:uid="{664B1C71-86DF-1B48-B988-9493EDC30B15}"/>
+    <hyperlink ref="J67" r:id="rId78" xr:uid="{196CCD73-3CEB-EF45-B770-0794EF087A95}"/>
+    <hyperlink ref="J70" r:id="rId79" xr:uid="{6F77134B-0734-F94F-BB0F-C3E0E4751343}"/>
+    <hyperlink ref="J68" r:id="rId80" xr:uid="{0618A9E9-1C3C-3E4B-89E5-6F1E20B95EFF}"/>
+    <hyperlink ref="J69" r:id="rId81" xr:uid="{CB839433-465C-C847-9413-808AC6A869D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
 </worksheet>
 </file>
--- a/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
+++ b/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/flyhawk/フライテック個人事業主/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44DBA013-06B0-8348-BE88-0EB8FCE7C7DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395AB9BF-9241-0A41-A819-7DA65139B03D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AA$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AA$81</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="511">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -2440,6 +2440,136 @@
   </si>
   <si>
     <t>SJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磯野博</t>
+    <rPh sb="0" eb="1">
+      <t>リュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松下幸平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kohei0217@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19890217</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09033535556</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あゆでみるべるけにせう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19910405</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+905529488888</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>berkenis@yahoo.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>門田光正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09083443703</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19950227</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m.kadota1995@ooutlook.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大上類人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08019200950</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19831013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rui-rui-to@hotmail.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zheng.gong@faineo.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鞏錚</t>
+  </si>
+  <si>
+    <t>08035055887</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19880114</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>張シユ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arioka041588@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19940213</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07043787872</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2687,7 +2817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2878,12 +3008,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3165,13 +3297,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA76"/>
+  <dimension ref="A1:AA86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="18" ySplit="2" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="2" topLeftCell="S47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -6854,7 +6986,7 @@
       <c r="X67" s="25"/>
       <c r="Y67" s="28"/>
       <c r="Z67" s="73"/>
-      <c r="AA67" s="105"/>
+      <c r="AA67" s="106"/>
     </row>
     <row r="68" spans="1:27" s="103" customFormat="1">
       <c r="A68" s="32" t="s">
@@ -6903,7 +7035,7 @@
       <c r="X68" s="32"/>
       <c r="Y68" s="35"/>
       <c r="Z68" s="72"/>
-      <c r="AA68" s="104"/>
+      <c r="AA68" s="105"/>
     </row>
     <row r="69" spans="1:27" s="103" customFormat="1">
       <c r="A69" s="32" t="s">
@@ -6952,7 +7084,7 @@
       <c r="X69" s="32"/>
       <c r="Y69" s="35"/>
       <c r="Z69" s="72"/>
-      <c r="AA69" s="104"/>
+      <c r="AA69" s="105"/>
     </row>
     <row r="70" spans="1:27" s="103" customFormat="1">
       <c r="A70" s="32" t="s">
@@ -7001,69 +7133,511 @@
       <c r="X70" s="32"/>
       <c r="Y70" s="35"/>
       <c r="Z70" s="72"/>
-      <c r="AA70" s="104"/>
-    </row>
-    <row r="71" spans="1:27">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="55"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="56"/>
-      <c r="P71" s="57"/>
-      <c r="Q71" s="57"/>
-      <c r="R71" s="54"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="56"/>
-      <c r="V71" s="57"/>
-      <c r="W71" s="57"/>
-      <c r="X71" s="58"/>
-      <c r="Y71" s="57"/>
-      <c r="Z71" s="75"/>
-      <c r="AA71" s="58"/>
+      <c r="AA70" s="105"/>
+    </row>
+    <row r="71" spans="1:27" s="79" customFormat="1">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="K71" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="L71" s="50"/>
+      <c r="M71" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N71" s="89"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="89"/>
+      <c r="U71" s="31"/>
+      <c r="V71" s="31"/>
+      <c r="W71" s="31"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="31"/>
+      <c r="Z71" s="66"/>
+      <c r="AA71" s="29"/>
     </row>
     <row r="72" spans="1:27">
-      <c r="C72" s="36"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>479</v>
+      </c>
       <c r="D72" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="K72" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="L72" s="50"/>
+      <c r="M72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N72" s="89"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="89"/>
+      <c r="U72" s="31"/>
+      <c r="V72" s="31"/>
+      <c r="W72" s="31"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="31"/>
+      <c r="Z72" s="66"/>
+      <c r="AA72" s="29"/>
+    </row>
+    <row r="73" spans="1:27">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="K73" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="L73" s="50"/>
+      <c r="M73" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N73" s="89"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="89"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="31"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="31"/>
+      <c r="Z73" s="66"/>
+      <c r="AA73" s="29"/>
+    </row>
+    <row r="74" spans="1:27">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="K74" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="L74" s="53"/>
+      <c r="M74" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="22"/>
+      <c r="W74" s="22"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="22"/>
+      <c r="Z74" s="74"/>
+      <c r="AA74" s="29"/>
+    </row>
+    <row r="75" spans="1:27">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="K75" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="L75" s="53"/>
+      <c r="M75" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="22"/>
+      <c r="W75" s="22"/>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="22"/>
+      <c r="Z75" s="74"/>
+      <c r="AA75" s="29"/>
+    </row>
+    <row r="76" spans="1:27">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="K76" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="L76" s="54"/>
+      <c r="M76" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="22"/>
+      <c r="W76" s="22"/>
+      <c r="X76" s="17"/>
+      <c r="Y76" s="22"/>
+      <c r="Z76" s="74"/>
+      <c r="AA76" s="29"/>
+    </row>
+    <row r="77" spans="1:27">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="K77" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="L77" s="53"/>
+      <c r="M77" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="22"/>
+      <c r="W77" s="22"/>
+      <c r="X77" s="17"/>
+      <c r="Y77" s="22"/>
+      <c r="Z77" s="74"/>
+      <c r="AA77" s="29"/>
+    </row>
+    <row r="78" spans="1:27">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="K78" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="L78" s="54"/>
+      <c r="M78" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="19"/>
+      <c r="U78" s="19"/>
+      <c r="V78" s="22"/>
+      <c r="W78" s="22"/>
+      <c r="X78" s="17"/>
+      <c r="Y78" s="22"/>
+      <c r="Z78" s="74"/>
+      <c r="AA78" s="29"/>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="104" t="s">
+        <v>504</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="K79" s="53"/>
+      <c r="L79" s="53"/>
+      <c r="M79" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="19"/>
+      <c r="V79" s="22"/>
+      <c r="W79" s="22"/>
+      <c r="X79" s="17"/>
+      <c r="Y79" s="22"/>
+      <c r="Z79" s="74"/>
+      <c r="AA79" s="29"/>
+    </row>
+    <row r="80" spans="1:27">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="K80" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="L80" s="107"/>
+      <c r="M80" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="19"/>
+      <c r="T80" s="19"/>
+      <c r="U80" s="19"/>
+      <c r="V80" s="22"/>
+      <c r="W80" s="22"/>
+      <c r="X80" s="17"/>
+      <c r="Y80" s="22"/>
+      <c r="Z80" s="74"/>
+      <c r="AA80" s="29"/>
+    </row>
+    <row r="81" spans="1:27">
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="57"/>
+      <c r="R81" s="54"/>
+      <c r="S81" s="56"/>
+      <c r="T81" s="56"/>
+      <c r="U81" s="56"/>
+      <c r="V81" s="57"/>
+      <c r="W81" s="57"/>
+      <c r="X81" s="58"/>
+      <c r="Y81" s="57"/>
+      <c r="Z81" s="75"/>
+      <c r="AA81" s="58"/>
+    </row>
+    <row r="82" spans="1:27">
+      <c r="C82" s="36"/>
+      <c r="D82" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
-      <c r="C73" s="25"/>
-      <c r="D73" s="1" t="s">
+    <row r="83" spans="1:27">
+      <c r="C83" s="25"/>
+      <c r="D83" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
-      <c r="C74" s="40"/>
-      <c r="D74" s="1" t="s">
+    <row r="84" spans="1:27">
+      <c r="C84" s="40"/>
+      <c r="D84" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="38">
-      <c r="C75" s="1"/>
-      <c r="D75" s="77" t="s">
+    <row r="85" spans="1:27" ht="38">
+      <c r="C85" s="1"/>
+      <c r="D85" s="77" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
-      <c r="C76" s="5"/>
-      <c r="D76" s="1" t="s">
+    <row r="86" spans="1:27">
+      <c r="C86" s="5"/>
+      <c r="D86" s="1" t="s">
         <v>331</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA71" xr:uid="{CA3BC04F-46B4-4466-B01B-96C81447CDE9}"/>
+  <autoFilter ref="A3:AA81" xr:uid="{CA3BC04F-46B4-4466-B01B-96C81447CDE9}"/>
   <mergeCells count="2">
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="S1:W1"/>
@@ -7151,8 +7725,18 @@
     <hyperlink ref="J70" r:id="rId79" xr:uid="{6F77134B-0734-F94F-BB0F-C3E0E4751343}"/>
     <hyperlink ref="J68" r:id="rId80" xr:uid="{0618A9E9-1C3C-3E4B-89E5-6F1E20B95EFF}"/>
     <hyperlink ref="J69" r:id="rId81" xr:uid="{CB839433-465C-C847-9413-808AC6A869D0}"/>
+    <hyperlink ref="J71" r:id="rId82" xr:uid="{A9610197-64E8-CF47-85C8-2EDBBF15AC7A}"/>
+    <hyperlink ref="J72" r:id="rId83" xr:uid="{F35E0A0A-C239-9D4D-9B82-B9F710E34B17}"/>
+    <hyperlink ref="J73" r:id="rId84" xr:uid="{5C1F5E1F-E991-454C-A6BA-56C474401570}"/>
+    <hyperlink ref="J74" r:id="rId85" xr:uid="{8F0B272D-4F06-5A47-AF9E-31FC53337014}"/>
+    <hyperlink ref="J75" r:id="rId86" xr:uid="{217127A3-0017-4147-93EA-38C1A814AC2F}"/>
+    <hyperlink ref="J76" r:id="rId87" xr:uid="{ACCFF662-4261-AD47-9927-EDC15220E02B}"/>
+    <hyperlink ref="J77" r:id="rId88" xr:uid="{E9A12F80-FB1A-D043-9CDA-42D1E0E45E12}"/>
+    <hyperlink ref="J78" r:id="rId89" xr:uid="{0EAAA93B-5FD5-324D-BFA3-5D5A69195A2C}"/>
+    <hyperlink ref="J79" r:id="rId90" xr:uid="{D649A09B-D9B8-4F48-8FF3-5D003E2DBB79}"/>
+    <hyperlink ref="J80" r:id="rId91" xr:uid="{9D36EEF1-6A87-804B-8DBD-C763ADBD51C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>
 </worksheet>
 </file>
--- a/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
+++ b/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/flyhawk/フライテック個人事業主/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395AB9BF-9241-0A41-A819-7DA65139B03D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C22FD37-F81E-FB41-A2E0-0D08C86F76C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AA$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$2:$K$76</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="531">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -2443,133 +2443,216 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>磯野博</t>
+    <t>松下幸平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kohei0217@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19890217</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09033535556</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あゆでみるべるけにせう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19910405</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+905529488888</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>berkenis@yahoo.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>門田光正</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09083443703</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19950227</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m.kadota1995@ooutlook.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大上類人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08019200950</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19831013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rui-rui-to@hotmail.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zheng.gong@faineo.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鞏錚</t>
+  </si>
+  <si>
+    <t>08035055887</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19880114</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>張シユ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arioka041588@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19940213</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07043787872</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田和寛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小松義幸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09054542905</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まだ未定</t>
     <rPh sb="0" eb="1">
-      <t>リュ</t>
+      <t>ソk</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>YJ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>松下幸平</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kohei0217@gmail.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>19890217</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>09033535556</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あゆでみるべるけにせう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>19910405</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>+905529488888</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>berkenis@yahoo.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>門田光正</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>09083443703</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>19950227</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m.kadota1995@ooutlook.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大上類人</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>08019200950</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>19831013</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rui-rui-to@hotmail.co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>zheng.gong@faineo.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鞏錚</t>
-  </si>
-  <si>
-    <t>08035055887</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>19880114</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>張シユ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>arioka041588@gmail.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>19940213</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>07043787872</t>
+    <t>19740518</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sd1904ky1974@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML5,CSS3／某自治体観光局向けWebサイトコーディング</t>
+  </si>
+  <si>
+    <t>diffkom@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>来月</t>
+    <rPh sb="0" eb="1">
+      <t>ソk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19670828</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09036906122</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toshiya116@icloud.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19840806</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08032280016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイナー</t>
+  </si>
+  <si>
+    <t>マーケティング</t>
+  </si>
+  <si>
+    <t>マーケティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件登録なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高鷹法義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19820119</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08031245539</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHP・JavaScript／コーポレートサイト開発</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nkoutaka@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wordpressのエンド直下はないため</t>
+    <rPh sb="0" eb="1">
+      <t>ナイt</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2817,7 +2900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2864,10 +2947,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2911,7 +2990,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2956,7 +3034,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2986,7 +3063,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3004,18 +3080,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3300,10 +3380,10 @@
   <dimension ref="A1:AA86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="18" ySplit="2" topLeftCell="S47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="2" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58:D58"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -3326,33 +3406,33 @@
     <col min="22" max="23" width="9" style="23"/>
     <col min="24" max="24" width="28.6640625" style="24" customWidth="1"/>
     <col min="25" max="25" width="9" style="23"/>
-    <col min="26" max="26" width="9" style="65"/>
+    <col min="26" max="26" width="9" style="62"/>
     <col min="27" max="27" width="34.33203125" style="24" customWidth="1"/>
     <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="M1" s="102" t="s">
+      <c r="M1" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="S1" s="102" t="s">
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="S1" s="101" t="s">
         <v>373</v>
       </c>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
       <c r="Y1" s="24"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>358</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -3379,11 +3459,11 @@
       <c r="J2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="59" t="s">
+      <c r="L2" s="57"/>
+      <c r="M2" s="56" t="s">
         <v>93</v>
       </c>
       <c r="N2" s="20" t="s">
@@ -3398,27 +3478,27 @@
       <c r="Q2" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="S2" s="59" t="s">
+      <c r="S2" s="56" t="s">
         <v>374</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="U2" s="61" t="s">
+      <c r="U2" s="58" t="s">
         <v>376</v>
       </c>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31" t="s">
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Y2" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="Z2" s="66" t="s">
+      <c r="Z2" s="63" t="s">
         <v>389</v>
       </c>
       <c r="AA2" s="20" t="s">
@@ -3426,1176 +3506,1176 @@
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="64"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="31"/>
-    </row>
-    <row r="4" spans="1:27" s="65" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="69" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="29"/>
+    </row>
+    <row r="4" spans="1:27" s="62" customFormat="1" ht="33" customHeight="1">
+      <c r="A4" s="66" t="s">
         <v>409</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="94" t="s">
+      <c r="J4" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="P4" s="44" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="43" t="s">
+      <c r="Q4" s="42"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="69" t="s">
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="63" t="s">
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="60" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="P5" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="R5" s="36"/>
-      <c r="S5" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="T5" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="68" t="s">
+      <c r="L5" s="46"/>
+      <c r="M5" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="34"/>
+      <c r="S5" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="70" t="s">
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="67" t="s">
         <v>400</v>
       </c>
-      <c r="AA5" s="78"/>
-    </row>
-    <row r="6" spans="1:27" s="65" customFormat="1">
-      <c r="A6" s="68" t="s">
+      <c r="AA5" s="74"/>
+    </row>
+    <row r="6" spans="1:27" s="62" customFormat="1">
+      <c r="A6" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="65" t="s">
         <v>419</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="65" t="s">
         <v>420</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="65" t="s">
         <v>421</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="K6" s="101" t="s">
+      <c r="K6" s="96" t="s">
         <v>279</v>
       </c>
-      <c r="L6" s="101"/>
-      <c r="M6" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="P6" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q6" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="T6" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="68" t="s">
+      <c r="L6" s="96"/>
+      <c r="M6" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="65"/>
+      <c r="S6" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="65" t="s">
         <v>422</v>
       </c>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="71" t="s">
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="68" t="s">
         <v>423</v>
       </c>
-      <c r="AA6" s="78"/>
+      <c r="AA6" s="74"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>452</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q7" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="R7" s="36" t="s">
+      <c r="L7" s="46"/>
+      <c r="M7" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="S7" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="T7" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="68" t="s">
+      <c r="S7" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="65" t="s">
         <v>402</v>
       </c>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="70" t="s">
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="67" t="s">
         <v>412</v>
       </c>
-      <c r="AA7" s="78" t="s">
+      <c r="AA7" s="74" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="17" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="30" t="s">
         <v>409</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="29"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="27"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="K9" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q9" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="R9" s="36" t="s">
+      <c r="L9" s="46"/>
+      <c r="M9" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="68" t="s">
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="65" t="s">
         <v>431</v>
       </c>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="29"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="27"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="K10" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="P10" s="39" t="s">
+      <c r="L10" s="46"/>
+      <c r="M10" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="Q10" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="R10" s="36" t="s">
+      <c r="Q10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="S10" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="T10" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="U10" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="68" t="s">
+      <c r="S10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="T10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="U10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="65" t="s">
         <v>384</v>
       </c>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="70" t="s">
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="67" t="s">
         <v>401</v>
       </c>
-      <c r="AA10" s="29"/>
+      <c r="AA10" s="27"/>
     </row>
     <row r="11" spans="1:27" ht="17.5" customHeight="1">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="40" t="s">
         <v>48</v>
       </c>
       <c r="K11" s="48" t="s">
         <v>44</v>
       </c>
       <c r="L11" s="48"/>
-      <c r="M11" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="P11" s="39" t="s">
+      <c r="M11" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="Q11" s="39" t="s">
+      <c r="Q11" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="R11" s="36" t="s">
+      <c r="R11" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="S11" s="38" t="s">
+      <c r="S11" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="T11" s="38" t="s">
+      <c r="T11" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="U11" s="38" t="s">
+      <c r="U11" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="68" t="s">
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="92" t="s">
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="100" t="s">
         <v>390</v>
       </c>
-      <c r="AA11" s="29"/>
+      <c r="AA11" s="27"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="48" t="s">
+      <c r="K12" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q12" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="R12" s="36"/>
-      <c r="S12" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="T12" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="U12" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="68" t="s">
+      <c r="L12" s="46"/>
+      <c r="M12" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="34"/>
+      <c r="S12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="T12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="93" t="s">
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="88" t="s">
         <v>391</v>
       </c>
-      <c r="AA12" s="29" t="s">
+      <c r="AA12" s="27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="51" t="s">
+      <c r="K13" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="N13" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="O13" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="41" t="s">
+      <c r="L13" s="48"/>
+      <c r="M13" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="S13" s="43" t="s">
+      <c r="S13" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="T13" s="43" t="s">
+      <c r="T13" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="U13" s="43" t="s">
+      <c r="U13" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="69" t="s">
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="94" t="s">
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="89" t="s">
         <v>392</v>
       </c>
-      <c r="AA13" s="29" t="s">
+      <c r="AA13" s="27" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N14" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O14" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="P14" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="R14" s="36"/>
-      <c r="S14" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="T14" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="U14" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="68" t="s">
+      <c r="L14" s="46"/>
+      <c r="M14" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="34"/>
+      <c r="S14" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="T14" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="U14" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="65" t="s">
         <v>383</v>
       </c>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="70" t="s">
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="67" t="s">
         <v>393</v>
       </c>
-      <c r="AA14" s="29"/>
+      <c r="AA14" s="27"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37" t="s">
+      <c r="I15" s="34"/>
+      <c r="J15" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="L15" s="48"/>
-      <c r="M15" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N15" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="P15" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q15" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="R15" s="36"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="68" t="s">
+      <c r="L15" s="46"/>
+      <c r="M15" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="R15" s="34"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="70" t="s">
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="67" t="s">
         <v>398</v>
       </c>
-      <c r="AA15" s="29" t="s">
+      <c r="AA15" s="27" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="K16" s="52" t="s">
+      <c r="K16" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="L16" s="52"/>
-      <c r="M16" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="N16" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="O16" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="72" t="s">
+      <c r="L16" s="46"/>
+      <c r="M16" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="65" t="s">
         <v>404</v>
       </c>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="76" t="s">
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="67" t="s">
         <v>399</v>
       </c>
-      <c r="AA16" s="29"/>
+      <c r="AA16" s="27"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="L17" s="48"/>
-      <c r="M17" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O17" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="P17" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="R17" s="36" t="s">
+      <c r="L17" s="46"/>
+      <c r="M17" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="R17" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="68" t="s">
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="65" t="s">
         <v>407</v>
       </c>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="70" t="s">
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="67" t="s">
         <v>396</v>
       </c>
-      <c r="AA17" s="29"/>
+      <c r="AA17" s="27"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37" t="s">
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N18" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O18" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="P18" s="39" t="s">
+      <c r="L18" s="46"/>
+      <c r="M18" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="Q18" s="39" t="s">
+      <c r="Q18" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="R18" s="36"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="68" t="s">
+      <c r="R18" s="34"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="65" t="s">
         <v>403</v>
       </c>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="70" t="s">
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="67" t="s">
         <v>397</v>
       </c>
-      <c r="AA18" s="29"/>
+      <c r="AA18" s="27"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="K19" s="48" t="s">
+      <c r="K19" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="L19" s="48"/>
-      <c r="M19" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N19" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="O19" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="R19" s="36" t="s">
+      <c r="L19" s="46"/>
+      <c r="M19" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="100"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="68" t="s">
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="Y19" s="100"/>
-      <c r="Z19" s="70" t="s">
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="67" t="s">
         <v>432</v>
       </c>
-      <c r="AA19" s="29"/>
+      <c r="AA19" s="27"/>
     </row>
     <row r="20" spans="1:27" ht="19.25" customHeight="1">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="34" t="s">
         <v>434</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="K20" s="48" t="s">
+      <c r="K20" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="L20" s="48"/>
-      <c r="M20" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="P20" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="R20" s="36" t="s">
+      <c r="L20" s="46"/>
+      <c r="M20" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="R20" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="S20" s="38" t="s">
+      <c r="S20" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="T20" s="95" t="s">
+      <c r="T20" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="U20" s="39" t="s">
+      <c r="U20" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="96" t="s">
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="91" t="s">
         <v>385</v>
       </c>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="97" t="s">
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="92" t="s">
         <v>394</v>
       </c>
-      <c r="AA20" s="29"/>
+      <c r="AA20" s="27"/>
     </row>
     <row r="21" spans="1:27" ht="20.5" customHeight="1">
       <c r="A21" s="5" t="s">
@@ -4626,10 +4706,10 @@
       <c r="J21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="46"/>
+      <c r="L21" s="44"/>
       <c r="M21" s="4" t="s">
         <v>92</v>
       </c>
@@ -4653,8 +4733,8 @@
       <c r="W21" s="21"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="21"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="62" t="s">
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="59" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4681,10 +4761,10 @@
       <c r="J22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="47"/>
+      <c r="L22" s="45"/>
       <c r="M22" s="4" t="s">
         <v>92</v>
       </c>
@@ -4702,8 +4782,8 @@
       <c r="W22" s="21"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="21"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="62" t="s">
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="59" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4733,13 +4813,13 @@
       <c r="I23" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J23" s="80" t="s">
+      <c r="J23" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="47" t="s">
+      <c r="K23" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="47"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="4" t="s">
         <v>92</v>
       </c>
@@ -4763,8 +4843,8 @@
       <c r="W23" s="21"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="21"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="62" t="s">
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="59" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4794,11 +4874,11 @@
       <c r="I24" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="80" t="s">
+      <c r="J24" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
       <c r="M24" s="4" t="s">
         <v>92</v>
       </c>
@@ -4818,8 +4898,8 @@
       <c r="W24" s="21"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="21"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="62" t="s">
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="59" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4846,10 +4926,10 @@
       <c r="J25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="47" t="s">
+      <c r="K25" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="47"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="4" t="s">
         <v>92</v>
       </c>
@@ -4867,8 +4947,8 @@
       <c r="W25" s="21"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="21"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="62" t="s">
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="59" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4895,10 +4975,10 @@
       <c r="J26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="L26" s="47"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="4" t="s">
         <v>92</v>
       </c>
@@ -4916,8 +4996,8 @@
       <c r="W26" s="21"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="21"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="62" t="s">
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="59" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4944,10 +5024,10 @@
       <c r="J27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="47" t="s">
+      <c r="K27" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="47"/>
+      <c r="L27" s="45"/>
       <c r="M27" s="4" t="s">
         <v>92</v>
       </c>
@@ -4971,8 +5051,8 @@
       <c r="W27" s="21"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="21"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="62" t="s">
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="59" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4999,10 +5079,10 @@
       <c r="J28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="47" t="s">
+      <c r="K28" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="47"/>
+      <c r="L28" s="45"/>
       <c r="M28" s="4" t="s">
         <v>92</v>
       </c>
@@ -5026,8 +5106,8 @@
       <c r="W28" s="21"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="21"/>
-      <c r="Z28" s="67"/>
-      <c r="AA28" s="62" t="s">
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="59" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5054,14 +5134,14 @@
       <c r="J29" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K29" s="47" t="s">
+      <c r="K29" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="L29" s="47"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N29" s="88" t="s">
+      <c r="N29" s="84" t="s">
         <v>92</v>
       </c>
       <c r="O29" s="21" t="s">
@@ -5075,14 +5155,14 @@
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="88"/>
+      <c r="T29" s="84"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="21"/>
-      <c r="Z29" s="67"/>
-      <c r="AA29" s="62" t="s">
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="59" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5109,14 +5189,14 @@
       <c r="J30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="47" t="s">
+      <c r="K30" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="L30" s="47"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N30" s="88" t="s">
+      <c r="N30" s="84" t="s">
         <v>92</v>
       </c>
       <c r="O30" s="21" t="s">
@@ -5130,14 +5210,14 @@
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="88"/>
+      <c r="T30" s="84"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="21"/>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="62" t="s">
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="59" t="s">
         <v>320</v>
       </c>
     </row>
@@ -5164,10 +5244,10 @@
       <c r="J31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K31" s="47" t="s">
+      <c r="K31" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L31" s="47"/>
+      <c r="L31" s="45"/>
       <c r="M31" s="4" t="s">
         <v>92</v>
       </c>
@@ -5191,8 +5271,8 @@
       <c r="W31" s="21"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="21"/>
-      <c r="Z31" s="67"/>
-      <c r="AA31" s="62" t="s">
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="59" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5219,17 +5299,17 @@
       <c r="J32" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K32" s="47" t="s">
+      <c r="K32" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="L32" s="47"/>
+      <c r="L32" s="45"/>
       <c r="M32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N32" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="O32" s="91" t="s">
+      <c r="N32" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="O32" s="87" t="s">
         <v>204</v>
       </c>
       <c r="P32" s="21" t="s">
@@ -5240,14 +5320,14 @@
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="88"/>
-      <c r="U32" s="91"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="87"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="21"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="62" t="s">
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="59" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5274,29 +5354,29 @@
       <c r="J33" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L33" s="47"/>
+      <c r="L33" s="45"/>
       <c r="M33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N33" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="O33" s="90"/>
+      <c r="N33" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="O33" s="86"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="5"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="90"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="86"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="21"/>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="62" t="s">
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="59" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5323,17 +5403,17 @@
       <c r="J34" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="K34" s="82" t="s">
+      <c r="K34" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="L34" s="82"/>
+      <c r="L34" s="78"/>
       <c r="M34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N34" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="O34" s="90" t="s">
+      <c r="N34" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="O34" s="86" t="s">
         <v>204</v>
       </c>
       <c r="P34" s="21" t="s">
@@ -5344,14 +5424,14 @@
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="88"/>
-      <c r="U34" s="90"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="86"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="21"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="62" t="s">
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="59" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5378,10 +5458,10 @@
       <c r="J35" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="K35" s="47" t="s">
+      <c r="K35" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L35" s="47"/>
+      <c r="L35" s="45"/>
       <c r="M35" s="4" t="s">
         <v>92</v>
       </c>
@@ -5399,8 +5479,8 @@
       <c r="W35" s="21"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="21"/>
-      <c r="Z35" s="67"/>
-      <c r="AA35" s="62" t="s">
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="59" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5427,14 +5507,14 @@
       <c r="J36" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K36" s="47" t="s">
+      <c r="K36" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="L36" s="47"/>
+      <c r="L36" s="45"/>
       <c r="M36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N36" s="88" t="s">
+      <c r="N36" s="84" t="s">
         <v>204</v>
       </c>
       <c r="O36" s="21" t="s">
@@ -5448,14 +5528,14 @@
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="88"/>
+      <c r="T36" s="84"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="21"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="62" t="s">
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="59" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5482,10 +5562,10 @@
       <c r="J37" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="K37" s="47" t="s">
+      <c r="K37" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="L37" s="47"/>
+      <c r="L37" s="45"/>
       <c r="M37" s="4" t="s">
         <v>92</v>
       </c>
@@ -5509,8 +5589,8 @@
       <c r="W37" s="21"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="21"/>
-      <c r="Z37" s="67"/>
-      <c r="AA37" s="62" t="s">
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="59" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5537,10 +5617,10 @@
       <c r="J38" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="K38" s="47" t="s">
+      <c r="K38" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="47"/>
+      <c r="L38" s="45"/>
       <c r="M38" s="4" t="s">
         <v>92</v>
       </c>
@@ -5564,8 +5644,8 @@
       <c r="W38" s="21"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="21"/>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="62" t="s">
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="59" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5592,10 +5672,10 @@
       <c r="J39" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K39" s="47" t="s">
+      <c r="K39" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="L39" s="47"/>
+      <c r="L39" s="45"/>
       <c r="M39" s="4" t="s">
         <v>92</v>
       </c>
@@ -5613,8 +5693,8 @@
       <c r="W39" s="21"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="21"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="29"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="27"/>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="5" t="s">
@@ -5639,10 +5719,10 @@
       <c r="J40" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K40" s="47" t="s">
+      <c r="K40" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="L40" s="47"/>
+      <c r="L40" s="45"/>
       <c r="M40" s="4" t="s">
         <v>92</v>
       </c>
@@ -5666,8 +5746,8 @@
       <c r="W40" s="21"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="21"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="62" t="s">
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="59" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5694,10 +5774,10 @@
       <c r="J41" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="K41" s="47" t="s">
+      <c r="K41" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="L41" s="47"/>
+      <c r="L41" s="45"/>
       <c r="M41" s="4" t="s">
         <v>92</v>
       </c>
@@ -5721,8 +5801,8 @@
       <c r="W41" s="21"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="21"/>
-      <c r="Z41" s="67"/>
-      <c r="AA41" s="62" t="s">
+      <c r="Z41" s="64"/>
+      <c r="AA41" s="59" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5749,10 +5829,10 @@
       <c r="J42" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="K42" s="47" t="s">
+      <c r="K42" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="L42" s="47"/>
+      <c r="L42" s="45"/>
       <c r="M42" s="4" t="s">
         <v>92</v>
       </c>
@@ -5776,8 +5856,8 @@
       <c r="W42" s="21"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="21"/>
-      <c r="Z42" s="67"/>
-      <c r="AA42" s="62" t="s">
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="59" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5804,10 +5884,10 @@
       <c r="J43" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="K43" s="47" t="s">
+      <c r="K43" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="L43" s="47"/>
+      <c r="L43" s="45"/>
       <c r="M43" s="4" t="s">
         <v>92</v>
       </c>
@@ -5831,8 +5911,8 @@
       <c r="W43" s="21"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="21"/>
-      <c r="Z43" s="67"/>
-      <c r="AA43" s="62" t="s">
+      <c r="Z43" s="64"/>
+      <c r="AA43" s="59" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5859,10 +5939,10 @@
       <c r="J44" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="K44" s="47" t="s">
+      <c r="K44" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="L44" s="47"/>
+      <c r="L44" s="45"/>
       <c r="M44" s="4" t="s">
         <v>92</v>
       </c>
@@ -5886,8 +5966,8 @@
       <c r="W44" s="21"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="21"/>
-      <c r="Z44" s="67"/>
-      <c r="AA44" s="62" t="s">
+      <c r="Z44" s="64"/>
+      <c r="AA44" s="59" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5914,10 +5994,10 @@
       <c r="J45" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="K45" s="47" t="s">
+      <c r="K45" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="L45" s="47"/>
+      <c r="L45" s="45"/>
       <c r="M45" s="4" t="s">
         <v>92</v>
       </c>
@@ -5935,8 +6015,8 @@
       <c r="W45" s="21"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="21"/>
-      <c r="Z45" s="67"/>
-      <c r="AA45" s="62" t="s">
+      <c r="Z45" s="64"/>
+      <c r="AA45" s="59" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5969,10 +6049,10 @@
       <c r="J46" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="K46" s="85" t="s">
+      <c r="K46" s="81" t="s">
         <v>244</v>
       </c>
-      <c r="L46" s="85"/>
+      <c r="L46" s="81"/>
       <c r="M46" s="4" t="s">
         <v>92</v>
       </c>
@@ -5996,8 +6076,8 @@
       <c r="W46" s="21"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="21"/>
-      <c r="Z46" s="67"/>
-      <c r="AA46" s="29"/>
+      <c r="Z46" s="64"/>
+      <c r="AA46" s="27"/>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="5" t="s">
@@ -6022,10 +6102,10 @@
       <c r="J47" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="K47" s="47" t="s">
+      <c r="K47" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="L47" s="47"/>
+      <c r="L47" s="45"/>
       <c r="M47" s="4" t="s">
         <v>92</v>
       </c>
@@ -6049,12 +6129,12 @@
       <c r="W47" s="21"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="21"/>
-      <c r="Z47" s="67"/>
-      <c r="AA47" s="62" t="s">
+      <c r="Z47" s="64"/>
+      <c r="AA47" s="59" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="79" customFormat="1">
+    <row r="48" spans="1:27" s="75" customFormat="1">
       <c r="A48" s="5" t="s">
         <v>424</v>
       </c>
@@ -6077,10 +6157,10 @@
       <c r="J48" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K48" s="84" t="s">
+      <c r="K48" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="L48" s="84"/>
+      <c r="L48" s="80"/>
       <c r="M48" s="4" t="s">
         <v>92</v>
       </c>
@@ -6104,8 +6184,8 @@
       <c r="W48" s="21"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="21"/>
-      <c r="Z48" s="67"/>
-      <c r="AA48" s="62" t="s">
+      <c r="Z48" s="64"/>
+      <c r="AA48" s="59" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6132,10 +6212,10 @@
       <c r="J49" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="K49" s="47" t="s">
+      <c r="K49" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="L49" s="47"/>
+      <c r="L49" s="45"/>
       <c r="M49" s="4" t="s">
         <v>92</v>
       </c>
@@ -6159,12 +6239,12 @@
       <c r="W49" s="21"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="21"/>
-      <c r="Z49" s="67"/>
-      <c r="AA49" s="62" t="s">
+      <c r="Z49" s="64"/>
+      <c r="AA49" s="59" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="79" customFormat="1">
+    <row r="50" spans="1:27" s="75" customFormat="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
@@ -6185,29 +6265,29 @@
       <c r="J50" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K50" s="50" t="s">
+      <c r="K50" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="L50" s="50"/>
+      <c r="L50" s="47"/>
       <c r="M50" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N50" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
       <c r="R50" s="1"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="31"/>
-      <c r="W50" s="31"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
       <c r="X50" s="1"/>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="66"/>
-      <c r="AA50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="63"/>
+      <c r="AA50" s="27"/>
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="13"/>
@@ -6227,32 +6307,32 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="81" t="s">
+      <c r="J51" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="K51" s="50" t="s">
+      <c r="K51" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="L51" s="50"/>
+      <c r="L51" s="47"/>
       <c r="M51" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N51" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
       <c r="R51" s="1"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="31"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
       <c r="X51" s="1"/>
-      <c r="Y51" s="31"/>
-      <c r="Z51" s="66"/>
-      <c r="AA51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="63"/>
+      <c r="AA51" s="27"/>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="1"/>
@@ -6275,31 +6355,31 @@
       <c r="J52" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K52" s="86" t="s">
+      <c r="K52" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="L52" s="86"/>
+      <c r="L52" s="82"/>
       <c r="M52" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
       <c r="R52" s="1"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="31"/>
-      <c r="W52" s="31"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
       <c r="X52" s="1"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="66"/>
-      <c r="AA52" s="29"/>
-    </row>
-    <row r="53" spans="1:27" s="79" customFormat="1">
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="63"/>
+      <c r="AA52" s="27"/>
+    </row>
+    <row r="53" spans="1:27" s="75" customFormat="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
@@ -6320,29 +6400,29 @@
       <c r="J53" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K53" s="50" t="s">
+      <c r="K53" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="L53" s="50"/>
+      <c r="L53" s="47"/>
       <c r="M53" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N53" s="89" t="s">
+      <c r="N53" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
       <c r="R53" s="1"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="89"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="31"/>
-      <c r="W53" s="31"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
       <c r="X53" s="1"/>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="66"/>
-      <c r="AA53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="63"/>
+      <c r="AA53" s="27"/>
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="1"/>
@@ -6365,29 +6445,29 @@
       <c r="J54" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="K54" s="50" t="s">
+      <c r="K54" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="L54" s="50"/>
+      <c r="L54" s="47"/>
       <c r="M54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N54" s="89" t="s">
+      <c r="N54" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
       <c r="R54" s="1"/>
       <c r="S54" s="3"/>
-      <c r="T54" s="89"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="31"/>
-      <c r="W54" s="31"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
       <c r="X54" s="1"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="66"/>
-      <c r="AA54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="63"/>
+      <c r="AA54" s="27"/>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="1"/>
@@ -6410,29 +6490,29 @@
       <c r="J55" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="K55" s="50" t="s">
+      <c r="K55" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="L55" s="50"/>
+      <c r="L55" s="47"/>
       <c r="M55" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N55" s="89" t="s">
+      <c r="N55" s="85" t="s">
         <v>156</v>
       </c>
       <c r="O55" s="1"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
       <c r="R55" s="1"/>
       <c r="S55" s="3"/>
-      <c r="T55" s="89"/>
+      <c r="T55" s="85"/>
       <c r="U55" s="1"/>
-      <c r="V55" s="31"/>
-      <c r="W55" s="31"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
       <c r="X55" s="1"/>
-      <c r="Y55" s="31"/>
-      <c r="Z55" s="66"/>
-      <c r="AA55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="27"/>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="17"/>
@@ -6457,10 +6537,10 @@
       <c r="J56" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="K56" s="53" t="s">
+      <c r="K56" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="L56" s="53"/>
+      <c r="L56" s="50"/>
       <c r="M56" s="19" t="s">
         <v>92</v>
       </c>
@@ -6478,8 +6558,8 @@
       <c r="W56" s="22"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="22"/>
-      <c r="Z56" s="74"/>
-      <c r="AA56" s="29"/>
+      <c r="Z56" s="71"/>
+      <c r="AA56" s="27"/>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="17"/>
@@ -6504,10 +6584,10 @@
       <c r="J57" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="K57" s="53" t="s">
+      <c r="K57" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="L57" s="53"/>
+      <c r="L57" s="50"/>
       <c r="M57" s="19" t="s">
         <v>92</v>
       </c>
@@ -6525,8 +6605,8 @@
       <c r="W57" s="22"/>
       <c r="X57" s="17"/>
       <c r="Y57" s="22"/>
-      <c r="Z57" s="74"/>
-      <c r="AA57" s="29"/>
+      <c r="Z57" s="71"/>
+      <c r="AA57" s="27"/>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="17"/>
@@ -6549,10 +6629,10 @@
       <c r="J58" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="K58" s="54" t="s">
+      <c r="K58" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="L58" s="54"/>
+      <c r="L58" s="51"/>
       <c r="M58" s="19" t="s">
         <v>92</v>
       </c>
@@ -6570,11 +6650,13 @@
       <c r="W58" s="22"/>
       <c r="X58" s="17"/>
       <c r="Y58" s="22"/>
-      <c r="Z58" s="74"/>
-      <c r="AA58" s="29"/>
+      <c r="Z58" s="71"/>
+      <c r="AA58" s="27"/>
     </row>
     <row r="59" spans="1:27">
-      <c r="A59" s="5"/>
+      <c r="A59" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
         <v>306</v>
@@ -6594,10 +6676,10 @@
       <c r="J59" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="K59" s="84" t="s">
+      <c r="K59" s="80" t="s">
         <v>309</v>
       </c>
-      <c r="L59" s="84"/>
+      <c r="L59" s="80"/>
       <c r="M59" s="4" t="s">
         <v>92</v>
       </c>
@@ -6615,8 +6697,8 @@
       <c r="W59" s="21"/>
       <c r="X59" s="5"/>
       <c r="Y59" s="21"/>
-      <c r="Z59" s="67"/>
-      <c r="AA59" s="62" t="s">
+      <c r="Z59" s="64"/>
+      <c r="AA59" s="59" t="s">
         <v>355</v>
       </c>
     </row>
@@ -6641,10 +6723,10 @@
       <c r="J60" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="K60" s="53" t="s">
+      <c r="K60" s="50" t="s">
         <v>312</v>
       </c>
-      <c r="L60" s="53"/>
+      <c r="L60" s="50"/>
       <c r="M60" s="19" t="s">
         <v>92</v>
       </c>
@@ -6662,8 +6744,8 @@
       <c r="W60" s="22"/>
       <c r="X60" s="17"/>
       <c r="Y60" s="22"/>
-      <c r="Z60" s="74"/>
-      <c r="AA60" s="29"/>
+      <c r="Z60" s="71"/>
+      <c r="AA60" s="27"/>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="17"/>
@@ -6686,10 +6768,10 @@
       <c r="J61" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="K61" s="53" t="s">
+      <c r="K61" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="L61" s="53"/>
+      <c r="L61" s="50"/>
       <c r="M61" s="19" t="s">
         <v>92</v>
       </c>
@@ -6707,8 +6789,8 @@
       <c r="W61" s="22"/>
       <c r="X61" s="17"/>
       <c r="Y61" s="22"/>
-      <c r="Z61" s="74"/>
-      <c r="AA61" s="29"/>
+      <c r="Z61" s="71"/>
+      <c r="AA61" s="27"/>
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="17"/>
@@ -6731,10 +6813,10 @@
       <c r="J62" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="K62" s="53" t="s">
+      <c r="K62" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="L62" s="53"/>
+      <c r="L62" s="50"/>
       <c r="M62" s="19" t="s">
         <v>92</v>
       </c>
@@ -6752,11 +6834,13 @@
       <c r="W62" s="22"/>
       <c r="X62" s="17"/>
       <c r="Y62" s="22"/>
-      <c r="Z62" s="74"/>
-      <c r="AA62" s="29"/>
+      <c r="Z62" s="71"/>
+      <c r="AA62" s="27"/>
     </row>
     <row r="63" spans="1:27">
-      <c r="A63" s="5"/>
+      <c r="A63" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
         <v>435</v>
@@ -6776,10 +6860,10 @@
       <c r="J63" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="K63" s="47" t="s">
+      <c r="K63" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="L63" s="47"/>
+      <c r="L63" s="45"/>
       <c r="M63" s="4" t="s">
         <v>92</v>
       </c>
@@ -6795,11 +6879,13 @@
       <c r="W63" s="21"/>
       <c r="X63" s="5"/>
       <c r="Y63" s="21"/>
-      <c r="Z63" s="67"/>
-      <c r="AA63" s="62"/>
+      <c r="Z63" s="64"/>
+      <c r="AA63" s="59"/>
     </row>
     <row r="64" spans="1:27">
-      <c r="A64" s="5"/>
+      <c r="A64" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
         <v>442</v>
@@ -6819,10 +6905,10 @@
       <c r="J64" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="K64" s="47" t="s">
+      <c r="K64" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="L64" s="47"/>
+      <c r="L64" s="45"/>
       <c r="M64" s="4" t="s">
         <v>92</v>
       </c>
@@ -6838,54 +6924,58 @@
       <c r="W64" s="21"/>
       <c r="X64" s="5"/>
       <c r="Y64" s="21"/>
-      <c r="Z64" s="67"/>
-      <c r="AA64" s="62"/>
+      <c r="Z64" s="64"/>
+      <c r="AA64" s="59"/>
     </row>
     <row r="65" spans="1:27">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17" t="s">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30" t="s">
         <v>443</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="18" t="s">
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="K65" s="53" t="s">
+      <c r="K65" s="49" t="s">
         <v>444</v>
       </c>
-      <c r="L65" s="53"/>
-      <c r="M65" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="22"/>
-      <c r="W65" s="22"/>
-      <c r="X65" s="17"/>
-      <c r="Y65" s="22"/>
-      <c r="Z65" s="74"/>
-      <c r="AA65" s="29"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N65" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O65" s="32"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="69"/>
+      <c r="AA65" s="99"/>
     </row>
     <row r="66" spans="1:27">
-      <c r="A66" s="5"/>
+      <c r="A66" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
         <v>448</v>
@@ -6905,10 +6995,10 @@
       <c r="J66" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="K66" s="47" t="s">
+      <c r="K66" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="L66" s="47"/>
+      <c r="L66" s="45"/>
       <c r="M66" s="4" t="s">
         <v>92</v>
       </c>
@@ -6924,512 +7014,528 @@
       <c r="W66" s="21"/>
       <c r="X66" s="5"/>
       <c r="Y66" s="22"/>
-      <c r="Z66" s="74"/>
-      <c r="AA66" s="29"/>
-    </row>
-    <row r="67" spans="1:27" s="103" customFormat="1">
-      <c r="A67" s="25" t="s">
+      <c r="Z66" s="71"/>
+      <c r="AA66" s="27"/>
+    </row>
+    <row r="67" spans="1:27" s="97" customFormat="1">
+      <c r="A67" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="34" t="s">
         <v>454</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="34" t="s">
         <v>456</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="F67" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="G67" s="25" t="s">
+      <c r="G67" s="34" t="s">
         <v>465</v>
       </c>
-      <c r="H67" s="25" t="s">
+      <c r="H67" s="34" t="s">
         <v>464</v>
       </c>
-      <c r="I67" s="25" t="s">
+      <c r="I67" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="J67" s="26" t="s">
+      <c r="J67" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="K67" s="49" t="s">
+      <c r="K67" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="L67" s="49"/>
-      <c r="M67" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="N67" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O67" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P67" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="25" t="s">
+      <c r="L67" s="46"/>
+      <c r="M67" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N67" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O67" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P67" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q67" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="R67" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="S67" s="27"/>
-      <c r="T67" s="27"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="28"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="25"/>
-      <c r="Y67" s="28"/>
-      <c r="Z67" s="73"/>
-      <c r="AA67" s="106"/>
-    </row>
-    <row r="68" spans="1:27" s="103" customFormat="1">
-      <c r="A68" s="32" t="s">
+      <c r="S67" s="36"/>
+      <c r="T67" s="36"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="65"/>
+      <c r="AA67" s="105"/>
+    </row>
+    <row r="68" spans="1:27" s="97" customFormat="1">
+      <c r="A68" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D68" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="30" t="s">
         <v>473</v>
       </c>
-      <c r="F68" s="32" t="s">
+      <c r="F68" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="33" t="s">
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="K68" s="52" t="s">
+      <c r="K68" s="49" t="s">
         <v>471</v>
       </c>
-      <c r="L68" s="52"/>
-      <c r="M68" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="N68" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="34"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="32"/>
-      <c r="Y68" s="35"/>
-      <c r="Z68" s="72"/>
-      <c r="AA68" s="105"/>
-    </row>
-    <row r="69" spans="1:27" s="103" customFormat="1">
-      <c r="A69" s="32" t="s">
+      <c r="L68" s="49"/>
+      <c r="M68" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N68" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="32"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="33"/>
+      <c r="X68" s="30"/>
+      <c r="Y68" s="33"/>
+      <c r="Z68" s="69"/>
+      <c r="AA68" s="99"/>
+    </row>
+    <row r="69" spans="1:27" s="97" customFormat="1">
+      <c r="A69" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="30" t="s">
         <v>477</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E69" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="F69" s="32" t="s">
+      <c r="F69" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="33" t="s">
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="K69" s="52" t="s">
+      <c r="K69" s="49" t="s">
         <v>469</v>
       </c>
-      <c r="L69" s="52"/>
-      <c r="M69" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="N69" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="32"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="72"/>
-      <c r="AA69" s="105"/>
-    </row>
-    <row r="70" spans="1:27" s="103" customFormat="1">
-      <c r="A70" s="32" t="s">
+      <c r="L69" s="49"/>
+      <c r="M69" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N69" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O69" s="32"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="30"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="32"/>
+      <c r="U69" s="32"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="30"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="69"/>
+      <c r="AA69" s="99"/>
+    </row>
+    <row r="70" spans="1:27" s="97" customFormat="1">
+      <c r="A70" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D70" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="E70" s="32" t="s">
+      <c r="E70" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="F70" s="32" t="s">
+      <c r="F70" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="33" t="s">
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="31" t="s">
         <v>460</v>
       </c>
-      <c r="K70" s="52" t="s">
+      <c r="K70" s="49" t="s">
         <v>461</v>
       </c>
-      <c r="L70" s="52"/>
-      <c r="M70" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="N70" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="O70" s="34"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="34"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="32"/>
-      <c r="Y70" s="35"/>
-      <c r="Z70" s="72"/>
-      <c r="AA70" s="105"/>
-    </row>
-    <row r="71" spans="1:27" s="79" customFormat="1">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
+      <c r="L70" s="49"/>
+      <c r="M70" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N70" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O70" s="32"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="32"/>
+      <c r="U70" s="32"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="30"/>
+      <c r="Y70" s="33"/>
+      <c r="Z70" s="69"/>
+      <c r="AA70" s="99"/>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="A71" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="E71" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="K71" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="L71" s="50"/>
-      <c r="M71" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N71" s="89"/>
-      <c r="O71" s="31"/>
-      <c r="P71" s="31"/>
-      <c r="Q71" s="31"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="89"/>
-      <c r="U71" s="31"/>
-      <c r="V71" s="31"/>
-      <c r="W71" s="31"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="31"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="29"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="K71" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="L71" s="45"/>
+      <c r="M71" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="64"/>
+      <c r="AA71" s="59" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="72" spans="1:27">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="A72" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="K72" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="L72" s="50"/>
-      <c r="M72" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N72" s="89"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="31"/>
-      <c r="Q72" s="31"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="89"/>
-      <c r="U72" s="31"/>
-      <c r="V72" s="31"/>
-      <c r="W72" s="31"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="31"/>
-      <c r="Z72" s="66"/>
-      <c r="AA72" s="29"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="K72" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="L72" s="79"/>
+      <c r="M72" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="64"/>
+      <c r="AA72" s="59" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="73" spans="1:27">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="K73" s="50" t="s">
-        <v>444</v>
-      </c>
-      <c r="L73" s="50"/>
-      <c r="M73" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N73" s="89"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="31"/>
-      <c r="Q73" s="31"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="89"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="31"/>
-      <c r="W73" s="31"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="31"/>
-      <c r="Z73" s="66"/>
-      <c r="AA73" s="29"/>
+      <c r="A73" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="K73" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="L73" s="45"/>
+      <c r="M73" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="64"/>
+      <c r="AA73" s="59" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="74" spans="1:27">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="K74" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="L74" s="53"/>
-      <c r="M74" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="19"/>
-      <c r="U74" s="19"/>
-      <c r="V74" s="22"/>
-      <c r="W74" s="22"/>
-      <c r="X74" s="17"/>
-      <c r="Y74" s="22"/>
-      <c r="Z74" s="74"/>
-      <c r="AA74" s="29"/>
+      <c r="A74" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="K74" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="L74" s="79"/>
+      <c r="M74" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="64"/>
+      <c r="AA74" s="59" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="75" spans="1:27">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="F75" s="17" t="s">
+      <c r="A75" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="104" t="s">
+        <v>499</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="K75" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="L75" s="53"/>
-      <c r="M75" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="22"/>
-      <c r="W75" s="22"/>
-      <c r="X75" s="17"/>
-      <c r="Y75" s="22"/>
-      <c r="Z75" s="74"/>
-      <c r="AA75" s="29"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="K75" s="45"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="64"/>
+      <c r="AA75" s="59" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="76" spans="1:27">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="F76" s="17" t="s">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="F76" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="K76" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="L76" s="54"/>
-      <c r="M76" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="19"/>
-      <c r="T76" s="19"/>
-      <c r="U76" s="19"/>
-      <c r="V76" s="22"/>
-      <c r="W76" s="22"/>
-      <c r="X76" s="17"/>
-      <c r="Y76" s="22"/>
-      <c r="Z76" s="74"/>
-      <c r="AA76" s="29"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="K76" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="L76" s="102"/>
+      <c r="M76" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N76" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O76" s="32"/>
+      <c r="P76" s="33"/>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="32"/>
+      <c r="T76" s="32"/>
+      <c r="U76" s="32"/>
+      <c r="V76" s="33"/>
+      <c r="W76" s="33"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="33"/>
+      <c r="Z76" s="69"/>
+      <c r="AA76" s="99"/>
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="17"/>
-      <c r="B77" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>493</v>
+      <c r="B77" s="17"/>
+      <c r="C77" s="98" t="s">
+        <v>506</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>150</v>
+        <v>510</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="K77" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="L77" s="53"/>
+        <v>512</v>
+      </c>
+      <c r="K77" s="98" t="s">
+        <v>513</v>
+      </c>
+      <c r="L77" s="50"/>
       <c r="M77" s="19" t="s">
         <v>92</v>
       </c>
@@ -7445,169 +7551,177 @@
       <c r="W77" s="22"/>
       <c r="X77" s="17"/>
       <c r="Y77" s="22"/>
-      <c r="Z77" s="74"/>
-      <c r="AA77" s="29"/>
+      <c r="Z77" s="71"/>
+      <c r="AA77" s="27"/>
     </row>
     <row r="78" spans="1:27">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="F78" s="17" t="s">
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="K78" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="L78" s="102"/>
+      <c r="M78" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N78" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O78" s="32"/>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="33"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="32"/>
+      <c r="T78" s="32"/>
+      <c r="U78" s="32"/>
+      <c r="V78" s="33"/>
+      <c r="W78" s="33"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="69"/>
+      <c r="AA78" s="99"/>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="103" t="s">
+        <v>508</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="F79" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="K78" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="L78" s="54"/>
-      <c r="M78" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="19"/>
-      <c r="T78" s="19"/>
-      <c r="U78" s="19"/>
-      <c r="V78" s="22"/>
-      <c r="W78" s="22"/>
-      <c r="X78" s="17"/>
-      <c r="Y78" s="22"/>
-      <c r="Z78" s="74"/>
-      <c r="AA78" s="29"/>
-    </row>
-    <row r="79" spans="1:27">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="104" t="s">
-        <v>504</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="22"/>
-      <c r="W79" s="22"/>
-      <c r="X79" s="17"/>
-      <c r="Y79" s="22"/>
-      <c r="Z79" s="74"/>
-      <c r="AA79" s="29"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="K79" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="L79" s="49"/>
+      <c r="M79" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N79" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O79" s="32"/>
+      <c r="P79" s="33"/>
+      <c r="Q79" s="33"/>
+      <c r="R79" s="30"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="32"/>
+      <c r="U79" s="32"/>
+      <c r="V79" s="33"/>
+      <c r="W79" s="33"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="33"/>
+      <c r="Z79" s="69"/>
+      <c r="AA79" s="99"/>
     </row>
     <row r="80" spans="1:27">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="K80" s="107" t="s">
-        <v>72</v>
-      </c>
-      <c r="L80" s="107"/>
-      <c r="M80" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="19"/>
-      <c r="T80" s="19"/>
-      <c r="U80" s="19"/>
-      <c r="V80" s="22"/>
-      <c r="W80" s="22"/>
-      <c r="X80" s="17"/>
-      <c r="Y80" s="22"/>
-      <c r="Z80" s="74"/>
-      <c r="AA80" s="29"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="106" t="s">
+        <v>525</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="K80" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="L80" s="45"/>
+      <c r="M80" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O80" s="4"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="21"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="21"/>
+      <c r="Z80" s="64"/>
+      <c r="AA80" s="59" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="81" spans="1:27">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="54"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="54"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="54"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="57"/>
-      <c r="Q81" s="57"/>
-      <c r="R81" s="54"/>
-      <c r="S81" s="56"/>
-      <c r="T81" s="56"/>
-      <c r="U81" s="56"/>
-      <c r="V81" s="57"/>
-      <c r="W81" s="57"/>
-      <c r="X81" s="58"/>
-      <c r="Y81" s="57"/>
-      <c r="Z81" s="75"/>
-      <c r="AA81" s="58"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="52"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="53"/>
+      <c r="N81" s="53"/>
+      <c r="O81" s="53"/>
+      <c r="P81" s="54"/>
+      <c r="Q81" s="54"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="53"/>
+      <c r="T81" s="53"/>
+      <c r="U81" s="53"/>
+      <c r="V81" s="54"/>
+      <c r="W81" s="54"/>
+      <c r="X81" s="55"/>
+      <c r="Y81" s="54"/>
+      <c r="Z81" s="72"/>
+      <c r="AA81" s="55"/>
     </row>
     <row r="82" spans="1:27">
-      <c r="C82" s="36"/>
+      <c r="C82" s="34"/>
       <c r="D82" s="1" t="s">
         <v>328</v>
       </c>
@@ -7619,14 +7733,14 @@
       </c>
     </row>
     <row r="84" spans="1:27">
-      <c r="C84" s="40"/>
+      <c r="C84" s="38"/>
       <c r="D84" s="1" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:27" ht="38">
       <c r="C85" s="1"/>
-      <c r="D85" s="77" t="s">
+      <c r="D85" s="73" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7637,7 +7751,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA81" xr:uid="{CA3BC04F-46B4-4466-B01B-96C81447CDE9}"/>
+  <autoFilter ref="K2:K76" xr:uid="{70DB2EF8-F46F-4B43-BBBF-3458F56CBBBA}"/>
   <mergeCells count="2">
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="S1:W1"/>
@@ -7725,16 +7839,16 @@
     <hyperlink ref="J70" r:id="rId79" xr:uid="{6F77134B-0734-F94F-BB0F-C3E0E4751343}"/>
     <hyperlink ref="J68" r:id="rId80" xr:uid="{0618A9E9-1C3C-3E4B-89E5-6F1E20B95EFF}"/>
     <hyperlink ref="J69" r:id="rId81" xr:uid="{CB839433-465C-C847-9413-808AC6A869D0}"/>
-    <hyperlink ref="J71" r:id="rId82" xr:uid="{A9610197-64E8-CF47-85C8-2EDBBF15AC7A}"/>
-    <hyperlink ref="J72" r:id="rId83" xr:uid="{F35E0A0A-C239-9D4D-9B82-B9F710E34B17}"/>
-    <hyperlink ref="J73" r:id="rId84" xr:uid="{5C1F5E1F-E991-454C-A6BA-56C474401570}"/>
-    <hyperlink ref="J74" r:id="rId85" xr:uid="{8F0B272D-4F06-5A47-AF9E-31FC53337014}"/>
-    <hyperlink ref="J75" r:id="rId86" xr:uid="{217127A3-0017-4147-93EA-38C1A814AC2F}"/>
-    <hyperlink ref="J76" r:id="rId87" xr:uid="{ACCFF662-4261-AD47-9927-EDC15220E02B}"/>
-    <hyperlink ref="J77" r:id="rId88" xr:uid="{E9A12F80-FB1A-D043-9CDA-42D1E0E45E12}"/>
-    <hyperlink ref="J78" r:id="rId89" xr:uid="{0EAAA93B-5FD5-324D-BFA3-5D5A69195A2C}"/>
-    <hyperlink ref="J79" r:id="rId90" xr:uid="{D649A09B-D9B8-4F48-8FF3-5D003E2DBB79}"/>
-    <hyperlink ref="J80" r:id="rId91" xr:uid="{9D36EEF1-6A87-804B-8DBD-C763ADBD51C8}"/>
+    <hyperlink ref="J71" r:id="rId82" xr:uid="{217127A3-0017-4147-93EA-38C1A814AC2F}"/>
+    <hyperlink ref="J72" r:id="rId83" xr:uid="{ACCFF662-4261-AD47-9927-EDC15220E02B}"/>
+    <hyperlink ref="J73" r:id="rId84" xr:uid="{E9A12F80-FB1A-D043-9CDA-42D1E0E45E12}"/>
+    <hyperlink ref="J74" r:id="rId85" xr:uid="{0EAAA93B-5FD5-324D-BFA3-5D5A69195A2C}"/>
+    <hyperlink ref="J75" r:id="rId86" xr:uid="{D649A09B-D9B8-4F48-8FF3-5D003E2DBB79}"/>
+    <hyperlink ref="J76" r:id="rId87" xr:uid="{9D36EEF1-6A87-804B-8DBD-C763ADBD51C8}"/>
+    <hyperlink ref="J77" r:id="rId88" xr:uid="{D7BE9B8D-FA66-3441-8BDB-2011BE386E48}"/>
+    <hyperlink ref="J78" r:id="rId89" xr:uid="{A3A923E4-1BCD-2F40-A42A-7EAECFA458F5}"/>
+    <hyperlink ref="J79" r:id="rId90" xr:uid="{A5FC35AB-5C08-2341-85C5-F9A63D7C9C13}"/>
+    <hyperlink ref="J80" r:id="rId91" xr:uid="{69B21F1C-A9E9-0B49-A339-BE869AE0DFBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>

--- a/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
+++ b/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/flyhawk/フライテック個人事業主/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C22FD37-F81E-FB41-A2E0-0D08C86F76C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457E6659-0370-3E4C-9E8E-B46DECC1E208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$2:$K$76</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="548">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -2443,6 +2442,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>松下幸平</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2653,6 +2656,77 @@
     <rPh sb="0" eb="1">
       <t>ナイt</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小松義幸</t>
+    <rPh sb="0" eb="2">
+      <t>コマt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大橋誠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08031291770</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19860411</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C#.net／オリンピック来場者情報管理システム開発</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ohashi@smile-again.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄</t>
+    <rPh sb="0" eb="1">
+      <t>サk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>越後線 小針駅</t>
+    <rPh sb="0" eb="2">
+      <t>コバt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イニシャル変更後職務経歴書/業務経歴書_I.xls</t>
+  </si>
+  <si>
+    <t>イニシャル変更後職務経歴書/職務経歴書_KY.xlsx</t>
+  </si>
+  <si>
+    <t>45万円～55万円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都内・埼玉県</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＶＢＡ，．ＮＥＴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(65万円〜70万円）税別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名古屋市内</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2900,7 +2974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3086,9 +3160,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3096,6 +3167,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3377,13 +3452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA86"/>
+  <dimension ref="A1:AA88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="18" ySplit="2" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="2" topLeftCell="X69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -3412,20 +3487,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="M1" s="101" t="s">
+      <c r="M1" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="S1" s="101" t="s">
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="S1" s="107" t="s">
         <v>373</v>
       </c>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
       <c r="Y1" s="24"/>
     </row>
     <row r="2" spans="1:27">
@@ -7078,7 +7153,7 @@
       <c r="X67" s="34"/>
       <c r="Y67" s="37"/>
       <c r="Z67" s="65"/>
-      <c r="AA67" s="105"/>
+      <c r="AA67" s="104"/>
     </row>
     <row r="68" spans="1:27" s="97" customFormat="1">
       <c r="A68" s="30" t="s">
@@ -7232,16 +7307,16 @@
         <v>424</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="D71" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>483</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>482</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>150</v>
@@ -7250,7 +7325,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K71" s="45" t="s">
         <v>177</v>
@@ -7273,7 +7348,7 @@
       <c r="Y71" s="21"/>
       <c r="Z71" s="64"/>
       <c r="AA71" s="59" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="1:27">
@@ -7282,13 +7357,13 @@
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D72" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>150</v>
@@ -7297,7 +7372,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K72" s="79" t="s">
         <v>53</v>
@@ -7320,7 +7395,7 @@
       <c r="Y72" s="21"/>
       <c r="Z72" s="64"/>
       <c r="AA72" s="59" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="73" spans="1:27">
@@ -7328,16 +7403,16 @@
         <v>424</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>488</v>
-      </c>
       <c r="D73" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>150</v>
@@ -7346,7 +7421,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K73" s="45" t="s">
         <v>177</v>
@@ -7369,7 +7444,7 @@
       <c r="Y73" s="21"/>
       <c r="Z73" s="64"/>
       <c r="AA73" s="59" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -7377,16 +7452,16 @@
         <v>424</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="D74" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>150</v>
@@ -7395,7 +7470,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K74" s="79" t="s">
         <v>192</v>
@@ -7418,7 +7493,7 @@
       <c r="Y74" s="21"/>
       <c r="Z74" s="64"/>
       <c r="AA74" s="59" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="75" spans="1:27">
@@ -7426,14 +7501,14 @@
         <v>424</v>
       </c>
       <c r="B75" s="5"/>
-      <c r="C75" s="104" t="s">
-        <v>499</v>
+      <c r="C75" s="103" t="s">
+        <v>500</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>150</v>
@@ -7442,7 +7517,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K75" s="45"/>
       <c r="L75" s="45"/>
@@ -7463,20 +7538,20 @@
       <c r="Y75" s="21"/>
       <c r="Z75" s="64"/>
       <c r="AA75" s="59" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D76" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="E76" s="30" t="s">
         <v>505</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>504</v>
       </c>
       <c r="F76" s="30" t="s">
         <v>150</v>
@@ -7485,12 +7560,12 @@
       <c r="H76" s="30"/>
       <c r="I76" s="30"/>
       <c r="J76" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="K76" s="102" t="s">
+        <v>504</v>
+      </c>
+      <c r="K76" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="L76" s="102"/>
+      <c r="L76" s="101"/>
       <c r="M76" s="32" t="s">
         <v>92</v>
       </c>
@@ -7515,25 +7590,25 @@
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="98" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E77" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="F77" s="17" t="s">
         <v>511</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>510</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K77" s="98" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L77" s="50"/>
       <c r="M77" s="19" t="s">
@@ -7558,27 +7633,27 @@
       <c r="A78" s="30"/>
       <c r="B78" s="30"/>
       <c r="C78" s="30" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D78" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="E78" s="30" t="s">
         <v>517</v>
       </c>
-      <c r="E78" s="30" t="s">
+      <c r="F78" s="30" t="s">
         <v>516</v>
-      </c>
-      <c r="F78" s="30" t="s">
-        <v>515</v>
       </c>
       <c r="G78" s="30"/>
       <c r="H78" s="30"/>
       <c r="I78" s="30"/>
       <c r="J78" s="31" t="s">
-        <v>514</v>
-      </c>
-      <c r="K78" s="102" t="s">
+        <v>515</v>
+      </c>
+      <c r="K78" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="L78" s="102"/>
+      <c r="L78" s="101"/>
       <c r="M78" s="32" t="s">
         <v>92</v>
       </c>
@@ -7602,14 +7677,14 @@
     <row r="79" spans="1:27">
       <c r="A79" s="30"/>
       <c r="B79" s="30"/>
-      <c r="C79" s="103" t="s">
-        <v>508</v>
+      <c r="C79" s="102" t="s">
+        <v>509</v>
       </c>
       <c r="D79" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="E79" s="30" t="s">
         <v>520</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>519</v>
       </c>
       <c r="F79" s="30" t="s">
         <v>150</v>
@@ -7618,7 +7693,7 @@
       <c r="H79" s="30"/>
       <c r="I79" s="30"/>
       <c r="J79" s="31" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K79" s="49" t="s">
         <v>72</v>
@@ -7647,26 +7722,26 @@
     <row r="80" spans="1:27">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
-      <c r="C80" s="106" t="s">
-        <v>525</v>
+      <c r="C80" s="105" t="s">
+        <v>526</v>
       </c>
       <c r="D80" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>526</v>
-      </c>
       <c r="F80" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="K80" s="45" t="s">
         <v>529</v>
-      </c>
-      <c r="K80" s="45" t="s">
-        <v>528</v>
       </c>
       <c r="L80" s="45"/>
       <c r="M80" s="4" t="s">
@@ -7688,65 +7763,181 @@
       <c r="Y80" s="21"/>
       <c r="Z80" s="64"/>
       <c r="AA80" s="59" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81" spans="1:27">
-      <c r="A81" s="51"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="52"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="53"/>
-      <c r="N81" s="53"/>
-      <c r="O81" s="53"/>
-      <c r="P81" s="54"/>
-      <c r="Q81" s="54"/>
-      <c r="R81" s="51"/>
-      <c r="S81" s="53"/>
-      <c r="T81" s="53"/>
-      <c r="U81" s="53"/>
-      <c r="V81" s="54"/>
-      <c r="W81" s="54"/>
-      <c r="X81" s="55"/>
-      <c r="Y81" s="54"/>
-      <c r="Z81" s="72"/>
-      <c r="AA81" s="55"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="H81" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="I81" s="30"/>
+      <c r="J81" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="K81" s="101" t="s">
+        <v>537</v>
+      </c>
+      <c r="L81" s="101"/>
+      <c r="M81" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N81" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O81" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="33"/>
+      <c r="R81" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="S81" s="32"/>
+      <c r="T81" s="32"/>
+      <c r="U81" s="32"/>
+      <c r="V81" s="33"/>
+      <c r="W81" s="33"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="33"/>
+      <c r="Z81" s="106" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA81" s="99"/>
     </row>
     <row r="82" spans="1:27">
-      <c r="C82" s="34"/>
-      <c r="D82" s="1" t="s">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="C82" s="102" t="s">
+        <v>532</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="I82" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="J82" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="K82" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="L82" s="49"/>
+      <c r="M82" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N82" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O82" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="33"/>
+      <c r="R82" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="S82" s="32"/>
+      <c r="T82" s="32"/>
+      <c r="U82" s="32"/>
+      <c r="V82" s="33"/>
+      <c r="W82" s="33"/>
+      <c r="X82" s="30"/>
+      <c r="Y82" s="33"/>
+      <c r="Z82" s="106" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA82" s="99"/>
+    </row>
+    <row r="83" spans="1:27">
+      <c r="A83" s="51"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="52"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="51"/>
+      <c r="M83" s="53"/>
+      <c r="N83" s="53"/>
+      <c r="O83" s="53"/>
+      <c r="P83" s="54"/>
+      <c r="Q83" s="54"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="53"/>
+      <c r="T83" s="53"/>
+      <c r="U83" s="53"/>
+      <c r="V83" s="54"/>
+      <c r="W83" s="54"/>
+      <c r="X83" s="55"/>
+      <c r="Y83" s="54"/>
+      <c r="Z83" s="72"/>
+      <c r="AA83" s="55"/>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="C84" s="34"/>
+      <c r="D84" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
-      <c r="C83" s="25"/>
-      <c r="D83" s="1" t="s">
+    <row r="85" spans="1:27">
+      <c r="C85" s="25"/>
+      <c r="D85" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
-      <c r="C84" s="38"/>
-      <c r="D84" s="1" t="s">
+    <row r="86" spans="1:27">
+      <c r="C86" s="38"/>
+      <c r="D86" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="38">
-      <c r="C85" s="1"/>
-      <c r="D85" s="73" t="s">
+    <row r="87" spans="1:27" ht="38">
+      <c r="C87" s="1"/>
+      <c r="D87" s="73" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
-      <c r="C86" s="5"/>
-      <c r="D86" s="1" t="s">
+    <row r="88" spans="1:27">
+      <c r="C88" s="5"/>
+      <c r="D88" s="1" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7849,8 +8040,12 @@
     <hyperlink ref="J78" r:id="rId89" xr:uid="{A3A923E4-1BCD-2F40-A42A-7EAECFA458F5}"/>
     <hyperlink ref="J79" r:id="rId90" xr:uid="{A5FC35AB-5C08-2341-85C5-F9A63D7C9C13}"/>
     <hyperlink ref="J80" r:id="rId91" xr:uid="{69B21F1C-A9E9-0B49-A339-BE869AE0DFBD}"/>
+    <hyperlink ref="J81" r:id="rId92" xr:uid="{D3B1A852-6A0D-EC49-9921-FE19D4462160}"/>
+    <hyperlink ref="J82" r:id="rId93" xr:uid="{50345870-8DDA-3448-A2EB-A580E7954566}"/>
+    <hyperlink ref="Z81" r:id="rId94" xr:uid="{914959AB-6979-0A4D-80B3-901C534AF369}"/>
+    <hyperlink ref="Z82" r:id="rId95" xr:uid="{6B251339-D0F2-F541-A0EE-85BE14AB978C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>
--- a/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
+++ b/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/flyhawk/フライテック個人事業主/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457E6659-0370-3E4C-9E8E-B46DECC1E208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33147EB-E96A-F647-9A4C-FF205EE60431}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="638">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -2557,10 +2557,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小松義幸</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>きょうとう</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2727,6 +2723,379 @@
   </si>
   <si>
     <t>名古屋市内</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リュウシイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木栄二</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桑原宏明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤吉博</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イェリンナイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤川聡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森邦彦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安田良介</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曹鋭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60万円～65万円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPG、COBOL、PL1（経験なしでもよろしければ Java,C#等オープン系も喜んでお引き受けいたします）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fjfjfji-gj@yahoo.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＪＲ総武線、ＪＲ京葉線、東京メトロ 西船橋駅)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京メトロ東西線沿線、総武緩行線沿線の駅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19681026</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09012068727</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★★</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PHP／某自治体観光局向けWebサイト構築</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fujikawa@tata-ya.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08061641181</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19810619</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60万円〜（税別）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルリモートでお願いいたします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHP、jQuery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四つ橋線 本町駅（大阪）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50万円〜 (時給5000円〜)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルリモート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHP, MySQL, JavaScript, Jquery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖縄都市モノレール首里駅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09068568025</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19770124</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>来月</t>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験なし</t>
+    <rPh sb="0" eb="2">
+      <t>ケイケn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>45 万円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在宅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常磐線 常陸多賀駅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crwork2021@outlook.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python／検索システムのフロントエンド開発のエンジニア求人・案件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07015333109</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19900620</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まだ未定</t>
+    <rPh sb="0" eb="2">
+      <t>マダミテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML5,CSS3／某自治体観光局向けWebサイトコーディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30万円～35万円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京駅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java、PHP、Python、Swift iOS、ReactJs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mryae.1992@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【海外向けサービスにおけるアプリエンジニア（Swift/Kotlin）】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07044053683</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19920605</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレスタサザン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python／【PHP】販売ポータルサイト機能開発検索システムのフロントエンド開発のエンジニア求人・案件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09062453193</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19900515</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sajan.stha1437@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社のため</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ashmay645@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【新規開発ゲーム】日中ローカライズ／進行管理</t>
+  </si>
+  <si>
+    <t>07015491213</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まだ未定</t>
+    <rPh sb="0" eb="2">
+      <t>マダミt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19941213</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多分会社</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50万円～60万円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kaai0622bangladesh@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ruby・Perl／インフラ構築自動化ツール開発のエンジニア求人・案件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19980622</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0801810123093</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栢原摩耶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉留潤也</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>junyay1125@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> デザイナー／自社広告関連商品のバナー制作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19971125</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08054507415</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maya_kayahara@outlook.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08062424930</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19891214</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大西緑</t>
+    <rPh sb="0" eb="1">
+      <t>ミドr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kobdesign69@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08038301068</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19820609</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川村美智子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09039143939</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19731012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rinzo353@gmail.com</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2974,7 +3343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3137,7 +3506,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3171,6 +3539,22 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3452,10 +3836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA88"/>
+  <dimension ref="A1:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="18" ySplit="2" topLeftCell="X69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -3487,20 +3871,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="M1" s="107" t="s">
+      <c r="M1" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="S1" s="107" t="s">
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="S1" s="106" t="s">
         <v>373</v>
       </c>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
       <c r="Y1" s="24"/>
     </row>
     <row r="2" spans="1:27">
@@ -3609,7 +3993,7 @@
       <c r="Z3" s="63"/>
       <c r="AA3" s="29"/>
     </row>
-    <row r="4" spans="1:27" s="62" customFormat="1" ht="33" customHeight="1">
+    <row r="4" spans="1:27" s="62" customFormat="1">
       <c r="A4" s="66" t="s">
         <v>409</v>
       </c>
@@ -3637,13 +4021,13 @@
       <c r="I4" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="89" t="s">
+      <c r="J4" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="94"/>
+      <c r="L4" s="93"/>
       <c r="M4" s="41" t="s">
         <v>92</v>
       </c>
@@ -3778,10 +4162,10 @@
       <c r="J6" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="K6" s="96" t="s">
+      <c r="K6" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="L6" s="96"/>
+      <c r="L6" s="95"/>
       <c r="M6" s="36" t="s">
         <v>92</v>
       </c>
@@ -4144,81 +4528,81 @@
         <v>378</v>
       </c>
       <c r="Y11" s="42"/>
-      <c r="Z11" s="100" t="s">
+      <c r="Z11" s="99" t="s">
         <v>390</v>
       </c>
       <c r="AA11" s="27"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="46" t="s">
+      <c r="K12" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="R12" s="34"/>
-      <c r="S12" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="T12" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="U12" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="65" t="s">
+      <c r="L12" s="48"/>
+      <c r="M12" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="39"/>
+      <c r="S12" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="T12" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="88" t="s">
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="111" t="s">
         <v>391</v>
       </c>
-      <c r="AA12" s="27" t="s">
+      <c r="AA12" s="60" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4288,7 +4672,7 @@
         <v>386</v>
       </c>
       <c r="Y13" s="42"/>
-      <c r="Z13" s="89" t="s">
+      <c r="Z13" s="88" t="s">
         <v>392</v>
       </c>
       <c r="AA13" s="27" t="s">
@@ -4668,12 +5052,12 @@
       <c r="S19" s="36"/>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
-      <c r="V19" s="95"/>
+      <c r="V19" s="94"/>
       <c r="W19" s="37"/>
       <c r="X19" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="Y19" s="95"/>
+      <c r="Y19" s="94"/>
       <c r="Z19" s="67" t="s">
         <v>432</v>
       </c>
@@ -4717,7 +5101,7 @@
       <c r="M20" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="90" t="s">
+      <c r="N20" s="89" t="s">
         <v>92</v>
       </c>
       <c r="O20" s="37" t="s">
@@ -4735,7 +5119,7 @@
       <c r="S20" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="T20" s="90" t="s">
+      <c r="T20" s="89" t="s">
         <v>156</v>
       </c>
       <c r="U20" s="37" t="s">
@@ -4743,11 +5127,11 @@
       </c>
       <c r="V20" s="36"/>
       <c r="W20" s="36"/>
-      <c r="X20" s="91" t="s">
+      <c r="X20" s="90" t="s">
         <v>385</v>
       </c>
       <c r="Y20" s="36"/>
-      <c r="Z20" s="92" t="s">
+      <c r="Z20" s="91" t="s">
         <v>394</v>
       </c>
       <c r="AA20" s="27"/>
@@ -7045,7 +7429,7 @@
       <c r="X65" s="30"/>
       <c r="Y65" s="33"/>
       <c r="Z65" s="69"/>
-      <c r="AA65" s="99"/>
+      <c r="AA65" s="98"/>
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="5" t="s">
@@ -7092,7 +7476,7 @@
       <c r="Z66" s="71"/>
       <c r="AA66" s="27"/>
     </row>
-    <row r="67" spans="1:27" s="97" customFormat="1">
+    <row r="67" spans="1:27" s="96" customFormat="1">
       <c r="A67" s="34" t="s">
         <v>410</v>
       </c>
@@ -7153,9 +7537,9 @@
       <c r="X67" s="34"/>
       <c r="Y67" s="37"/>
       <c r="Z67" s="65"/>
-      <c r="AA67" s="104"/>
-    </row>
-    <row r="68" spans="1:27" s="97" customFormat="1">
+      <c r="AA67" s="103"/>
+    </row>
+    <row r="68" spans="1:27" s="96" customFormat="1">
       <c r="A68" s="30" t="s">
         <v>408</v>
       </c>
@@ -7202,9 +7586,9 @@
       <c r="X68" s="30"/>
       <c r="Y68" s="33"/>
       <c r="Z68" s="69"/>
-      <c r="AA68" s="99"/>
-    </row>
-    <row r="69" spans="1:27" s="97" customFormat="1">
+      <c r="AA68" s="98"/>
+    </row>
+    <row r="69" spans="1:27" s="96" customFormat="1">
       <c r="A69" s="30" t="s">
         <v>408</v>
       </c>
@@ -7251,9 +7635,9 @@
       <c r="X69" s="30"/>
       <c r="Y69" s="33"/>
       <c r="Z69" s="69"/>
-      <c r="AA69" s="99"/>
-    </row>
-    <row r="70" spans="1:27" s="97" customFormat="1">
+      <c r="AA69" s="98"/>
+    </row>
+    <row r="70" spans="1:27" s="96" customFormat="1">
       <c r="A70" s="30" t="s">
         <v>408</v>
       </c>
@@ -7300,7 +7684,7 @@
       <c r="X70" s="30"/>
       <c r="Y70" s="33"/>
       <c r="Z70" s="69"/>
-      <c r="AA70" s="99"/>
+      <c r="AA70" s="98"/>
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="5" t="s">
@@ -7348,7 +7732,7 @@
       <c r="Y71" s="21"/>
       <c r="Z71" s="64"/>
       <c r="AA71" s="59" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="72" spans="1:27">
@@ -7395,7 +7779,7 @@
       <c r="Y72" s="21"/>
       <c r="Z72" s="64"/>
       <c r="AA72" s="59" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="73" spans="1:27">
@@ -7444,7 +7828,7 @@
       <c r="Y73" s="21"/>
       <c r="Z73" s="64"/>
       <c r="AA73" s="59" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -7493,7 +7877,7 @@
       <c r="Y74" s="21"/>
       <c r="Z74" s="64"/>
       <c r="AA74" s="59" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="75" spans="1:27">
@@ -7501,7 +7885,7 @@
         <v>424</v>
       </c>
       <c r="B75" s="5"/>
-      <c r="C75" s="103" t="s">
+      <c r="C75" s="102" t="s">
         <v>500</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -7538,83 +7922,87 @@
       <c r="Y75" s="21"/>
       <c r="Z75" s="64"/>
       <c r="AA75" s="59" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="76" spans="1:27">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="31" t="s">
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="K76" s="101" t="s">
+      <c r="K76" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="L76" s="101"/>
-      <c r="M76" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="N76" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="O76" s="32"/>
-      <c r="P76" s="33"/>
-      <c r="Q76" s="33"/>
-      <c r="R76" s="30"/>
-      <c r="S76" s="32"/>
-      <c r="T76" s="32"/>
-      <c r="U76" s="32"/>
-      <c r="V76" s="33"/>
-      <c r="W76" s="33"/>
-      <c r="X76" s="30"/>
-      <c r="Y76" s="33"/>
-      <c r="Z76" s="69"/>
-      <c r="AA76" s="99"/>
+      <c r="L76" s="107"/>
+      <c r="M76" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N76" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O76" s="19"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="22"/>
+      <c r="W76" s="22"/>
+      <c r="X76" s="17"/>
+      <c r="Y76" s="22"/>
+      <c r="Z76" s="71"/>
+      <c r="AA76" s="27"/>
     </row>
     <row r="77" spans="1:27">
       <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="98" t="s">
+      <c r="B77" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="C77" s="108" t="s">
         <v>507</v>
       </c>
       <c r="D77" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="F77" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="K77" s="108" t="s">
         <v>513</v>
-      </c>
-      <c r="K77" s="98" t="s">
-        <v>514</v>
       </c>
       <c r="L77" s="50"/>
       <c r="M77" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="N77" s="19"/>
+      <c r="N77" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="O77" s="19"/>
       <c r="P77" s="22"/>
       <c r="Q77" s="22"/>
@@ -7630,173 +8018,191 @@
       <c r="AA77" s="27"/>
     </row>
     <row r="78" spans="1:27">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30" t="s">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="104" t="s">
         <v>508</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="E78" s="30" t="s">
+      <c r="K78" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L78" s="45"/>
+      <c r="M78" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O78" s="4"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="21"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="21"/>
+      <c r="Z78" s="64"/>
+      <c r="AA78" s="59" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="104" t="s">
+        <v>525</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="K79" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="L79" s="45"/>
+      <c r="M79" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O79" s="4"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="21"/>
+      <c r="W79" s="21"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="21"/>
+      <c r="Z79" s="64"/>
+      <c r="AA79" s="59" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="H80" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I80" s="30"/>
+      <c r="J80" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="K80" s="100" t="s">
+        <v>536</v>
+      </c>
+      <c r="L80" s="100"/>
+      <c r="M80" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N80" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O80" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="P80" s="33"/>
+      <c r="Q80" s="33"/>
+      <c r="R80" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="S80" s="32"/>
+      <c r="T80" s="32"/>
+      <c r="U80" s="32"/>
+      <c r="V80" s="33"/>
+      <c r="W80" s="33"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="33"/>
+      <c r="Z80" s="105" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA80" s="98"/>
+    </row>
+    <row r="81" spans="1:27">
+      <c r="A81" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="C81" s="101" t="s">
+        <v>531</v>
+      </c>
+      <c r="D81" s="30" t="s">
         <v>517</v>
       </c>
-      <c r="F78" s="30" t="s">
+      <c r="E81" s="30" t="s">
         <v>516</v>
       </c>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="31" t="s">
-        <v>515</v>
-      </c>
-      <c r="K78" s="101" t="s">
+      <c r="F81" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="H81" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="I81" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="J81" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="K81" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="L78" s="101"/>
-      <c r="M78" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="N78" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="O78" s="32"/>
-      <c r="P78" s="33"/>
-      <c r="Q78" s="33"/>
-      <c r="R78" s="30"/>
-      <c r="S78" s="32"/>
-      <c r="T78" s="32"/>
-      <c r="U78" s="32"/>
-      <c r="V78" s="33"/>
-      <c r="W78" s="33"/>
-      <c r="X78" s="30"/>
-      <c r="Y78" s="33"/>
-      <c r="Z78" s="69"/>
-      <c r="AA78" s="99"/>
-    </row>
-    <row r="79" spans="1:27">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="102" t="s">
-        <v>509</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>520</v>
-      </c>
-      <c r="F79" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="31" t="s">
-        <v>519</v>
-      </c>
-      <c r="K79" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="L79" s="49"/>
-      <c r="M79" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="N79" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="O79" s="32"/>
-      <c r="P79" s="33"/>
-      <c r="Q79" s="33"/>
-      <c r="R79" s="30"/>
-      <c r="S79" s="32"/>
-      <c r="T79" s="32"/>
-      <c r="U79" s="32"/>
-      <c r="V79" s="33"/>
-      <c r="W79" s="33"/>
-      <c r="X79" s="30"/>
-      <c r="Y79" s="33"/>
-      <c r="Z79" s="69"/>
-      <c r="AA79" s="99"/>
-    </row>
-    <row r="80" spans="1:27">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="105" t="s">
-        <v>526</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="K80" s="45" t="s">
-        <v>529</v>
-      </c>
-      <c r="L80" s="45"/>
-      <c r="M80" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O80" s="4"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="21"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="21"/>
-      <c r="W80" s="21"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="21"/>
-      <c r="Z80" s="64"/>
-      <c r="AA80" s="59" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>534</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>516</v>
-      </c>
-      <c r="G81" s="30" t="s">
-        <v>546</v>
-      </c>
-      <c r="H81" s="30" t="s">
-        <v>547</v>
-      </c>
-      <c r="I81" s="30"/>
-      <c r="J81" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="K81" s="101" t="s">
-        <v>537</v>
-      </c>
-      <c r="L81" s="101"/>
+      <c r="L81" s="49"/>
       <c r="M81" s="32" t="s">
         <v>92</v>
       </c>
@@ -7818,126 +8224,800 @@
       <c r="W81" s="33"/>
       <c r="X81" s="30"/>
       <c r="Y81" s="33"/>
-      <c r="Z81" s="106" t="s">
+      <c r="Z81" s="105" t="s">
         <v>541</v>
       </c>
-      <c r="AA81" s="99"/>
-    </row>
-    <row r="82" spans="1:27">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30" t="s">
-        <v>533</v>
-      </c>
-      <c r="C82" s="102" t="s">
+      <c r="AA81" s="98"/>
+    </row>
+    <row r="82" spans="1:27" s="96" customFormat="1">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="K82" s="97" t="s">
+        <v>610</v>
+      </c>
+      <c r="L82" s="107"/>
+      <c r="M82" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N82" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O82" s="19"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="19"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="22"/>
+      <c r="X82" s="17"/>
+      <c r="Y82" s="22"/>
+      <c r="Z82" s="71"/>
+      <c r="AA82" s="27"/>
+    </row>
+    <row r="83" spans="1:27" s="96" customFormat="1">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="102"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O83" s="4"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="21"/>
+      <c r="W83" s="21"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="21"/>
+      <c r="Z83" s="64"/>
+      <c r="AA83" s="59"/>
+    </row>
+    <row r="84" spans="1:27" s="96" customFormat="1">
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="K84" s="100" t="s">
+        <v>617</v>
+      </c>
+      <c r="L84" s="100"/>
+      <c r="M84" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N84" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O84" s="32"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="30"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="32"/>
+      <c r="U84" s="32"/>
+      <c r="V84" s="33"/>
+      <c r="W84" s="33"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="69"/>
+      <c r="AA84" s="98" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" s="96" customFormat="1">
+      <c r="A85" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>564</v>
+      </c>
+      <c r="F85" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G85" s="34" t="s">
+        <v>559</v>
+      </c>
+      <c r="H85" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="I85" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="J85" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="K85" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L85" s="46"/>
+      <c r="M85" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N85" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O85" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P85" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q85" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="R85" s="34" t="s">
+        <v>562</v>
+      </c>
+      <c r="S85" s="36"/>
+      <c r="T85" s="36"/>
+      <c r="U85" s="36"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="34"/>
+      <c r="Y85" s="37"/>
+      <c r="Z85" s="65"/>
+      <c r="AA85" s="103"/>
+    </row>
+    <row r="86" spans="1:27" s="96" customFormat="1">
+      <c r="A86" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="G86" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="H86" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="I86" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="J86" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="K86" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="L86" s="49"/>
+      <c r="M86" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N86" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O86" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="30"/>
+      <c r="S86" s="32"/>
+      <c r="T86" s="32"/>
+      <c r="U86" s="32"/>
+      <c r="V86" s="33"/>
+      <c r="W86" s="33"/>
+      <c r="X86" s="30"/>
+      <c r="Y86" s="33"/>
+      <c r="Z86" s="69"/>
+      <c r="AA86" s="98"/>
+    </row>
+    <row r="87" spans="1:27" s="96" customFormat="1">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="D82" s="30" t="s">
-        <v>518</v>
-      </c>
-      <c r="E82" s="30" t="s">
-        <v>517</v>
-      </c>
-      <c r="F82" s="30" t="s">
+      <c r="C87" s="104" t="s">
+        <v>553</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="45"/>
+      <c r="M87" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O87" s="4"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="117"/>
+      <c r="AA87" s="59" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" s="96" customFormat="1">
+      <c r="A88" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="F88" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="H82" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="I82" s="30" t="s">
-        <v>545</v>
-      </c>
-      <c r="J82" s="31" t="s">
-        <v>515</v>
-      </c>
-      <c r="K82" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="L82" s="49"/>
-      <c r="M82" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="N82" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="O82" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="P82" s="33"/>
-      <c r="Q82" s="33"/>
-      <c r="R82" s="30" t="s">
-        <v>540</v>
-      </c>
-      <c r="S82" s="32"/>
-      <c r="T82" s="32"/>
-      <c r="U82" s="32"/>
-      <c r="V82" s="33"/>
-      <c r="W82" s="33"/>
-      <c r="X82" s="30"/>
-      <c r="Y82" s="33"/>
-      <c r="Z82" s="106" t="s">
-        <v>542</v>
-      </c>
-      <c r="AA82" s="99"/>
-    </row>
-    <row r="83" spans="1:27">
-      <c r="A83" s="51"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="51"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="51"/>
-      <c r="L83" s="51"/>
-      <c r="M83" s="53"/>
-      <c r="N83" s="53"/>
-      <c r="O83" s="53"/>
-      <c r="P83" s="54"/>
-      <c r="Q83" s="54"/>
-      <c r="R83" s="51"/>
-      <c r="S83" s="53"/>
-      <c r="T83" s="53"/>
-      <c r="U83" s="53"/>
-      <c r="V83" s="54"/>
-      <c r="W83" s="54"/>
-      <c r="X83" s="55"/>
-      <c r="Y83" s="54"/>
-      <c r="Z83" s="72"/>
-      <c r="AA83" s="55"/>
-    </row>
-    <row r="84" spans="1:27">
-      <c r="C84" s="34"/>
-      <c r="D84" s="1" t="s">
+      <c r="G88" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="H88" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="I88" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="J88" s="31"/>
+      <c r="K88" s="49" t="s">
+        <v>528</v>
+      </c>
+      <c r="L88" s="49"/>
+      <c r="M88" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N88" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O88" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="P88" s="33"/>
+      <c r="Q88" s="33"/>
+      <c r="R88" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="S88" s="32"/>
+      <c r="T88" s="32"/>
+      <c r="U88" s="32"/>
+      <c r="V88" s="33"/>
+      <c r="W88" s="33"/>
+      <c r="X88" s="30"/>
+      <c r="Y88" s="33"/>
+      <c r="Z88" s="69"/>
+      <c r="AA88" s="98"/>
+    </row>
+    <row r="89" spans="1:27" s="96" customFormat="1">
+      <c r="A89" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="G89" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="H89" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="I89" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="J89" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="K89" s="114" t="s">
+        <v>567</v>
+      </c>
+      <c r="L89" s="114"/>
+      <c r="M89" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="N89" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="O89" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="P89" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q89" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="R89" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="S89" s="115"/>
+      <c r="T89" s="115"/>
+      <c r="U89" s="115"/>
+      <c r="V89" s="26"/>
+      <c r="W89" s="26"/>
+      <c r="X89" s="25"/>
+      <c r="Y89" s="26"/>
+      <c r="Z89" s="68"/>
+      <c r="AA89" s="116"/>
+    </row>
+    <row r="90" spans="1:27" s="96" customFormat="1">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="C90" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="K90" s="107" t="s">
+        <v>595</v>
+      </c>
+      <c r="L90" s="107"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="19"/>
+      <c r="T90" s="19"/>
+      <c r="U90" s="19"/>
+      <c r="V90" s="22"/>
+      <c r="W90" s="22"/>
+      <c r="X90" s="17"/>
+      <c r="Y90" s="22"/>
+      <c r="Z90" s="110"/>
+      <c r="AA90" s="27"/>
+    </row>
+    <row r="91" spans="1:27" s="96" customFormat="1">
+      <c r="A91" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C91" s="104" t="s">
+        <v>555</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="K91" s="45" t="s">
+        <v>590</v>
+      </c>
+      <c r="L91" s="45"/>
+      <c r="M91" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O91" s="4"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="21"/>
+      <c r="W91" s="21"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="21"/>
+      <c r="Z91" s="117"/>
+      <c r="AA91" s="59" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" s="96" customFormat="1">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="109" t="s">
+        <v>603</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="F92" s="112" t="s">
+        <v>581</v>
+      </c>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="K92" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="L92" s="50"/>
+      <c r="M92" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N92" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O92" s="19"/>
+      <c r="P92" s="22"/>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="19"/>
+      <c r="T92" s="19"/>
+      <c r="U92" s="19"/>
+      <c r="V92" s="22"/>
+      <c r="W92" s="22"/>
+      <c r="X92" s="17"/>
+      <c r="Y92" s="22"/>
+      <c r="Z92" s="110"/>
+      <c r="AA92" s="27"/>
+    </row>
+    <row r="93" spans="1:27" s="118" customFormat="1">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="104" t="s">
+        <v>621</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="K93" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="L93" s="45"/>
+      <c r="M93" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="21"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="21"/>
+      <c r="Z93" s="117"/>
+      <c r="AA93" s="59" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" s="118" customFormat="1">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="104" t="s">
+        <v>630</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="K94" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="L94" s="45"/>
+      <c r="M94" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="21"/>
+      <c r="W94" s="21"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="21"/>
+      <c r="Z94" s="117"/>
+      <c r="AA94" s="59" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" s="118" customFormat="1">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="104" t="s">
+        <v>634</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="K95" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="L95" s="45"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="21"/>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="21"/>
+      <c r="W95" s="21"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="21"/>
+      <c r="Z95" s="117"/>
+      <c r="AA95" s="59" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" s="118" customFormat="1" ht="19" customHeight="1">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="104" t="s">
+        <v>622</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="K96" s="45" t="s">
+        <v>624</v>
+      </c>
+      <c r="L96" s="45"/>
+      <c r="M96" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="21"/>
+      <c r="Q96" s="21"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="21"/>
+      <c r="W96" s="21"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="21"/>
+      <c r="Z96" s="117"/>
+      <c r="AA96" s="59" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
+      <c r="A97" s="51"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="52"/>
+      <c r="K97" s="51"/>
+      <c r="L97" s="51"/>
+      <c r="M97" s="53"/>
+      <c r="N97" s="53"/>
+      <c r="O97" s="53"/>
+      <c r="P97" s="54"/>
+      <c r="Q97" s="54"/>
+      <c r="R97" s="51"/>
+      <c r="S97" s="53"/>
+      <c r="T97" s="53"/>
+      <c r="U97" s="53"/>
+      <c r="V97" s="54"/>
+      <c r="W97" s="54"/>
+      <c r="X97" s="55"/>
+      <c r="Y97" s="54"/>
+      <c r="Z97" s="72"/>
+      <c r="AA97" s="55"/>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="C98" s="34"/>
+      <c r="D98" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
-      <c r="C85" s="25"/>
-      <c r="D85" s="1" t="s">
+    <row r="99" spans="1:27">
+      <c r="C99" s="25"/>
+      <c r="D99" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
-      <c r="C86" s="38"/>
-      <c r="D86" s="1" t="s">
+    <row r="100" spans="1:27">
+      <c r="C100" s="38"/>
+      <c r="D100" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="38">
-      <c r="C87" s="1"/>
-      <c r="D87" s="73" t="s">
+    <row r="101" spans="1:27" ht="38">
+      <c r="C101" s="1"/>
+      <c r="D101" s="73" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
-      <c r="C88" s="5"/>
-      <c r="D88" s="1" t="s">
+    <row r="102" spans="1:27">
+      <c r="C102" s="5"/>
+      <c r="D102" s="1" t="s">
         <v>331</v>
       </c>
     </row>
@@ -8037,15 +9117,26 @@
     <hyperlink ref="J75" r:id="rId86" xr:uid="{D649A09B-D9B8-4F48-8FF3-5D003E2DBB79}"/>
     <hyperlink ref="J76" r:id="rId87" xr:uid="{9D36EEF1-6A87-804B-8DBD-C763ADBD51C8}"/>
     <hyperlink ref="J77" r:id="rId88" xr:uid="{D7BE9B8D-FA66-3441-8BDB-2011BE386E48}"/>
-    <hyperlink ref="J78" r:id="rId89" xr:uid="{A3A923E4-1BCD-2F40-A42A-7EAECFA458F5}"/>
-    <hyperlink ref="J79" r:id="rId90" xr:uid="{A5FC35AB-5C08-2341-85C5-F9A63D7C9C13}"/>
-    <hyperlink ref="J80" r:id="rId91" xr:uid="{69B21F1C-A9E9-0B49-A339-BE869AE0DFBD}"/>
-    <hyperlink ref="J81" r:id="rId92" xr:uid="{D3B1A852-6A0D-EC49-9921-FE19D4462160}"/>
-    <hyperlink ref="J82" r:id="rId93" xr:uid="{50345870-8DDA-3448-A2EB-A580E7954566}"/>
-    <hyperlink ref="Z81" r:id="rId94" xr:uid="{914959AB-6979-0A4D-80B3-901C534AF369}"/>
-    <hyperlink ref="Z82" r:id="rId95" xr:uid="{6B251339-D0F2-F541-A0EE-85BE14AB978C}"/>
+    <hyperlink ref="J78" r:id="rId89" xr:uid="{A5FC35AB-5C08-2341-85C5-F9A63D7C9C13}"/>
+    <hyperlink ref="J79" r:id="rId90" xr:uid="{69B21F1C-A9E9-0B49-A339-BE869AE0DFBD}"/>
+    <hyperlink ref="J80" r:id="rId91" xr:uid="{D3B1A852-6A0D-EC49-9921-FE19D4462160}"/>
+    <hyperlink ref="J81" r:id="rId92" xr:uid="{50345870-8DDA-3448-A2EB-A580E7954566}"/>
+    <hyperlink ref="Z80" r:id="rId93" xr:uid="{914959AB-6979-0A4D-80B3-901C534AF369}"/>
+    <hyperlink ref="Z81" r:id="rId94" xr:uid="{6B251339-D0F2-F541-A0EE-85BE14AB978C}"/>
+    <hyperlink ref="J85" r:id="rId95" xr:uid="{999CE057-A29B-F848-B33E-0EE2BBFE6A1F}"/>
+    <hyperlink ref="J89" r:id="rId96" xr:uid="{1A4DF6E1-4973-894B-BDE2-B1F3C92842FE}"/>
+    <hyperlink ref="J91" r:id="rId97" xr:uid="{81BEF7C3-9AE4-5E4D-B061-4FC593E36555}"/>
+    <hyperlink ref="J90" r:id="rId98" xr:uid="{A1973146-3883-F447-AA8C-C21E4C7BCC96}"/>
+    <hyperlink ref="J86" r:id="rId99" xr:uid="{0D4C7047-8F88-854E-8EA8-D52771C6E689}"/>
+    <hyperlink ref="J92" r:id="rId100" xr:uid="{DAA8647B-F1AC-CA49-81F9-04D9A3535509}"/>
+    <hyperlink ref="J82" r:id="rId101" xr:uid="{A8414651-AD20-F847-8B98-073AF0323222}"/>
+    <hyperlink ref="J84" r:id="rId102" xr:uid="{7794CB20-BBEA-FC41-91A3-6C3BAC414756}"/>
+    <hyperlink ref="J93" r:id="rId103" xr:uid="{EA34581E-5155-AA43-99EB-27E203FE6A25}"/>
+    <hyperlink ref="J96" r:id="rId104" xr:uid="{C8386B71-FFD1-2F46-B66E-3DCE09D9ABB6}"/>
+    <hyperlink ref="J94" r:id="rId105" xr:uid="{154ED229-C0F6-3A45-A22B-1F0000A31487}"/>
+    <hyperlink ref="J95" r:id="rId106" xr:uid="{2BD75B41-2685-4E42-891A-8ABC406234EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId107"/>
 </worksheet>
 </file>
--- a/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
+++ b/フライテック個人事業主/フライテック_個人事業主リスト .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/flyhawk/フライテック個人事業主/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33147EB-E96A-F647-9A4C-FF205EE60431}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA10C5A-8B87-B247-87C3-D1DC09171BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$2:$K$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$C$120</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="737">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -1981,9 +1981,6 @@
     <t>イニシャル変更後職務経歴書/職務経歴書_OH.xlsx</t>
   </si>
   <si>
-    <t>イニシャル変更後職務経歴書/職務経歴書_IA.xls</t>
-  </si>
-  <si>
     <t>イニシャル変更後職務経歴書/職務経歴書_GR.pdf</t>
   </si>
   <si>
@@ -3098,12 +3095,424 @@
     <t>rinzo353@gmail.com</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>自動車会社向け、システム維持作業</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉航司</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kojichiba0112@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19950112</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0423716015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鴨川枝理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sa_i_ta_8823@icloud.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09040647685</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19881205</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小松靖弘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eleyasu@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09017690500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19620507</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石井誠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hqf03565@nifty.ne.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09078495575</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19700918</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岸結海子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yumiko8@ezweb.ne.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09098315301</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19711108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石田雅人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>masatosanto@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09093462903</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19810516</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒義高</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Go言語／求人サイトの開発のエンジニア求人・案件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08047782752</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19540226</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sealand@violin.ocn.ne.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹田千晴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chihatin@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08069282002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19680220</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年</t>
+    <rPh sb="0" eb="1">
+      <t>トs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西田尚子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jonathan21jp@yahoo.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09063033383</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19560121</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本惇平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0614407426</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19880125</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jumpei.work666@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大高なおこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07044341699</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19930618</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f6t5a8n7@yahoo.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任万里</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Python／広告配信企業内でのデータマイニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08034373588</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19740328</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ninbanri@ulike.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kasper.kivikataja@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PowerShell】大手企業向けインフラ自動化ツール作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07044806200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19891120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キヴィカタヤカスパー</t>
+    <rPh sb="0" eb="1">
+      <t>タ￥カt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【Android】QR決済プラットフォーム導入スマートフォンアプリ開発</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19711026</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊野重之</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kumano@artifaith.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08056897604</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19571228</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【テスター】銀行向けセルフ端末テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>639085356145</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19621118</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斉藤健次</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dannojo.trabaho@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o-baby@msf.biglobe.ne.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿部清人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08051943049</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19740918</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅井みのり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minoritajp@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09039583589</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19760806</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青柳紫里</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07044490495</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19780728</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adyukari@yahoo.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zhangxinjames@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19880122</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08025489514</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>張新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19611226</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浜路進介</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_hyama@yahoo.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【Swift/Objective-C】住宅情報検索アプリ開発　※リモート可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07066113358</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50万円～55万円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名古屋市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東海道本線　新所原駅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tokaisc1838@yahoo.co.jp </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COBOL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09091731838</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19670703</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3192,6 +3601,30 @@
       <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3343,7 +3776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3529,24 +3962,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3554,7 +3979,36 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3836,10 +4290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA102"/>
+  <dimension ref="A1:AA126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="18" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -3871,20 +4325,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="M1" s="106" t="s">
+      <c r="M1" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="S1" s="106" t="s">
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="S1" s="114" t="s">
         <v>373</v>
       </c>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
       <c r="Y1" s="24"/>
     </row>
     <row r="2" spans="1:27">
@@ -3995,12 +4449,12 @@
     </row>
     <row r="4" spans="1:27" s="62" customFormat="1">
       <c r="A4" s="66" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B4" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="117" t="s">
         <v>82</v>
       </c>
       <c r="D4" s="66" t="s">
@@ -4064,12 +4518,12 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="118" t="s">
         <v>255</v>
       </c>
       <c r="D5" s="34" t="s">
@@ -4123,22 +4577,22 @@
       <c r="V5" s="36"/>
       <c r="W5" s="37"/>
       <c r="X5" s="65" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Y5" s="36"/>
       <c r="Z5" s="67" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AA5" s="74"/>
     </row>
     <row r="6" spans="1:27" s="62" customFormat="1">
       <c r="A6" s="65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="119" t="s">
         <v>274</v>
       </c>
       <c r="D6" s="65" t="s">
@@ -4151,13 +4605,13 @@
         <v>278</v>
       </c>
       <c r="G6" s="65" t="s">
+        <v>418</v>
+      </c>
+      <c r="H6" s="65" t="s">
         <v>419</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="I6" s="65" t="s">
         <v>420</v>
-      </c>
-      <c r="I6" s="65" t="s">
-        <v>421</v>
       </c>
       <c r="J6" s="67" t="s">
         <v>275</v>
@@ -4192,26 +4646,26 @@
       <c r="V6" s="37"/>
       <c r="W6" s="37"/>
       <c r="X6" s="65" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y6" s="26"/>
       <c r="Z6" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AA6" s="74"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="118" t="s">
         <v>284</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>287</v>
@@ -4263,11 +4717,11 @@
       <c r="V7" s="36"/>
       <c r="W7" s="37"/>
       <c r="X7" s="65" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Y7" s="36"/>
       <c r="Z7" s="67" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA7" s="74" t="s">
         <v>333</v>
@@ -4275,10 +4729,10 @@
     </row>
     <row r="8" spans="1:27" ht="17" customHeight="1">
       <c r="A8" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="120" t="s">
         <v>296</v>
       </c>
       <c r="D8" s="30" t="s">
@@ -4324,12 +4778,12 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="C9" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="118" t="s">
         <v>342</v>
       </c>
       <c r="D9" s="34" t="s">
@@ -4342,13 +4796,13 @@
         <v>150</v>
       </c>
       <c r="G9" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="I9" s="34" t="s">
         <v>427</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>428</v>
       </c>
       <c r="J9" s="35" t="s">
         <v>343</v>
@@ -4373,7 +4827,7 @@
         <v>92</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S9" s="36"/>
       <c r="T9" s="36"/>
@@ -4381,7 +4835,7 @@
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
       <c r="X9" s="65" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Y9" s="26"/>
       <c r="Z9" s="70"/>
@@ -4389,12 +4843,12 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="118" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="34" t="s">
@@ -4456,18 +4910,18 @@
       </c>
       <c r="Y10" s="37"/>
       <c r="Z10" s="67" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AA10" s="27"/>
     </row>
     <row r="11" spans="1:27" ht="17.5" customHeight="1">
       <c r="A11" s="39" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="121" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="39" t="s">
@@ -4535,12 +4989,12 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="39" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="121" t="s">
         <v>86</v>
       </c>
       <c r="D12" s="39" t="s">
@@ -4599,7 +5053,7 @@
         <v>381</v>
       </c>
       <c r="Y12" s="42"/>
-      <c r="Z12" s="111" t="s">
+      <c r="Z12" s="106" t="s">
         <v>391</v>
       </c>
       <c r="AA12" s="60" t="s">
@@ -4608,12 +5062,12 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="39" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="121" t="s">
         <v>133</v>
       </c>
       <c r="D13" s="39" t="s">
@@ -4676,17 +5130,17 @@
         <v>392</v>
       </c>
       <c r="AA13" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="118" t="s">
         <v>138</v>
       </c>
       <c r="D14" s="34" t="s">
@@ -4752,12 +5206,12 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="118" t="s">
         <v>219</v>
       </c>
       <c r="D15" s="34" t="s">
@@ -4805,24 +5259,24 @@
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
       <c r="X15" s="65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Y15" s="37"/>
       <c r="Z15" s="67" t="s">
         <v>398</v>
       </c>
       <c r="AA15" s="27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="118" t="s">
         <v>224</v>
       </c>
       <c r="D16" s="34" t="s">
@@ -4862,22 +5316,22 @@
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
       <c r="X16" s="65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y16" s="37"/>
       <c r="Z16" s="67" t="s">
-        <v>399</v>
+        <v>638</v>
       </c>
       <c r="AA16" s="27"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="118" t="s">
         <v>229</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -4893,10 +5347,10 @@
         <v>242</v>
       </c>
       <c r="H17" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="I17" s="34" t="s">
         <v>417</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>418</v>
       </c>
       <c r="J17" s="35" t="s">
         <v>232</v>
@@ -4929,7 +5383,7 @@
       <c r="V17" s="36"/>
       <c r="W17" s="37"/>
       <c r="X17" s="65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Y17" s="36"/>
       <c r="Z17" s="67" t="s">
@@ -4939,12 +5393,12 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="118" t="s">
         <v>288</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -4988,7 +5442,7 @@
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
       <c r="X18" s="65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Y18" s="37"/>
       <c r="Z18" s="67" t="s">
@@ -4998,12 +5452,12 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="118" t="s">
         <v>350</v>
       </c>
       <c r="D19" s="34" t="s">
@@ -5016,13 +5470,13 @@
         <v>150</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J19" s="35" t="s">
         <v>353</v>
@@ -5047,7 +5501,7 @@
         <v>92</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="S19" s="36"/>
       <c r="T19" s="36"/>
@@ -5055,22 +5509,22 @@
       <c r="V19" s="94"/>
       <c r="W19" s="37"/>
       <c r="X19" s="65" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Y19" s="94"/>
       <c r="Z19" s="67" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA19" s="27"/>
     </row>
     <row r="20" spans="1:27" ht="19.25" customHeight="1">
       <c r="A20" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="118" t="s">
         <v>180</v>
       </c>
       <c r="D20" s="34" t="s">
@@ -5086,7 +5540,7 @@
         <v>266</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I20" s="34" t="s">
         <v>267</v>
@@ -5138,10 +5592,10 @@
     </row>
     <row r="21" spans="1:27" ht="20.5" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="122" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -5199,10 +5653,10 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="122" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -5248,10 +5702,10 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="122" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -5309,10 +5763,10 @@
     </row>
     <row r="24" spans="1:27" ht="20">
       <c r="A24" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="122" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -5364,10 +5818,10 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="122" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -5413,10 +5867,10 @@
     </row>
     <row r="26" spans="1:27" ht="19.75" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="122" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -5462,10 +5916,10 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="122" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -5517,10 +5971,10 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="122" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -5572,10 +6026,10 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="122" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -5627,10 +6081,10 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="122" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -5682,10 +6136,10 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="122" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -5737,10 +6191,10 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="122" t="s">
         <v>73</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -5792,10 +6246,10 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="122" t="s">
         <v>117</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -5841,10 +6295,10 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="123" t="s">
         <v>144</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -5896,10 +6350,10 @@
     </row>
     <row r="35" spans="1:27" ht="19.25" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="122" t="s">
         <v>151</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -5945,10 +6399,10 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="122" t="s">
         <v>164</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -6000,10 +6454,10 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="122" t="s">
         <v>171</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -6055,10 +6509,10 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="122" t="s">
         <v>176</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -6110,10 +6564,10 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="122" t="s">
         <v>185</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -6157,10 +6611,10 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="122" t="s">
         <v>190</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -6212,10 +6666,10 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="122" t="s">
         <v>195</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -6267,10 +6721,10 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="122" t="s">
         <v>199</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -6322,10 +6776,10 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="122" t="s">
         <v>206</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -6377,10 +6831,10 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="122" t="s">
         <v>212</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -6432,10 +6886,10 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B45" s="5"/>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="122" t="s">
         <v>213</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -6481,10 +6935,10 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B46" s="5"/>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="122" t="s">
         <v>245</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -6540,10 +6994,10 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B47" s="5"/>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="122" t="s">
         <v>249</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -6595,10 +7049,10 @@
     </row>
     <row r="48" spans="1:27" s="75" customFormat="1">
       <c r="A48" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B48" s="5"/>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="122" t="s">
         <v>190</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -6650,10 +7104,10 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B49" s="5"/>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="122" t="s">
         <v>292</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -6706,7 +7160,7 @@
     <row r="50" spans="1:27" s="75" customFormat="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="124" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -6751,7 +7205,7 @@
     <row r="51" spans="1:27">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="125" t="s">
         <v>142</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -6796,7 +7250,7 @@
     <row r="52" spans="1:27">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="124" t="s">
         <v>127</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -6841,7 +7295,7 @@
     <row r="53" spans="1:27" s="75" customFormat="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="124" t="s">
         <v>146</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -6886,7 +7340,7 @@
     <row r="54" spans="1:27">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="124" t="s">
         <v>157</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -6931,7 +7385,7 @@
     <row r="55" spans="1:27">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="124" t="s">
         <v>167</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -6978,7 +7432,7 @@
       <c r="B56" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="126" t="s">
         <v>260</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -7025,7 +7479,7 @@
       <c r="B57" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="126" t="s">
         <v>281</v>
       </c>
       <c r="D57" s="17" t="s">
@@ -7070,7 +7524,7 @@
     <row r="58" spans="1:27">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="126" t="s">
         <v>301</v>
       </c>
       <c r="D58" s="17" t="s">
@@ -7114,10 +7568,10 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="5"/>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="122" t="s">
         <v>306</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -7164,7 +7618,7 @@
     <row r="60" spans="1:27">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="126" t="s">
         <v>315</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -7209,7 +7663,7 @@
     <row r="61" spans="1:27">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="126" t="s">
         <v>316</v>
       </c>
       <c r="D61" s="17" t="s">
@@ -7254,7 +7708,7 @@
     <row r="62" spans="1:27">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="126" t="s">
         <v>337</v>
       </c>
       <c r="D62" s="17" t="s">
@@ -7298,17 +7752,17 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B63" s="5"/>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="122" t="s">
+        <v>434</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>436</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>437</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>252</v>
@@ -7317,7 +7771,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K63" s="45" t="s">
         <v>67</v>
@@ -7343,17 +7797,17 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B64" s="5"/>
-      <c r="C64" s="5" t="s">
-        <v>442</v>
+      <c r="C64" s="122" t="s">
+        <v>441</v>
       </c>
       <c r="D64" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>150</v>
@@ -7362,7 +7816,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K64" s="45" t="s">
         <v>228</v>
@@ -7389,14 +7843,14 @@
     <row r="65" spans="1:27">
       <c r="A65" s="30"/>
       <c r="B65" s="30"/>
-      <c r="C65" s="30" t="s">
-        <v>443</v>
+      <c r="C65" s="120" t="s">
+        <v>442</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F65" s="30" t="s">
         <v>150</v>
@@ -7405,10 +7859,10 @@
       <c r="H65" s="30"/>
       <c r="I65" s="30"/>
       <c r="J65" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K65" s="49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L65" s="49"/>
       <c r="M65" s="32" t="s">
@@ -7433,17 +7887,17 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B66" s="5"/>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="122" t="s">
+        <v>447</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>150</v>
@@ -7452,7 +7906,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K66" s="45" t="s">
         <v>39</v>
@@ -7478,34 +7932,34 @@
     </row>
     <row r="67" spans="1:27" s="96" customFormat="1">
       <c r="A67" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B67" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="118" t="s">
+        <v>453</v>
+      </c>
+      <c r="D67" s="34" t="s">
         <v>454</v>
       </c>
-      <c r="D67" s="34" t="s">
+      <c r="E67" s="34" t="s">
         <v>455</v>
-      </c>
-      <c r="E67" s="34" t="s">
-        <v>456</v>
       </c>
       <c r="F67" s="34" t="s">
         <v>150</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I67" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J67" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K67" s="46" t="s">
         <v>39</v>
@@ -7527,7 +7981,7 @@
         <v>156</v>
       </c>
       <c r="R67" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S67" s="36"/>
       <c r="T67" s="36"/>
@@ -7537,23 +7991,23 @@
       <c r="X67" s="34"/>
       <c r="Y67" s="37"/>
       <c r="Z67" s="65"/>
-      <c r="AA67" s="103"/>
+      <c r="AA67" s="101"/>
     </row>
     <row r="68" spans="1:27" s="96" customFormat="1">
       <c r="A68" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>470</v>
+        <v>475</v>
+      </c>
+      <c r="C68" s="120" t="s">
+        <v>469</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F68" s="30" t="s">
         <v>150</v>
@@ -7562,10 +8016,10 @@
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
       <c r="J68" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K68" s="49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L68" s="49"/>
       <c r="M68" s="32" t="s">
@@ -7590,19 +8044,19 @@
     </row>
     <row r="69" spans="1:27" s="96" customFormat="1">
       <c r="A69" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="C69" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="C69" s="120" t="s">
+        <v>465</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="E69" s="30" t="s">
         <v>467</v>
-      </c>
-      <c r="E69" s="30" t="s">
-        <v>468</v>
       </c>
       <c r="F69" s="30" t="s">
         <v>15</v>
@@ -7611,10 +8065,10 @@
       <c r="H69" s="30"/>
       <c r="I69" s="30"/>
       <c r="J69" s="31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K69" s="49" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L69" s="49"/>
       <c r="M69" s="32" t="s">
@@ -7639,19 +8093,19 @@
     </row>
     <row r="70" spans="1:27" s="96" customFormat="1">
       <c r="A70" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="C70" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C70" s="120" t="s">
+        <v>457</v>
+      </c>
+      <c r="D70" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="D70" s="30" t="s">
-        <v>459</v>
-      </c>
       <c r="E70" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F70" s="30" t="s">
         <v>150</v>
@@ -7660,10 +8114,10 @@
       <c r="H70" s="30"/>
       <c r="I70" s="30"/>
       <c r="J70" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="K70" s="49" t="s">
         <v>460</v>
-      </c>
-      <c r="K70" s="49" t="s">
-        <v>461</v>
       </c>
       <c r="L70" s="49"/>
       <c r="M70" s="32" t="s">
@@ -7688,19 +8142,19 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C71" s="5" t="s">
         <v>480</v>
       </c>
+      <c r="C71" s="122" t="s">
+        <v>479</v>
+      </c>
       <c r="D71" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>150</v>
@@ -7709,7 +8163,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K71" s="45" t="s">
         <v>177</v>
@@ -7732,22 +8186,22 @@
       <c r="Y71" s="21"/>
       <c r="Z71" s="64"/>
       <c r="AA71" s="59" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B72" s="5"/>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="122" t="s">
+        <v>484</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>485</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>486</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>150</v>
@@ -7756,7 +8210,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K72" s="79" t="s">
         <v>53</v>
@@ -7779,24 +8233,24 @@
       <c r="Y72" s="21"/>
       <c r="Z72" s="64"/>
       <c r="AA72" s="59" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="73" spans="1:27">
       <c r="A73" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C73" s="122" t="s">
+        <v>488</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>492</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>150</v>
@@ -7805,7 +8259,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K73" s="45" t="s">
         <v>177</v>
@@ -7828,24 +8282,24 @@
       <c r="Y73" s="21"/>
       <c r="Z73" s="64"/>
       <c r="AA73" s="59" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C74" s="122" t="s">
+        <v>493</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>150</v>
@@ -7854,7 +8308,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K74" s="79" t="s">
         <v>192</v>
@@ -7877,22 +8331,22 @@
       <c r="Y74" s="21"/>
       <c r="Z74" s="64"/>
       <c r="AA74" s="59" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" ht="20">
       <c r="A75" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B75" s="5"/>
-      <c r="C75" s="102" t="s">
+      <c r="C75" s="138" t="s">
+        <v>499</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>150</v>
@@ -7901,7 +8355,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K75" s="45"/>
       <c r="L75" s="45"/>
@@ -7922,20 +8376,20 @@
       <c r="Y75" s="21"/>
       <c r="Z75" s="64"/>
       <c r="AA75" s="59" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
-      <c r="C76" s="17" t="s">
-        <v>503</v>
+      <c r="C76" s="126" t="s">
+        <v>502</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>150</v>
@@ -7944,12 +8398,12 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
       <c r="J76" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="K76" s="107" t="s">
+        <v>503</v>
+      </c>
+      <c r="K76" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="L76" s="107"/>
+      <c r="L76" s="103"/>
       <c r="M76" s="19" t="s">
         <v>92</v>
       </c>
@@ -7970,31 +8424,31 @@
       <c r="Z76" s="71"/>
       <c r="AA76" s="27"/>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" ht="20">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
-        <v>583</v>
-      </c>
-      <c r="C77" s="108" t="s">
-        <v>507</v>
+        <v>582</v>
+      </c>
+      <c r="C77" s="137" t="s">
+        <v>506</v>
       </c>
       <c r="D77" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="F77" s="17" t="s">
         <v>509</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>510</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="K77" s="104" t="s">
         <v>512</v>
-      </c>
-      <c r="K77" s="108" t="s">
-        <v>513</v>
       </c>
       <c r="L77" s="50"/>
       <c r="M77" s="19" t="s">
@@ -8017,17 +8471,17 @@
       <c r="Z77" s="71"/>
       <c r="AA77" s="27"/>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" ht="20">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
-      <c r="C78" s="104" t="s">
-        <v>508</v>
+      <c r="C78" s="127" t="s">
+        <v>507</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>150</v>
@@ -8036,7 +8490,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K78" s="45" t="s">
         <v>72</v>
@@ -8061,32 +8515,32 @@
       <c r="Y78" s="21"/>
       <c r="Z78" s="64"/>
       <c r="AA78" s="59" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" s="96" customFormat="1" ht="20">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="104" t="s">
+      <c r="C79" s="127" t="s">
+        <v>524</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>526</v>
-      </c>
       <c r="F79" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K79" s="45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L79" s="45"/>
       <c r="M79" s="4" t="s">
@@ -8108,38 +8562,38 @@
       <c r="Y79" s="21"/>
       <c r="Z79" s="64"/>
       <c r="AA79" s="59" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:27">
       <c r="A80" s="30"/>
       <c r="B80" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="C80" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="C80" s="120" t="s">
+        <v>532</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="E80" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="E80" s="30" t="s">
-        <v>535</v>
-      </c>
       <c r="F80" s="30" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G80" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="H80" s="30" t="s">
         <v>545</v>
-      </c>
-      <c r="H80" s="30" t="s">
-        <v>546</v>
       </c>
       <c r="I80" s="30"/>
       <c r="J80" s="31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K80" s="100" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L80" s="100"/>
       <c r="M80" s="32" t="s">
@@ -8154,7 +8608,7 @@
       <c r="P80" s="33"/>
       <c r="Q80" s="33"/>
       <c r="R80" s="30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S80" s="32"/>
       <c r="T80" s="32"/>
@@ -8163,41 +8617,41 @@
       <c r="W80" s="33"/>
       <c r="X80" s="30"/>
       <c r="Y80" s="33"/>
-      <c r="Z80" s="105" t="s">
-        <v>540</v>
+      <c r="Z80" s="102" t="s">
+        <v>539</v>
       </c>
       <c r="AA80" s="98"/>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" ht="20">
       <c r="A81" s="30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>532</v>
-      </c>
-      <c r="C81" s="101" t="s">
         <v>531</v>
       </c>
+      <c r="C81" s="128" t="s">
+        <v>530</v>
+      </c>
       <c r="D81" s="30" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F81" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="H81" s="30" t="s">
         <v>542</v>
       </c>
-      <c r="H81" s="30" t="s">
+      <c r="I81" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="I81" s="30" t="s">
-        <v>544</v>
-      </c>
       <c r="J81" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K81" s="49" t="s">
         <v>78</v>
@@ -8215,7 +8669,7 @@
       <c r="P81" s="33"/>
       <c r="Q81" s="33"/>
       <c r="R81" s="30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="S81" s="32"/>
       <c r="T81" s="32"/>
@@ -8224,36 +8678,36 @@
       <c r="W81" s="33"/>
       <c r="X81" s="30"/>
       <c r="Y81" s="33"/>
-      <c r="Z81" s="105" t="s">
-        <v>541</v>
+      <c r="Z81" s="102" t="s">
+        <v>540</v>
       </c>
       <c r="AA81" s="98"/>
     </row>
     <row r="82" spans="1:27" s="96" customFormat="1">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
-      <c r="C82" s="17" t="s">
-        <v>547</v>
+      <c r="C82" s="126" t="s">
+        <v>546</v>
       </c>
       <c r="D82" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="F82" s="17" t="s">
         <v>611</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>612</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="K82" s="97" t="s">
         <v>609</v>
       </c>
-      <c r="K82" s="97" t="s">
-        <v>610</v>
-      </c>
-      <c r="L82" s="107"/>
+      <c r="L82" s="103"/>
       <c r="M82" s="19" t="s">
         <v>92</v>
       </c>
@@ -8275,67 +8729,89 @@
       <c r="AA82" s="27"/>
     </row>
     <row r="83" spans="1:27" s="96" customFormat="1">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="102"/>
-      <c r="L83" s="45"/>
-      <c r="M83" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N83" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O83" s="4"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="21"/>
-      <c r="W83" s="21"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="21"/>
-      <c r="Z83" s="64"/>
-      <c r="AA83" s="59"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="C83" s="129" t="s">
+        <v>547</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="H83" s="25" t="s">
+        <v>731</v>
+      </c>
+      <c r="I83" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="J83" s="108" t="s">
+        <v>733</v>
+      </c>
+      <c r="K83" s="139" t="s">
+        <v>637</v>
+      </c>
+      <c r="L83" s="112"/>
+      <c r="M83" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="N83" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="O83" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="P83" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="25" t="s">
+        <v>732</v>
+      </c>
+      <c r="S83" s="109"/>
+      <c r="T83" s="109"/>
+      <c r="U83" s="109"/>
+      <c r="V83" s="26"/>
+      <c r="W83" s="26"/>
+      <c r="X83" s="25"/>
+      <c r="Y83" s="26"/>
+      <c r="Z83" s="70"/>
+      <c r="AA83" s="110"/>
     </row>
     <row r="84" spans="1:27" s="96" customFormat="1">
       <c r="A84" s="30"/>
       <c r="B84" s="30"/>
-      <c r="C84" s="30" t="s">
-        <v>549</v>
+      <c r="C84" s="120" t="s">
+        <v>548</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F84" s="30" t="s">
         <v>35</v>
       </c>
       <c r="G84" s="30" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H84" s="30"/>
       <c r="I84" s="30"/>
       <c r="J84" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="K84" s="100" t="s">
         <v>616</v>
-      </c>
-      <c r="K84" s="100" t="s">
-        <v>617</v>
       </c>
       <c r="L84" s="100"/>
       <c r="M84" s="32" t="s">
@@ -8344,7 +8820,9 @@
       <c r="N84" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="O84" s="32"/>
+      <c r="O84" s="32" t="s">
+        <v>92</v>
+      </c>
       <c r="P84" s="33"/>
       <c r="Q84" s="33"/>
       <c r="R84" s="30"/>
@@ -8357,39 +8835,39 @@
       <c r="Y84" s="33"/>
       <c r="Z84" s="69"/>
       <c r="AA84" s="98" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="85" spans="1:27" s="96" customFormat="1">
       <c r="A85" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>558</v>
-      </c>
-      <c r="C85" s="34" t="s">
-        <v>550</v>
+        <v>557</v>
+      </c>
+      <c r="C85" s="118" t="s">
+        <v>549</v>
       </c>
       <c r="D85" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F85" s="34" t="s">
         <v>278</v>
       </c>
       <c r="G85" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="H85" s="34" t="s">
+        <v>562</v>
+      </c>
+      <c r="I85" s="34" t="s">
         <v>559</v>
       </c>
-      <c r="H85" s="34" t="s">
-        <v>563</v>
-      </c>
-      <c r="I85" s="34" t="s">
+      <c r="J85" s="35" t="s">
         <v>560</v>
-      </c>
-      <c r="J85" s="35" t="s">
-        <v>561</v>
       </c>
       <c r="K85" s="46" t="s">
         <v>136</v>
@@ -8411,7 +8889,7 @@
         <v>92</v>
       </c>
       <c r="R85" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="S85" s="36"/>
       <c r="T85" s="36"/>
@@ -8421,70 +8899,74 @@
       <c r="X85" s="34"/>
       <c r="Y85" s="37"/>
       <c r="Z85" s="65"/>
-      <c r="AA85" s="103"/>
+      <c r="AA85" s="101"/>
     </row>
     <row r="86" spans="1:27" s="96" customFormat="1">
-      <c r="A86" s="30" t="s">
-        <v>566</v>
-      </c>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30" t="s">
-        <v>551</v>
-      </c>
-      <c r="D86" s="30" t="s">
+      <c r="A86" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="B86" s="25"/>
+      <c r="C86" s="129" t="s">
+        <v>550</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="E86" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E86" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="F86" s="30" t="s">
-        <v>593</v>
-      </c>
-      <c r="G86" s="30" t="s">
+      <c r="F86" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="H86" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="H86" s="30" t="s">
+      <c r="I86" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="I86" s="30" t="s">
+      <c r="J86" s="108" t="s">
         <v>598</v>
       </c>
-      <c r="J86" s="31" t="s">
+      <c r="K86" s="112" t="s">
         <v>599</v>
       </c>
-      <c r="K86" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="L86" s="49"/>
-      <c r="M86" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="N86" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="O86" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="33"/>
-      <c r="R86" s="30"/>
-      <c r="S86" s="32"/>
-      <c r="T86" s="32"/>
-      <c r="U86" s="32"/>
-      <c r="V86" s="33"/>
-      <c r="W86" s="33"/>
-      <c r="X86" s="30"/>
-      <c r="Y86" s="33"/>
-      <c r="Z86" s="69"/>
-      <c r="AA86" s="98"/>
-    </row>
-    <row r="87" spans="1:27" s="96" customFormat="1">
+      <c r="L86" s="112"/>
+      <c r="M86" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="N86" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="O86" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="P86" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q86" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="R86" s="25"/>
+      <c r="S86" s="109"/>
+      <c r="T86" s="109"/>
+      <c r="U86" s="109"/>
+      <c r="V86" s="26"/>
+      <c r="W86" s="26"/>
+      <c r="X86" s="25"/>
+      <c r="Y86" s="26"/>
+      <c r="Z86" s="70"/>
+      <c r="AA86" s="110"/>
+    </row>
+    <row r="87" spans="1:27" s="96" customFormat="1" ht="20">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="C87" s="104" t="s">
-        <v>553</v>
+        <v>531</v>
+      </c>
+      <c r="C87" s="127" t="s">
+        <v>552</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -8512,42 +8994,42 @@
       <c r="W87" s="21"/>
       <c r="X87" s="5"/>
       <c r="Y87" s="21"/>
-      <c r="Z87" s="117"/>
+      <c r="Z87" s="111"/>
       <c r="AA87" s="59" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="88" spans="1:27" s="96" customFormat="1">
       <c r="A88" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>557</v>
-      </c>
-      <c r="C88" s="30" t="s">
-        <v>554</v>
+        <v>556</v>
+      </c>
+      <c r="C88" s="120" t="s">
+        <v>553</v>
       </c>
       <c r="D88" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="E88" s="30" t="s">
         <v>579</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>580</v>
       </c>
       <c r="F88" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="H88" s="30" t="s">
         <v>575</v>
       </c>
-      <c r="H88" s="30" t="s">
+      <c r="I88" s="30" t="s">
         <v>576</v>
-      </c>
-      <c r="I88" s="30" t="s">
-        <v>577</v>
       </c>
       <c r="J88" s="31"/>
       <c r="K88" s="49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L88" s="49"/>
       <c r="M88" s="32" t="s">
@@ -8562,7 +9044,7 @@
       <c r="P88" s="33"/>
       <c r="Q88" s="33"/>
       <c r="R88" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="S88" s="32"/>
       <c r="T88" s="32"/>
@@ -8575,74 +9057,74 @@
       <c r="AA88" s="98"/>
     </row>
     <row r="89" spans="1:27" s="96" customFormat="1">
-      <c r="A89" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="C89" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="D89" s="25" t="s">
+      <c r="A89" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="C89" s="118" t="s">
+        <v>551</v>
+      </c>
+      <c r="D89" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="E89" s="34" t="s">
         <v>569</v>
       </c>
-      <c r="E89" s="25" t="s">
+      <c r="F89" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G89" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="F89" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="G89" s="25" t="s">
+      <c r="H89" s="34" t="s">
         <v>571</v>
       </c>
-      <c r="H89" s="25" t="s">
+      <c r="I89" s="34" t="s">
         <v>572</v>
       </c>
-      <c r="I89" s="25" t="s">
+      <c r="J89" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="K89" s="113" t="s">
+        <v>566</v>
+      </c>
+      <c r="L89" s="113"/>
+      <c r="M89" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="N89" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="O89" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P89" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q89" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="R89" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="J89" s="113" t="s">
-        <v>568</v>
-      </c>
-      <c r="K89" s="114" t="s">
-        <v>567</v>
-      </c>
-      <c r="L89" s="114"/>
-      <c r="M89" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="N89" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="O89" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="P89" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q89" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="R89" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="S89" s="115"/>
-      <c r="T89" s="115"/>
-      <c r="U89" s="115"/>
-      <c r="V89" s="26"/>
-      <c r="W89" s="26"/>
-      <c r="X89" s="25"/>
-      <c r="Y89" s="26"/>
-      <c r="Z89" s="68"/>
-      <c r="AA89" s="116"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="37"/>
+      <c r="X89" s="34"/>
+      <c r="Y89" s="37"/>
+      <c r="Z89" s="67"/>
+      <c r="AA89" s="101"/>
     </row>
     <row r="90" spans="1:27" s="96" customFormat="1">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="C90" s="107" t="s">
+        <v>593</v>
+      </c>
+      <c r="C90" s="130" t="s">
         <v>315</v>
       </c>
       <c r="D90" s="17" t="s">
@@ -8660,12 +9142,16 @@
       <c r="J90" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="K90" s="107" t="s">
-        <v>595</v>
-      </c>
-      <c r="L90" s="107"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
+      <c r="K90" s="103" t="s">
+        <v>594</v>
+      </c>
+      <c r="L90" s="103"/>
+      <c r="M90" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N90" s="85" t="s">
+        <v>156</v>
+      </c>
       <c r="O90" s="19"/>
       <c r="P90" s="19"/>
       <c r="Q90" s="19"/>
@@ -8677,42 +9163,42 @@
       <c r="W90" s="22"/>
       <c r="X90" s="17"/>
       <c r="Y90" s="22"/>
-      <c r="Z90" s="110"/>
+      <c r="Z90" s="105"/>
       <c r="AA90" s="27"/>
     </row>
-    <row r="91" spans="1:27" s="96" customFormat="1">
+    <row r="91" spans="1:27" s="96" customFormat="1" ht="20">
       <c r="A91" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="C91" s="104" t="s">
-        <v>555</v>
+        <v>531</v>
+      </c>
+      <c r="C91" s="127" t="s">
+        <v>554</v>
       </c>
       <c r="D91" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="F91" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>593</v>
-      </c>
       <c r="G91" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H91" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="I91" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="I91" s="5" t="s">
-        <v>587</v>
-      </c>
       <c r="J91" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="K91" s="45" t="s">
         <v>589</v>
-      </c>
-      <c r="K91" s="45" t="s">
-        <v>590</v>
       </c>
       <c r="L91" s="45"/>
       <c r="M91" s="4" t="s">
@@ -8725,7 +9211,7 @@
       <c r="P91" s="21"/>
       <c r="Q91" s="21"/>
       <c r="R91" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
@@ -8734,34 +9220,34 @@
       <c r="W91" s="21"/>
       <c r="X91" s="5"/>
       <c r="Y91" s="21"/>
-      <c r="Z91" s="117"/>
+      <c r="Z91" s="111"/>
       <c r="AA91" s="59" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" s="96" customFormat="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" s="96" customFormat="1" ht="20">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
-      <c r="C92" s="109" t="s">
-        <v>603</v>
+      <c r="C92" s="115" t="s">
+        <v>602</v>
       </c>
       <c r="D92" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="E92" s="17" t="s">
         <v>605</v>
       </c>
-      <c r="E92" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="F92" s="112" t="s">
-        <v>581</v>
+      <c r="F92" s="107" t="s">
+        <v>580</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K92" s="50" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L92" s="50"/>
       <c r="M92" s="19" t="s">
@@ -8781,20 +9267,20 @@
       <c r="W92" s="22"/>
       <c r="X92" s="17"/>
       <c r="Y92" s="22"/>
-      <c r="Z92" s="110"/>
+      <c r="Z92" s="105"/>
       <c r="AA92" s="27"/>
     </row>
-    <row r="93" spans="1:27" s="118" customFormat="1">
+    <row r="93" spans="1:27" s="96" customFormat="1" ht="20">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="104" t="s">
-        <v>621</v>
+      <c r="C93" s="127" t="s">
+        <v>620</v>
       </c>
       <c r="D93" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>628</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>629</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>278</v>
@@ -8803,7 +9289,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K93" s="45" t="s">
         <v>67</v>
@@ -8824,22 +9310,22 @@
       <c r="W93" s="21"/>
       <c r="X93" s="5"/>
       <c r="Y93" s="21"/>
-      <c r="Z93" s="117"/>
+      <c r="Z93" s="111"/>
       <c r="AA93" s="59" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" s="118" customFormat="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" s="96" customFormat="1" ht="20">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="104" t="s">
-        <v>630</v>
+      <c r="C94" s="127" t="s">
+        <v>629</v>
       </c>
       <c r="D94" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>632</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>633</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>278</v>
@@ -8848,7 +9334,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K94" s="45" t="s">
         <v>67</v>
@@ -8869,22 +9355,22 @@
       <c r="W94" s="21"/>
       <c r="X94" s="5"/>
       <c r="Y94" s="21"/>
-      <c r="Z94" s="117"/>
+      <c r="Z94" s="111"/>
       <c r="AA94" s="59" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" s="118" customFormat="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" s="96" customFormat="1" ht="20">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
-      <c r="C95" s="104" t="s">
+      <c r="C95" s="127" t="s">
+        <v>633</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>635</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>636</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>35</v>
@@ -8893,13 +9379,15 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K95" s="45" t="s">
         <v>67</v>
       </c>
       <c r="L95" s="45"/>
-      <c r="M95" s="4"/>
+      <c r="M95" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="21"/>
@@ -8912,22 +9400,22 @@
       <c r="W95" s="21"/>
       <c r="X95" s="5"/>
       <c r="Y95" s="21"/>
-      <c r="Z95" s="117"/>
+      <c r="Z95" s="111"/>
       <c r="AA95" s="59" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" s="118" customFormat="1" ht="19" customHeight="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" s="96" customFormat="1" ht="19" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
-      <c r="C96" s="104" t="s">
-        <v>622</v>
+      <c r="C96" s="127" t="s">
+        <v>621</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>28</v>
@@ -8936,10 +9424,10 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="K96" s="45" t="s">
         <v>623</v>
-      </c>
-      <c r="K96" s="45" t="s">
-        <v>624</v>
       </c>
       <c r="L96" s="45"/>
       <c r="M96" s="4" t="s">
@@ -8957,72 +9445,1140 @@
       <c r="W96" s="21"/>
       <c r="X96" s="5"/>
       <c r="Y96" s="21"/>
-      <c r="Z96" s="117"/>
+      <c r="Z96" s="111"/>
       <c r="AA96" s="59" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27">
-      <c r="A97" s="51"/>
-      <c r="B97" s="51"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="51"/>
-      <c r="J97" s="52"/>
-      <c r="K97" s="51"/>
-      <c r="L97" s="51"/>
-      <c r="M97" s="53"/>
-      <c r="N97" s="53"/>
-      <c r="O97" s="53"/>
-      <c r="P97" s="54"/>
-      <c r="Q97" s="54"/>
-      <c r="R97" s="51"/>
-      <c r="S97" s="53"/>
-      <c r="T97" s="53"/>
-      <c r="U97" s="53"/>
-      <c r="V97" s="54"/>
-      <c r="W97" s="54"/>
-      <c r="X97" s="55"/>
-      <c r="Y97" s="54"/>
-      <c r="Z97" s="72"/>
-      <c r="AA97" s="55"/>
-    </row>
-    <row r="98" spans="1:27">
-      <c r="C98" s="34"/>
-      <c r="D98" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" s="96" customFormat="1">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="131" t="s">
+        <v>639</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L97" s="5"/>
+      <c r="M97" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="21"/>
+      <c r="W97" s="21"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="21"/>
+      <c r="Z97" s="111"/>
+      <c r="AA97" s="59"/>
+    </row>
+    <row r="98" spans="1:27" s="96" customFormat="1" ht="20">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="127" t="s">
+        <v>643</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L98" s="5"/>
+      <c r="M98" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="21"/>
+      <c r="Q98" s="21"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="21"/>
+      <c r="W98" s="21"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="21"/>
+      <c r="Z98" s="111"/>
+      <c r="AA98" s="59" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" s="96" customFormat="1" ht="20">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="127" t="s">
+        <v>647</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L99" s="5"/>
+      <c r="M99" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="21"/>
+      <c r="Q99" s="21"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="21"/>
+      <c r="W99" s="21"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="21"/>
+      <c r="Z99" s="111"/>
+      <c r="AA99" s="59" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" s="96" customFormat="1" ht="20">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="127" t="s">
+        <v>651</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L100" s="5"/>
+      <c r="M100" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="21"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="21"/>
+      <c r="W100" s="21"/>
+      <c r="X100" s="5"/>
+      <c r="Y100" s="21"/>
+      <c r="Z100" s="111"/>
+      <c r="AA100" s="59"/>
+    </row>
+    <row r="101" spans="1:27" s="96" customFormat="1" ht="20">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="127" t="s">
+        <v>655</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="L101" s="5"/>
+      <c r="M101" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="5"/>
+      <c r="Y101" s="21"/>
+      <c r="Z101" s="111"/>
+      <c r="AA101" s="59" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" s="96" customFormat="1" ht="20">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="127" t="s">
+        <v>659</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L102" s="5"/>
+      <c r="M102" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="21"/>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="21"/>
+      <c r="W102" s="21"/>
+      <c r="X102" s="5"/>
+      <c r="Y102" s="21"/>
+      <c r="Z102" s="111"/>
+      <c r="AA102" s="59" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" s="96" customFormat="1" ht="19" customHeight="1">
+      <c r="A103" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="B103" s="30"/>
+      <c r="C103" s="128" t="s">
+        <v>663</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="F103" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="K103" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="L103" s="30"/>
+      <c r="M103" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N103" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O103" s="32"/>
+      <c r="P103" s="33"/>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="30"/>
+      <c r="S103" s="32"/>
+      <c r="T103" s="32"/>
+      <c r="U103" s="32"/>
+      <c r="V103" s="33"/>
+      <c r="W103" s="33"/>
+      <c r="X103" s="30"/>
+      <c r="Y103" s="33"/>
+      <c r="Z103" s="102"/>
+      <c r="AA103" s="98"/>
+    </row>
+    <row r="104" spans="1:27" s="96" customFormat="1">
+      <c r="A104" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="B104" s="30"/>
+      <c r="C104" s="134" t="s">
+        <v>668</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="F104" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="K104" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L104" s="30"/>
+      <c r="M104" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N104" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O104" s="32"/>
+      <c r="P104" s="32"/>
+      <c r="Q104" s="32"/>
+      <c r="R104" s="30"/>
+      <c r="S104" s="32"/>
+      <c r="T104" s="32"/>
+      <c r="U104" s="32"/>
+      <c r="V104" s="33"/>
+      <c r="W104" s="33"/>
+      <c r="X104" s="30"/>
+      <c r="Y104" s="33"/>
+      <c r="Z104" s="102"/>
+      <c r="AA104" s="98"/>
+    </row>
+    <row r="105" spans="1:27" s="96" customFormat="1" ht="20">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="127" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="L105" s="5"/>
+      <c r="M105" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="21"/>
+      <c r="Q105" s="21"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="21"/>
+      <c r="W105" s="21"/>
+      <c r="X105" s="5"/>
+      <c r="Y105" s="21"/>
+      <c r="Z105" s="111"/>
+      <c r="AA105" s="59" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" s="96" customFormat="1" ht="20">
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="128" t="s">
+        <v>673</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>676</v>
+      </c>
+      <c r="F106" s="133" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="K106" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L106" s="30"/>
+      <c r="M106" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N106" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O106" s="32"/>
+      <c r="P106" s="33"/>
+      <c r="Q106" s="33"/>
+      <c r="R106" s="30"/>
+      <c r="S106" s="32"/>
+      <c r="T106" s="32"/>
+      <c r="U106" s="32"/>
+      <c r="V106" s="33"/>
+      <c r="W106" s="33"/>
+      <c r="X106" s="30"/>
+      <c r="Y106" s="33"/>
+      <c r="Z106" s="102"/>
+      <c r="AA106" s="98"/>
+    </row>
+    <row r="107" spans="1:27" s="96" customFormat="1" ht="20">
+      <c r="A107" s="30"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="128" t="s">
+        <v>677</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>678</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>679</v>
+      </c>
+      <c r="F107" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="31" t="s">
+        <v>680</v>
+      </c>
+      <c r="K107" s="49"/>
+      <c r="L107" s="49"/>
+      <c r="M107" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N107" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O107" s="32"/>
+      <c r="P107" s="33"/>
+      <c r="Q107" s="33"/>
+      <c r="R107" s="30"/>
+      <c r="S107" s="32"/>
+      <c r="T107" s="32"/>
+      <c r="U107" s="32"/>
+      <c r="V107" s="33"/>
+      <c r="W107" s="33"/>
+      <c r="X107" s="30"/>
+      <c r="Y107" s="33"/>
+      <c r="Z107" s="102"/>
+      <c r="AA107" s="98"/>
+    </row>
+    <row r="108" spans="1:27" s="96" customFormat="1">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="131" t="s">
+        <v>681</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="K108" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="L108" s="45"/>
+      <c r="M108" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="21"/>
+      <c r="Q108" s="21"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="21"/>
+      <c r="W108" s="21"/>
+      <c r="X108" s="5"/>
+      <c r="Y108" s="21"/>
+      <c r="Z108" s="111"/>
+      <c r="AA108" s="59"/>
+    </row>
+    <row r="109" spans="1:27" s="96" customFormat="1" ht="20">
+      <c r="A109" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="B109" s="30"/>
+      <c r="C109" s="128" t="s">
+        <v>685</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="E109" s="30" t="s">
+        <v>688</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="K109" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="L109" s="49"/>
+      <c r="M109" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N109" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O109" s="32"/>
+      <c r="P109" s="33"/>
+      <c r="Q109" s="33"/>
+      <c r="R109" s="30"/>
+      <c r="S109" s="32"/>
+      <c r="T109" s="32"/>
+      <c r="U109" s="32"/>
+      <c r="V109" s="33"/>
+      <c r="W109" s="33"/>
+      <c r="X109" s="30"/>
+      <c r="Y109" s="33"/>
+      <c r="Z109" s="102"/>
+      <c r="AA109" s="98"/>
+    </row>
+    <row r="110" spans="1:27" s="96" customFormat="1" ht="19" customHeight="1">
+      <c r="A110" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="B110" s="30"/>
+      <c r="C110" s="128" t="s">
+        <v>694</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>693</v>
+      </c>
+      <c r="F110" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="31" t="s">
+        <v>690</v>
+      </c>
+      <c r="K110" s="49" t="s">
+        <v>691</v>
+      </c>
+      <c r="L110" s="49"/>
+      <c r="M110" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N110" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O110" s="32"/>
+      <c r="P110" s="33"/>
+      <c r="Q110" s="33"/>
+      <c r="R110" s="30"/>
+      <c r="S110" s="32"/>
+      <c r="T110" s="32"/>
+      <c r="U110" s="32"/>
+      <c r="V110" s="33"/>
+      <c r="W110" s="33"/>
+      <c r="X110" s="30"/>
+      <c r="Y110" s="33"/>
+      <c r="Z110" s="102"/>
+      <c r="AA110" s="98"/>
+    </row>
+    <row r="111" spans="1:27" s="96" customFormat="1">
+      <c r="A111" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="C111" s="134" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E111" s="30" t="s">
+        <v>696</v>
+      </c>
+      <c r="F111" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="K111" s="30" t="s">
+        <v>695</v>
+      </c>
+      <c r="L111" s="30"/>
+      <c r="M111" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N111" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O111" s="32"/>
+      <c r="P111" s="32"/>
+      <c r="Q111" s="32"/>
+      <c r="R111" s="30"/>
+      <c r="S111" s="32"/>
+      <c r="T111" s="32"/>
+      <c r="U111" s="32"/>
+      <c r="V111" s="33"/>
+      <c r="W111" s="33"/>
+      <c r="X111" s="30"/>
+      <c r="Y111" s="33"/>
+      <c r="Z111" s="102"/>
+      <c r="AA111" s="98"/>
+    </row>
+    <row r="112" spans="1:27" s="96" customFormat="1">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="132" t="s">
+        <v>697</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L112" s="5"/>
+      <c r="M112" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="21"/>
+      <c r="Q112" s="21"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="21"/>
+      <c r="W112" s="21"/>
+      <c r="X112" s="5"/>
+      <c r="Y112" s="21"/>
+      <c r="Z112" s="111"/>
+      <c r="AA112" s="59"/>
+    </row>
+    <row r="113" spans="1:27" s="96" customFormat="1">
+      <c r="A113" s="30"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="136" t="s">
+        <v>245</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="E113" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="F113" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K113" s="30" t="s">
+        <v>701</v>
+      </c>
+      <c r="L113" s="30"/>
+      <c r="M113" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N113" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O113" s="32"/>
+      <c r="P113" s="33"/>
+      <c r="Q113" s="33"/>
+      <c r="R113" s="30"/>
+      <c r="S113" s="32"/>
+      <c r="T113" s="32"/>
+      <c r="U113" s="32"/>
+      <c r="V113" s="33"/>
+      <c r="W113" s="33"/>
+      <c r="X113" s="30"/>
+      <c r="Y113" s="33"/>
+      <c r="Z113" s="102"/>
+      <c r="AA113" s="98"/>
+    </row>
+    <row r="114" spans="1:27" s="96" customFormat="1">
+      <c r="A114" s="30"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="136" t="s">
+        <v>704</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>702</v>
+      </c>
+      <c r="E114" s="30" t="s">
+        <v>703</v>
+      </c>
+      <c r="F114" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="K114" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="L114" s="49"/>
+      <c r="M114" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N114" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O114" s="32"/>
+      <c r="P114" s="33"/>
+      <c r="Q114" s="33"/>
+      <c r="R114" s="30"/>
+      <c r="S114" s="32"/>
+      <c r="T114" s="32"/>
+      <c r="U114" s="32"/>
+      <c r="V114" s="33"/>
+      <c r="W114" s="33"/>
+      <c r="X114" s="30"/>
+      <c r="Y114" s="33"/>
+      <c r="Z114" s="102"/>
+      <c r="AA114" s="98"/>
+    </row>
+    <row r="115" spans="1:27" s="96" customFormat="1">
+      <c r="A115" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="B115" s="30"/>
+      <c r="C115" s="100" t="s">
+        <v>707</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>708</v>
+      </c>
+      <c r="E115" s="30" t="s">
+        <v>709</v>
+      </c>
+      <c r="F115" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="K115" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="L115" s="49"/>
+      <c r="M115" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N115" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O115" s="32"/>
+      <c r="P115" s="33"/>
+      <c r="Q115" s="33"/>
+      <c r="R115" s="30"/>
+      <c r="S115" s="32"/>
+      <c r="T115" s="32"/>
+      <c r="U115" s="32"/>
+      <c r="V115" s="33"/>
+      <c r="W115" s="33"/>
+      <c r="X115" s="30"/>
+      <c r="Y115" s="33"/>
+      <c r="Z115" s="102"/>
+      <c r="AA115" s="98"/>
+    </row>
+    <row r="116" spans="1:27" s="96" customFormat="1">
+      <c r="A116" s="30"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="136" t="s">
+        <v>710</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>712</v>
+      </c>
+      <c r="E116" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="K116" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="L116" s="49"/>
+      <c r="M116" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N116" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O116" s="32"/>
+      <c r="P116" s="33"/>
+      <c r="Q116" s="33"/>
+      <c r="R116" s="30"/>
+      <c r="S116" s="32"/>
+      <c r="T116" s="32"/>
+      <c r="U116" s="32"/>
+      <c r="V116" s="33"/>
+      <c r="W116" s="33"/>
+      <c r="X116" s="30"/>
+      <c r="Y116" s="33"/>
+      <c r="Z116" s="102"/>
+      <c r="AA116" s="98"/>
+    </row>
+    <row r="117" spans="1:27" s="96" customFormat="1" ht="19" customHeight="1">
+      <c r="A117" s="30"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="136" t="s">
+        <v>714</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>715</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>716</v>
+      </c>
+      <c r="F117" s="133" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="K117" s="49"/>
+      <c r="L117" s="49"/>
+      <c r="M117" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N117" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O117" s="32"/>
+      <c r="P117" s="33"/>
+      <c r="Q117" s="33"/>
+      <c r="R117" s="30"/>
+      <c r="S117" s="32"/>
+      <c r="T117" s="32"/>
+      <c r="U117" s="32"/>
+      <c r="V117" s="33"/>
+      <c r="W117" s="33"/>
+      <c r="X117" s="30"/>
+      <c r="Y117" s="33"/>
+      <c r="Z117" s="102"/>
+      <c r="AA117" s="98"/>
+    </row>
+    <row r="118" spans="1:27" s="96" customFormat="1">
+      <c r="A118" s="30"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="136" t="s">
+        <v>721</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="E118" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="F118" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="K118" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="L118" s="49"/>
+      <c r="M118" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N118" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O118" s="32"/>
+      <c r="P118" s="33"/>
+      <c r="Q118" s="33"/>
+      <c r="R118" s="30"/>
+      <c r="S118" s="32"/>
+      <c r="T118" s="32"/>
+      <c r="U118" s="32"/>
+      <c r="V118" s="33"/>
+      <c r="W118" s="33"/>
+      <c r="X118" s="30"/>
+      <c r="Y118" s="33"/>
+      <c r="Z118" s="102"/>
+      <c r="AA118" s="98"/>
+    </row>
+    <row r="119" spans="1:27" s="96" customFormat="1">
+      <c r="A119" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="B119" s="30"/>
+      <c r="C119" s="100" t="s">
+        <v>723</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="E119" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="F119" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="K119" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="L119" s="49"/>
+      <c r="M119" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="N119" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O119" s="32"/>
+      <c r="P119" s="33"/>
+      <c r="Q119" s="33"/>
+      <c r="R119" s="30"/>
+      <c r="S119" s="32"/>
+      <c r="T119" s="32"/>
+      <c r="U119" s="32"/>
+      <c r="V119" s="33"/>
+      <c r="W119" s="33"/>
+      <c r="X119" s="30"/>
+      <c r="Y119" s="33"/>
+      <c r="Z119" s="102"/>
+      <c r="AA119" s="98"/>
+    </row>
+    <row r="120" spans="1:27" s="96" customFormat="1">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="116"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="50"/>
+      <c r="L120" s="50"/>
+      <c r="M120" s="19"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="19"/>
+      <c r="P120" s="22"/>
+      <c r="Q120" s="22"/>
+      <c r="R120" s="17"/>
+      <c r="S120" s="19"/>
+      <c r="T120" s="19"/>
+      <c r="U120" s="19"/>
+      <c r="V120" s="22"/>
+      <c r="W120" s="22"/>
+      <c r="X120" s="17"/>
+      <c r="Y120" s="22"/>
+      <c r="Z120" s="105"/>
+      <c r="AA120" s="27"/>
+    </row>
+    <row r="121" spans="1:27">
+      <c r="A121" s="51"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="51"/>
+      <c r="D121" s="51"/>
+      <c r="E121" s="51"/>
+      <c r="F121" s="51"/>
+      <c r="G121" s="51"/>
+      <c r="H121" s="51"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="52"/>
+      <c r="K121" s="51"/>
+      <c r="L121" s="51"/>
+      <c r="M121" s="53"/>
+      <c r="N121" s="53"/>
+      <c r="O121" s="53"/>
+      <c r="P121" s="54"/>
+      <c r="Q121" s="54"/>
+      <c r="R121" s="51"/>
+      <c r="S121" s="53"/>
+      <c r="T121" s="53"/>
+      <c r="U121" s="53"/>
+      <c r="V121" s="54"/>
+      <c r="W121" s="54"/>
+      <c r="X121" s="55"/>
+      <c r="Y121" s="54"/>
+      <c r="Z121" s="72"/>
+      <c r="AA121" s="55"/>
+    </row>
+    <row r="122" spans="1:27">
+      <c r="C122" s="34"/>
+      <c r="D122" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
-      <c r="C99" s="25"/>
-      <c r="D99" s="1" t="s">
+    <row r="123" spans="1:27">
+      <c r="C123" s="25"/>
+      <c r="D123" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
-      <c r="C100" s="38"/>
-      <c r="D100" s="1" t="s">
+    <row r="124" spans="1:27">
+      <c r="C124" s="38"/>
+      <c r="D124" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="38">
-      <c r="C101" s="1"/>
-      <c r="D101" s="73" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27">
-      <c r="C102" s="5"/>
-      <c r="D102" s="1" t="s">
+    <row r="125" spans="1:27" ht="38">
+      <c r="C125" s="1"/>
+      <c r="D125" s="73" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
+      <c r="C126" s="5"/>
+      <c r="D126" s="1" t="s">
         <v>331</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K2:K76" xr:uid="{70DB2EF8-F46F-4B43-BBBF-3458F56CBBBA}"/>
+  <autoFilter ref="C2:C120" xr:uid="{683883E1-9310-4D49-82B2-CA6776C8D9A0}"/>
   <mergeCells count="2">
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="S1:W1"/>
@@ -9095,7 +10651,7 @@
     <hyperlink ref="Z17" r:id="rId64" xr:uid="{952BB8B4-2E3C-F244-B7A3-D4EFCB65C312}"/>
     <hyperlink ref="Z18" r:id="rId65" xr:uid="{396B5500-92FA-424E-AA47-1ADD1D23C32A}"/>
     <hyperlink ref="Z15" r:id="rId66" xr:uid="{125B68BD-5C26-2C4C-8624-A1DC16936E0D}"/>
-    <hyperlink ref="Z16" r:id="rId67" xr:uid="{3680A6F7-9B24-B54B-9088-FE1F30B5BB70}"/>
+    <hyperlink ref="Z16" r:id="rId67" display="イニシャル変更後職務経歴書/職務経歴書_IA.xls" xr:uid="{3680A6F7-9B24-B54B-9088-FE1F30B5BB70}"/>
     <hyperlink ref="Z5" r:id="rId68" xr:uid="{3E12B84C-46E0-554B-8974-00D86BE0FA72}"/>
     <hyperlink ref="Z10" r:id="rId69" xr:uid="{930E419E-7049-F24F-9D56-2CBDF5721DD2}"/>
     <hyperlink ref="Z7" r:id="rId70" xr:uid="{E5AEFDEF-5302-7340-85C4-CDB7EDDA6E81}"/>
@@ -9135,8 +10691,32 @@
     <hyperlink ref="J96" r:id="rId104" xr:uid="{C8386B71-FFD1-2F46-B66E-3DCE09D9ABB6}"/>
     <hyperlink ref="J94" r:id="rId105" xr:uid="{154ED229-C0F6-3A45-A22B-1F0000A31487}"/>
     <hyperlink ref="J95" r:id="rId106" xr:uid="{2BD75B41-2685-4E42-891A-8ABC406234EF}"/>
+    <hyperlink ref="J97" r:id="rId107" xr:uid="{1BC7D9F8-3DE4-D34F-9F9F-410759663CFD}"/>
+    <hyperlink ref="J98" r:id="rId108" xr:uid="{C93BE8BB-B55F-DA4F-B353-74A78EA74EEC}"/>
+    <hyperlink ref="J99" r:id="rId109" xr:uid="{D35F2ECD-9CB6-FF4C-BBF2-88855F361E5E}"/>
+    <hyperlink ref="J100" r:id="rId110" xr:uid="{63E96FA8-F285-8647-8E07-92DB176CADBF}"/>
+    <hyperlink ref="J101" r:id="rId111" xr:uid="{EA6DC0EB-1F65-7F40-8189-E40CC2E40862}"/>
+    <hyperlink ref="J102" r:id="rId112" xr:uid="{EB2D10E2-765F-6341-B6B8-B14FCBE8D9A8}"/>
+    <hyperlink ref="J103" r:id="rId113" xr:uid="{BBDC73F6-99CE-134F-A7B2-A465012F14F4}"/>
+    <hyperlink ref="J104" r:id="rId114" xr:uid="{18CBE15D-82BA-1841-994F-A837FBB0B35B}"/>
+    <hyperlink ref="J105" r:id="rId115" xr:uid="{64B7B0AA-23D4-6140-8440-EE6EAEFBF2B6}"/>
+    <hyperlink ref="J106" r:id="rId116" xr:uid="{7509093B-EFF1-1443-BAEB-AA169FC3D891}"/>
+    <hyperlink ref="J107" r:id="rId117" xr:uid="{050C658E-2BA5-0647-BBCA-DCF71ADFF9D4}"/>
+    <hyperlink ref="J108" r:id="rId118" xr:uid="{1B8082D9-3C5F-CD4F-A7C7-05395C2E3ADF}"/>
+    <hyperlink ref="J109" r:id="rId119" xr:uid="{D7666D8C-9BF4-8248-991D-13DB3524F8C3}"/>
+    <hyperlink ref="J110" r:id="rId120" xr:uid="{CCEDEE5E-7376-4942-BBCB-8A019CD419AE}"/>
+    <hyperlink ref="J111" r:id="rId121" xr:uid="{445F6B22-28C0-C941-96C2-15FA63FB0F67}"/>
+    <hyperlink ref="J112" r:id="rId122" xr:uid="{8A2966FE-384B-3F45-A93A-06206EB9EC62}"/>
+    <hyperlink ref="J113" r:id="rId123" xr:uid="{ABE9256F-082B-4E48-9866-3BD520479F4A}"/>
+    <hyperlink ref="J114" r:id="rId124" xr:uid="{8D9B2F13-CED5-A24F-8CEF-F7333557042A}"/>
+    <hyperlink ref="J115" r:id="rId125" xr:uid="{69A547FD-9883-D24B-A9B2-8617BE8F4783}"/>
+    <hyperlink ref="J116" r:id="rId126" xr:uid="{7E7873DE-FBF4-7C47-95A3-24B06084E308}"/>
+    <hyperlink ref="J117" r:id="rId127" xr:uid="{063C3DD3-4673-6F48-B967-027884FB82BA}"/>
+    <hyperlink ref="J118" r:id="rId128" xr:uid="{F05AF2D6-DC19-974E-9CD5-6DE0C68CE3C3}"/>
+    <hyperlink ref="J119" r:id="rId129" xr:uid="{F8B9C13A-B595-E34F-980C-E7197657BEEE}"/>
+    <hyperlink ref="J83" r:id="rId130" xr:uid="{DDC1BBA1-A522-1D43-806E-070DD24FD394}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId107"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId131"/>
 </worksheet>
 </file>